--- a/20 要件/要件分析書.xlsx
+++ b/20 要件/要件分析書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="195" windowWidth="14460" windowHeight="12600"/>
+    <workbookView xWindow="14760" yWindow="195" windowWidth="14460" windowHeight="12600" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -3473,36 +3473,6 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3524,6 +3494,36 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -12328,7 +12328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
@@ -20637,19 +20637,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A4:BA4"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
-    <mergeCell ref="A16:BA16"/>
-    <mergeCell ref="I19:N20"/>
-    <mergeCell ref="P19:U20"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="I36:N37"/>
-    <mergeCell ref="P36:U37"/>
     <mergeCell ref="B90:G91"/>
     <mergeCell ref="W19:AB20"/>
     <mergeCell ref="B25:G26"/>
@@ -20661,6 +20648,19 @@
     <mergeCell ref="B78:G79"/>
     <mergeCell ref="I78:N79"/>
     <mergeCell ref="P78:U79"/>
+    <mergeCell ref="A16:BA16"/>
+    <mergeCell ref="I19:N20"/>
+    <mergeCell ref="P19:U20"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="I36:N37"/>
+    <mergeCell ref="P36:U37"/>
+    <mergeCell ref="A4:BA4"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -25421,17 +25421,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:BA4"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
-    <mergeCell ref="A20:BA20"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="K23:P24"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="S23:X24"/>
     <mergeCell ref="C63:H64"/>
     <mergeCell ref="C72:H73"/>
     <mergeCell ref="K72:P73"/>
@@ -25441,6 +25430,17 @@
     <mergeCell ref="C46:H47"/>
     <mergeCell ref="C55:H56"/>
     <mergeCell ref="K55:P56"/>
+    <mergeCell ref="A20:BA20"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="K23:P24"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="S23:X24"/>
+    <mergeCell ref="A4:BA4"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -34082,2791 +34082,3031 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="160"/>
-      <c r="AG1" s="160"/>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="160"/>
-      <c r="AJ1" s="160"/>
-      <c r="AK1" s="160"/>
-      <c r="AL1" s="160"/>
-      <c r="AM1" s="161" t="s">
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
+      <c r="AK1" s="148"/>
+      <c r="AL1" s="148"/>
+      <c r="AM1" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="161"/>
-      <c r="AO1" s="161"/>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="162" t="str">
+      <c r="AN1" s="149"/>
+      <c r="AO1" s="149"/>
+      <c r="AP1" s="149"/>
+      <c r="AQ1" s="150" t="str">
         <f>IF(表紙!AL43&lt;&gt;"",表紙!AL43,"")</f>
         <v>connectyee</v>
       </c>
-      <c r="AR1" s="162"/>
-      <c r="AS1" s="162"/>
-      <c r="AT1" s="162"/>
-      <c r="AU1" s="162"/>
-      <c r="AV1" s="162"/>
-      <c r="AW1" s="162"/>
-      <c r="AX1" s="162"/>
-      <c r="AY1" s="162"/>
-      <c r="AZ1" s="162"/>
+      <c r="AR1" s="150"/>
+      <c r="AS1" s="150"/>
+      <c r="AT1" s="150"/>
+      <c r="AU1" s="150"/>
+      <c r="AV1" s="150"/>
+      <c r="AW1" s="150"/>
+      <c r="AX1" s="150"/>
+      <c r="AY1" s="150"/>
+      <c r="AZ1" s="150"/>
     </row>
     <row r="2" spans="1:52">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="160"/>
-      <c r="V2" s="160"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="160"/>
-      <c r="AA2" s="160"/>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="160"/>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="160"/>
-      <c r="AJ2" s="160"/>
-      <c r="AK2" s="160"/>
-      <c r="AL2" s="160"/>
-      <c r="AM2" s="161" t="s">
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="148"/>
+      <c r="AH2" s="148"/>
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="161"/>
-      <c r="AP2" s="161"/>
-      <c r="AQ2" s="163">
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="149"/>
+      <c r="AQ2" s="151">
         <f>IF(表紙!AL45&lt;&gt;"",表紙!AL45,"")</f>
         <v>2</v>
       </c>
-      <c r="AR2" s="163"/>
-      <c r="AS2" s="163"/>
-      <c r="AT2" s="163"/>
-      <c r="AU2" s="163"/>
-      <c r="AV2" s="163"/>
-      <c r="AW2" s="163"/>
-      <c r="AX2" s="163"/>
-      <c r="AY2" s="163"/>
-      <c r="AZ2" s="163"/>
+      <c r="AR2" s="151"/>
+      <c r="AS2" s="151"/>
+      <c r="AT2" s="151"/>
+      <c r="AU2" s="151"/>
+      <c r="AV2" s="151"/>
+      <c r="AW2" s="151"/>
+      <c r="AX2" s="151"/>
+      <c r="AY2" s="151"/>
+      <c r="AZ2" s="151"/>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="164" t="s">
+      <c r="A4" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="164" t="s">
+      <c r="B4" s="153"/>
+      <c r="C4" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="164" t="s">
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="164" t="s">
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="166"/>
-      <c r="R4" s="166"/>
-      <c r="S4" s="166"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="164" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="153"/>
+      <c r="U4" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="166"/>
-      <c r="W4" s="166"/>
-      <c r="X4" s="166"/>
-      <c r="Y4" s="166"/>
-      <c r="Z4" s="166"/>
-      <c r="AA4" s="166"/>
-      <c r="AB4" s="166"/>
-      <c r="AC4" s="166"/>
-      <c r="AD4" s="166"/>
-      <c r="AE4" s="166"/>
-      <c r="AF4" s="166"/>
-      <c r="AG4" s="166"/>
-      <c r="AH4" s="166"/>
-      <c r="AI4" s="166"/>
-      <c r="AJ4" s="166"/>
-      <c r="AK4" s="166"/>
-      <c r="AL4" s="166"/>
-      <c r="AM4" s="166"/>
-      <c r="AN4" s="166"/>
-      <c r="AO4" s="166"/>
-      <c r="AP4" s="166"/>
-      <c r="AQ4" s="166"/>
-      <c r="AR4" s="166"/>
-      <c r="AS4" s="166"/>
-      <c r="AT4" s="166"/>
-      <c r="AU4" s="166"/>
-      <c r="AV4" s="166"/>
-      <c r="AW4" s="166"/>
-      <c r="AX4" s="166"/>
-      <c r="AY4" s="166"/>
-      <c r="AZ4" s="166"/>
+      <c r="V4" s="154"/>
+      <c r="W4" s="154"/>
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="154"/>
+      <c r="AD4" s="154"/>
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="154"/>
+      <c r="AK4" s="154"/>
+      <c r="AL4" s="154"/>
+      <c r="AM4" s="154"/>
+      <c r="AN4" s="154"/>
+      <c r="AO4" s="154"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="154"/>
+      <c r="AR4" s="154"/>
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="154"/>
+      <c r="AU4" s="154"/>
+      <c r="AV4" s="154"/>
+      <c r="AW4" s="154"/>
+      <c r="AX4" s="154"/>
+      <c r="AY4" s="154"/>
+      <c r="AZ4" s="154"/>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="156">
+      <c r="A5" s="155">
         <v>1</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="157">
+      <c r="B5" s="155"/>
+      <c r="C5" s="156">
         <v>42259</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158" t="s">
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159" t="s">
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="158"/>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="158" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="159"/>
-      <c r="Z5" s="159"/>
-      <c r="AA5" s="159"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="159"/>
-      <c r="AD5" s="159"/>
-      <c r="AE5" s="159"/>
-      <c r="AF5" s="159"/>
-      <c r="AG5" s="159"/>
-      <c r="AH5" s="159"/>
-      <c r="AI5" s="159"/>
-      <c r="AJ5" s="159"/>
-      <c r="AK5" s="159"/>
-      <c r="AL5" s="159"/>
-      <c r="AM5" s="159"/>
-      <c r="AN5" s="159"/>
-      <c r="AO5" s="159"/>
-      <c r="AP5" s="159"/>
-      <c r="AQ5" s="159"/>
-      <c r="AR5" s="159"/>
-      <c r="AS5" s="159"/>
-      <c r="AT5" s="159"/>
-      <c r="AU5" s="159"/>
-      <c r="AV5" s="159"/>
-      <c r="AW5" s="159"/>
-      <c r="AX5" s="159"/>
-      <c r="AY5" s="159"/>
-      <c r="AZ5" s="159"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
+      <c r="AB5" s="158"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="158"/>
+      <c r="AE5" s="158"/>
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="158"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="158"/>
+      <c r="AK5" s="158"/>
+      <c r="AL5" s="158"/>
+      <c r="AM5" s="158"/>
+      <c r="AN5" s="158"/>
+      <c r="AO5" s="158"/>
+      <c r="AP5" s="158"/>
+      <c r="AQ5" s="158"/>
+      <c r="AR5" s="158"/>
+      <c r="AS5" s="158"/>
+      <c r="AT5" s="158"/>
+      <c r="AU5" s="158"/>
+      <c r="AV5" s="158"/>
+      <c r="AW5" s="158"/>
+      <c r="AX5" s="158"/>
+      <c r="AY5" s="158"/>
+      <c r="AZ5" s="158"/>
     </row>
     <row r="6" spans="1:52">
-      <c r="A6" s="148"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="151"/>
-      <c r="O6" s="151"/>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="151"/>
-      <c r="T6" s="151"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="151"/>
-      <c r="X6" s="151"/>
-      <c r="Y6" s="151"/>
-      <c r="Z6" s="151"/>
-      <c r="AA6" s="151"/>
-      <c r="AB6" s="151"/>
-      <c r="AC6" s="151"/>
-      <c r="AD6" s="151"/>
-      <c r="AE6" s="151"/>
-      <c r="AF6" s="151"/>
-      <c r="AG6" s="151"/>
-      <c r="AH6" s="151"/>
-      <c r="AI6" s="151"/>
-      <c r="AJ6" s="151"/>
-      <c r="AK6" s="151"/>
-      <c r="AL6" s="151"/>
-      <c r="AM6" s="151"/>
-      <c r="AN6" s="151"/>
-      <c r="AO6" s="151"/>
-      <c r="AP6" s="151"/>
-      <c r="AQ6" s="151"/>
-      <c r="AR6" s="151"/>
-      <c r="AS6" s="151"/>
-      <c r="AT6" s="151"/>
-      <c r="AU6" s="151"/>
-      <c r="AV6" s="151"/>
-      <c r="AW6" s="151"/>
-      <c r="AX6" s="151"/>
-      <c r="AY6" s="151"/>
-      <c r="AZ6" s="151"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="162"/>
+      <c r="U6" s="162"/>
+      <c r="V6" s="162"/>
+      <c r="W6" s="162"/>
+      <c r="X6" s="162"/>
+      <c r="Y6" s="162"/>
+      <c r="Z6" s="162"/>
+      <c r="AA6" s="162"/>
+      <c r="AB6" s="162"/>
+      <c r="AC6" s="162"/>
+      <c r="AD6" s="162"/>
+      <c r="AE6" s="162"/>
+      <c r="AF6" s="162"/>
+      <c r="AG6" s="162"/>
+      <c r="AH6" s="162"/>
+      <c r="AI6" s="162"/>
+      <c r="AJ6" s="162"/>
+      <c r="AK6" s="162"/>
+      <c r="AL6" s="162"/>
+      <c r="AM6" s="162"/>
+      <c r="AN6" s="162"/>
+      <c r="AO6" s="162"/>
+      <c r="AP6" s="162"/>
+      <c r="AQ6" s="162"/>
+      <c r="AR6" s="162"/>
+      <c r="AS6" s="162"/>
+      <c r="AT6" s="162"/>
+      <c r="AU6" s="162"/>
+      <c r="AV6" s="162"/>
+      <c r="AW6" s="162"/>
+      <c r="AX6" s="162"/>
+      <c r="AY6" s="162"/>
+      <c r="AZ6" s="162"/>
     </row>
     <row r="7" spans="1:52">
-      <c r="A7" s="148"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="151"/>
-      <c r="T7" s="151"/>
-      <c r="U7" s="151"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="151"/>
-      <c r="X7" s="151"/>
-      <c r="Y7" s="151"/>
-      <c r="Z7" s="151"/>
-      <c r="AA7" s="151"/>
-      <c r="AB7" s="151"/>
-      <c r="AC7" s="151"/>
-      <c r="AD7" s="151"/>
-      <c r="AE7" s="151"/>
-      <c r="AF7" s="151"/>
-      <c r="AG7" s="151"/>
-      <c r="AH7" s="151"/>
-      <c r="AI7" s="151"/>
-      <c r="AJ7" s="151"/>
-      <c r="AK7" s="151"/>
-      <c r="AL7" s="151"/>
-      <c r="AM7" s="151"/>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="151"/>
-      <c r="AQ7" s="151"/>
-      <c r="AR7" s="151"/>
-      <c r="AS7" s="151"/>
-      <c r="AT7" s="151"/>
-      <c r="AU7" s="151"/>
-      <c r="AV7" s="151"/>
-      <c r="AW7" s="151"/>
-      <c r="AX7" s="151"/>
-      <c r="AY7" s="151"/>
-      <c r="AZ7" s="151"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="162"/>
+      <c r="U7" s="162"/>
+      <c r="V7" s="162"/>
+      <c r="W7" s="162"/>
+      <c r="X7" s="162"/>
+      <c r="Y7" s="162"/>
+      <c r="Z7" s="162"/>
+      <c r="AA7" s="162"/>
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="162"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="162"/>
+      <c r="AG7" s="162"/>
+      <c r="AH7" s="162"/>
+      <c r="AI7" s="162"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="162"/>
+      <c r="AL7" s="162"/>
+      <c r="AM7" s="162"/>
+      <c r="AN7" s="162"/>
+      <c r="AO7" s="162"/>
+      <c r="AP7" s="162"/>
+      <c r="AQ7" s="162"/>
+      <c r="AR7" s="162"/>
+      <c r="AS7" s="162"/>
+      <c r="AT7" s="162"/>
+      <c r="AU7" s="162"/>
+      <c r="AV7" s="162"/>
+      <c r="AW7" s="162"/>
+      <c r="AX7" s="162"/>
+      <c r="AY7" s="162"/>
+      <c r="AZ7" s="162"/>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="148"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="151"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="151"/>
-      <c r="U8" s="151"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="151"/>
-      <c r="X8" s="151"/>
-      <c r="Y8" s="151"/>
-      <c r="Z8" s="151"/>
-      <c r="AA8" s="151"/>
-      <c r="AB8" s="151"/>
-      <c r="AC8" s="151"/>
-      <c r="AD8" s="151"/>
-      <c r="AE8" s="151"/>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="151"/>
-      <c r="AH8" s="151"/>
-      <c r="AI8" s="151"/>
-      <c r="AJ8" s="151"/>
-      <c r="AK8" s="151"/>
-      <c r="AL8" s="151"/>
-      <c r="AM8" s="151"/>
-      <c r="AN8" s="151"/>
-      <c r="AO8" s="151"/>
-      <c r="AP8" s="151"/>
-      <c r="AQ8" s="151"/>
-      <c r="AR8" s="151"/>
-      <c r="AS8" s="151"/>
-      <c r="AT8" s="151"/>
-      <c r="AU8" s="151"/>
-      <c r="AV8" s="151"/>
-      <c r="AW8" s="151"/>
-      <c r="AX8" s="151"/>
-      <c r="AY8" s="151"/>
-      <c r="AZ8" s="151"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
+      <c r="U8" s="162"/>
+      <c r="V8" s="162"/>
+      <c r="W8" s="162"/>
+      <c r="X8" s="162"/>
+      <c r="Y8" s="162"/>
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="162"/>
+      <c r="AG8" s="162"/>
+      <c r="AH8" s="162"/>
+      <c r="AI8" s="162"/>
+      <c r="AJ8" s="162"/>
+      <c r="AK8" s="162"/>
+      <c r="AL8" s="162"/>
+      <c r="AM8" s="162"/>
+      <c r="AN8" s="162"/>
+      <c r="AO8" s="162"/>
+      <c r="AP8" s="162"/>
+      <c r="AQ8" s="162"/>
+      <c r="AR8" s="162"/>
+      <c r="AS8" s="162"/>
+      <c r="AT8" s="162"/>
+      <c r="AU8" s="162"/>
+      <c r="AV8" s="162"/>
+      <c r="AW8" s="162"/>
+      <c r="AX8" s="162"/>
+      <c r="AY8" s="162"/>
+      <c r="AZ8" s="162"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="148"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-      <c r="U9" s="151"/>
-      <c r="V9" s="151"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="151"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="151"/>
-      <c r="AE9" s="151"/>
-      <c r="AF9" s="151"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="151"/>
-      <c r="AJ9" s="151"/>
-      <c r="AK9" s="151"/>
-      <c r="AL9" s="151"/>
-      <c r="AM9" s="151"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="151"/>
-      <c r="AP9" s="151"/>
-      <c r="AQ9" s="151"/>
-      <c r="AR9" s="151"/>
-      <c r="AS9" s="151"/>
-      <c r="AT9" s="151"/>
-      <c r="AU9" s="151"/>
-      <c r="AV9" s="151"/>
-      <c r="AW9" s="151"/>
-      <c r="AX9" s="151"/>
-      <c r="AY9" s="151"/>
-      <c r="AZ9" s="151"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="162"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="162"/>
+      <c r="AG9" s="162"/>
+      <c r="AH9" s="162"/>
+      <c r="AI9" s="162"/>
+      <c r="AJ9" s="162"/>
+      <c r="AK9" s="162"/>
+      <c r="AL9" s="162"/>
+      <c r="AM9" s="162"/>
+      <c r="AN9" s="162"/>
+      <c r="AO9" s="162"/>
+      <c r="AP9" s="162"/>
+      <c r="AQ9" s="162"/>
+      <c r="AR9" s="162"/>
+      <c r="AS9" s="162"/>
+      <c r="AT9" s="162"/>
+      <c r="AU9" s="162"/>
+      <c r="AV9" s="162"/>
+      <c r="AW9" s="162"/>
+      <c r="AX9" s="162"/>
+      <c r="AY9" s="162"/>
+      <c r="AZ9" s="162"/>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="148"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="151"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="151"/>
-      <c r="T10" s="151"/>
-      <c r="U10" s="151"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="151"/>
-      <c r="Y10" s="151"/>
-      <c r="Z10" s="151"/>
-      <c r="AA10" s="151"/>
-      <c r="AB10" s="151"/>
-      <c r="AC10" s="151"/>
-      <c r="AD10" s="151"/>
-      <c r="AE10" s="151"/>
-      <c r="AF10" s="151"/>
-      <c r="AG10" s="151"/>
-      <c r="AH10" s="151"/>
-      <c r="AI10" s="151"/>
-      <c r="AJ10" s="151"/>
-      <c r="AK10" s="151"/>
-      <c r="AL10" s="151"/>
-      <c r="AM10" s="151"/>
-      <c r="AN10" s="151"/>
-      <c r="AO10" s="151"/>
-      <c r="AP10" s="151"/>
-      <c r="AQ10" s="151"/>
-      <c r="AR10" s="151"/>
-      <c r="AS10" s="151"/>
-      <c r="AT10" s="151"/>
-      <c r="AU10" s="151"/>
-      <c r="AV10" s="151"/>
-      <c r="AW10" s="151"/>
-      <c r="AX10" s="151"/>
-      <c r="AY10" s="151"/>
-      <c r="AZ10" s="151"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="162"/>
+      <c r="AJ10" s="162"/>
+      <c r="AK10" s="162"/>
+      <c r="AL10" s="162"/>
+      <c r="AM10" s="162"/>
+      <c r="AN10" s="162"/>
+      <c r="AO10" s="162"/>
+      <c r="AP10" s="162"/>
+      <c r="AQ10" s="162"/>
+      <c r="AR10" s="162"/>
+      <c r="AS10" s="162"/>
+      <c r="AT10" s="162"/>
+      <c r="AU10" s="162"/>
+      <c r="AV10" s="162"/>
+      <c r="AW10" s="162"/>
+      <c r="AX10" s="162"/>
+      <c r="AY10" s="162"/>
+      <c r="AZ10" s="162"/>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="148"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="151"/>
-      <c r="T11" s="151"/>
-      <c r="U11" s="151"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="151"/>
-      <c r="AE11" s="151"/>
-      <c r="AF11" s="151"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="151"/>
-      <c r="AJ11" s="151"/>
-      <c r="AK11" s="151"/>
-      <c r="AL11" s="151"/>
-      <c r="AM11" s="151"/>
-      <c r="AN11" s="151"/>
-      <c r="AO11" s="151"/>
-      <c r="AP11" s="151"/>
-      <c r="AQ11" s="151"/>
-      <c r="AR11" s="151"/>
-      <c r="AS11" s="151"/>
-      <c r="AT11" s="151"/>
-      <c r="AU11" s="151"/>
-      <c r="AV11" s="151"/>
-      <c r="AW11" s="151"/>
-      <c r="AX11" s="151"/>
-      <c r="AY11" s="151"/>
-      <c r="AZ11" s="151"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="162"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="162"/>
+      <c r="AI11" s="162"/>
+      <c r="AJ11" s="162"/>
+      <c r="AK11" s="162"/>
+      <c r="AL11" s="162"/>
+      <c r="AM11" s="162"/>
+      <c r="AN11" s="162"/>
+      <c r="AO11" s="162"/>
+      <c r="AP11" s="162"/>
+      <c r="AQ11" s="162"/>
+      <c r="AR11" s="162"/>
+      <c r="AS11" s="162"/>
+      <c r="AT11" s="162"/>
+      <c r="AU11" s="162"/>
+      <c r="AV11" s="162"/>
+      <c r="AW11" s="162"/>
+      <c r="AX11" s="162"/>
+      <c r="AY11" s="162"/>
+      <c r="AZ11" s="162"/>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="148"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="151"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="151"/>
-      <c r="AJ12" s="151"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="151"/>
-      <c r="AM12" s="151"/>
-      <c r="AN12" s="151"/>
-      <c r="AO12" s="151"/>
-      <c r="AP12" s="151"/>
-      <c r="AQ12" s="151"/>
-      <c r="AR12" s="151"/>
-      <c r="AS12" s="151"/>
-      <c r="AT12" s="151"/>
-      <c r="AU12" s="151"/>
-      <c r="AV12" s="151"/>
-      <c r="AW12" s="151"/>
-      <c r="AX12" s="151"/>
-      <c r="AY12" s="151"/>
-      <c r="AZ12" s="151"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="161"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="161"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="162"/>
+      <c r="AF12" s="162"/>
+      <c r="AG12" s="162"/>
+      <c r="AH12" s="162"/>
+      <c r="AI12" s="162"/>
+      <c r="AJ12" s="162"/>
+      <c r="AK12" s="162"/>
+      <c r="AL12" s="162"/>
+      <c r="AM12" s="162"/>
+      <c r="AN12" s="162"/>
+      <c r="AO12" s="162"/>
+      <c r="AP12" s="162"/>
+      <c r="AQ12" s="162"/>
+      <c r="AR12" s="162"/>
+      <c r="AS12" s="162"/>
+      <c r="AT12" s="162"/>
+      <c r="AU12" s="162"/>
+      <c r="AV12" s="162"/>
+      <c r="AW12" s="162"/>
+      <c r="AX12" s="162"/>
+      <c r="AY12" s="162"/>
+      <c r="AZ12" s="162"/>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="148"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-      <c r="U13" s="151"/>
-      <c r="V13" s="151"/>
-      <c r="W13" s="151"/>
-      <c r="X13" s="151"/>
-      <c r="Y13" s="151"/>
-      <c r="Z13" s="151"/>
-      <c r="AA13" s="151"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="151"/>
-      <c r="AD13" s="151"/>
-      <c r="AE13" s="151"/>
-      <c r="AF13" s="151"/>
-      <c r="AG13" s="151"/>
-      <c r="AH13" s="151"/>
-      <c r="AI13" s="151"/>
-      <c r="AJ13" s="151"/>
-      <c r="AK13" s="151"/>
-      <c r="AL13" s="151"/>
-      <c r="AM13" s="151"/>
-      <c r="AN13" s="151"/>
-      <c r="AO13" s="151"/>
-      <c r="AP13" s="151"/>
-      <c r="AQ13" s="151"/>
-      <c r="AR13" s="151"/>
-      <c r="AS13" s="151"/>
-      <c r="AT13" s="151"/>
-      <c r="AU13" s="151"/>
-      <c r="AV13" s="151"/>
-      <c r="AW13" s="151"/>
-      <c r="AX13" s="151"/>
-      <c r="AY13" s="151"/>
-      <c r="AZ13" s="151"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
+      <c r="U13" s="162"/>
+      <c r="V13" s="162"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="162"/>
+      <c r="Z13" s="162"/>
+      <c r="AA13" s="162"/>
+      <c r="AB13" s="162"/>
+      <c r="AC13" s="162"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="162"/>
+      <c r="AF13" s="162"/>
+      <c r="AG13" s="162"/>
+      <c r="AH13" s="162"/>
+      <c r="AI13" s="162"/>
+      <c r="AJ13" s="162"/>
+      <c r="AK13" s="162"/>
+      <c r="AL13" s="162"/>
+      <c r="AM13" s="162"/>
+      <c r="AN13" s="162"/>
+      <c r="AO13" s="162"/>
+      <c r="AP13" s="162"/>
+      <c r="AQ13" s="162"/>
+      <c r="AR13" s="162"/>
+      <c r="AS13" s="162"/>
+      <c r="AT13" s="162"/>
+      <c r="AU13" s="162"/>
+      <c r="AV13" s="162"/>
+      <c r="AW13" s="162"/>
+      <c r="AX13" s="162"/>
+      <c r="AY13" s="162"/>
+      <c r="AZ13" s="162"/>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="148"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
-      <c r="X14" s="151"/>
-      <c r="Y14" s="151"/>
-      <c r="Z14" s="151"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="151"/>
-      <c r="AE14" s="151"/>
-      <c r="AF14" s="151"/>
-      <c r="AG14" s="151"/>
-      <c r="AH14" s="151"/>
-      <c r="AI14" s="151"/>
-      <c r="AJ14" s="151"/>
-      <c r="AK14" s="151"/>
-      <c r="AL14" s="151"/>
-      <c r="AM14" s="151"/>
-      <c r="AN14" s="151"/>
-      <c r="AO14" s="151"/>
-      <c r="AP14" s="151"/>
-      <c r="AQ14" s="151"/>
-      <c r="AR14" s="151"/>
-      <c r="AS14" s="151"/>
-      <c r="AT14" s="151"/>
-      <c r="AU14" s="151"/>
-      <c r="AV14" s="151"/>
-      <c r="AW14" s="151"/>
-      <c r="AX14" s="151"/>
-      <c r="AY14" s="151"/>
-      <c r="AZ14" s="151"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="162"/>
+      <c r="T14" s="162"/>
+      <c r="U14" s="162"/>
+      <c r="V14" s="162"/>
+      <c r="W14" s="162"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="162"/>
+      <c r="Z14" s="162"/>
+      <c r="AA14" s="162"/>
+      <c r="AB14" s="162"/>
+      <c r="AC14" s="162"/>
+      <c r="AD14" s="162"/>
+      <c r="AE14" s="162"/>
+      <c r="AF14" s="162"/>
+      <c r="AG14" s="162"/>
+      <c r="AH14" s="162"/>
+      <c r="AI14" s="162"/>
+      <c r="AJ14" s="162"/>
+      <c r="AK14" s="162"/>
+      <c r="AL14" s="162"/>
+      <c r="AM14" s="162"/>
+      <c r="AN14" s="162"/>
+      <c r="AO14" s="162"/>
+      <c r="AP14" s="162"/>
+      <c r="AQ14" s="162"/>
+      <c r="AR14" s="162"/>
+      <c r="AS14" s="162"/>
+      <c r="AT14" s="162"/>
+      <c r="AU14" s="162"/>
+      <c r="AV14" s="162"/>
+      <c r="AW14" s="162"/>
+      <c r="AX14" s="162"/>
+      <c r="AY14" s="162"/>
+      <c r="AZ14" s="162"/>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="148"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="151"/>
-      <c r="S15" s="151"/>
-      <c r="T15" s="151"/>
-      <c r="U15" s="151"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
-      <c r="AD15" s="151"/>
-      <c r="AE15" s="151"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="151"/>
-      <c r="AH15" s="151"/>
-      <c r="AI15" s="151"/>
-      <c r="AJ15" s="151"/>
-      <c r="AK15" s="151"/>
-      <c r="AL15" s="151"/>
-      <c r="AM15" s="151"/>
-      <c r="AN15" s="151"/>
-      <c r="AO15" s="151"/>
-      <c r="AP15" s="151"/>
-      <c r="AQ15" s="151"/>
-      <c r="AR15" s="151"/>
-      <c r="AS15" s="151"/>
-      <c r="AT15" s="151"/>
-      <c r="AU15" s="151"/>
-      <c r="AV15" s="151"/>
-      <c r="AW15" s="151"/>
-      <c r="AX15" s="151"/>
-      <c r="AY15" s="151"/>
-      <c r="AZ15" s="151"/>
+      <c r="A15" s="159"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="162"/>
+      <c r="U15" s="162"/>
+      <c r="V15" s="162"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="162"/>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="162"/>
+      <c r="AB15" s="162"/>
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="162"/>
+      <c r="AF15" s="162"/>
+      <c r="AG15" s="162"/>
+      <c r="AH15" s="162"/>
+      <c r="AI15" s="162"/>
+      <c r="AJ15" s="162"/>
+      <c r="AK15" s="162"/>
+      <c r="AL15" s="162"/>
+      <c r="AM15" s="162"/>
+      <c r="AN15" s="162"/>
+      <c r="AO15" s="162"/>
+      <c r="AP15" s="162"/>
+      <c r="AQ15" s="162"/>
+      <c r="AR15" s="162"/>
+      <c r="AS15" s="162"/>
+      <c r="AT15" s="162"/>
+      <c r="AU15" s="162"/>
+      <c r="AV15" s="162"/>
+      <c r="AW15" s="162"/>
+      <c r="AX15" s="162"/>
+      <c r="AY15" s="162"/>
+      <c r="AZ15" s="162"/>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="148"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="151"/>
-      <c r="R16" s="151"/>
-      <c r="S16" s="151"/>
-      <c r="T16" s="151"/>
-      <c r="U16" s="151"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="151"/>
-      <c r="X16" s="151"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="151"/>
-      <c r="AA16" s="151"/>
-      <c r="AB16" s="151"/>
-      <c r="AC16" s="151"/>
-      <c r="AD16" s="151"/>
-      <c r="AE16" s="151"/>
-      <c r="AF16" s="151"/>
-      <c r="AG16" s="151"/>
-      <c r="AH16" s="151"/>
-      <c r="AI16" s="151"/>
-      <c r="AJ16" s="151"/>
-      <c r="AK16" s="151"/>
-      <c r="AL16" s="151"/>
-      <c r="AM16" s="151"/>
-      <c r="AN16" s="151"/>
-      <c r="AO16" s="151"/>
-      <c r="AP16" s="151"/>
-      <c r="AQ16" s="151"/>
-      <c r="AR16" s="151"/>
-      <c r="AS16" s="151"/>
-      <c r="AT16" s="151"/>
-      <c r="AU16" s="151"/>
-      <c r="AV16" s="151"/>
-      <c r="AW16" s="151"/>
-      <c r="AX16" s="151"/>
-      <c r="AY16" s="151"/>
-      <c r="AZ16" s="151"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="162"/>
+      <c r="U16" s="162"/>
+      <c r="V16" s="162"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="162"/>
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="162"/>
+      <c r="AI16" s="162"/>
+      <c r="AJ16" s="162"/>
+      <c r="AK16" s="162"/>
+      <c r="AL16" s="162"/>
+      <c r="AM16" s="162"/>
+      <c r="AN16" s="162"/>
+      <c r="AO16" s="162"/>
+      <c r="AP16" s="162"/>
+      <c r="AQ16" s="162"/>
+      <c r="AR16" s="162"/>
+      <c r="AS16" s="162"/>
+      <c r="AT16" s="162"/>
+      <c r="AU16" s="162"/>
+      <c r="AV16" s="162"/>
+      <c r="AW16" s="162"/>
+      <c r="AX16" s="162"/>
+      <c r="AY16" s="162"/>
+      <c r="AZ16" s="162"/>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="148"/>
-      <c r="B17" s="148"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="151"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="151"/>
-      <c r="W17" s="151"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="151"/>
-      <c r="AE17" s="151"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="151"/>
-      <c r="AJ17" s="151"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="151"/>
-      <c r="AM17" s="151"/>
-      <c r="AN17" s="151"/>
-      <c r="AO17" s="151"/>
-      <c r="AP17" s="151"/>
-      <c r="AQ17" s="151"/>
-      <c r="AR17" s="151"/>
-      <c r="AS17" s="151"/>
-      <c r="AT17" s="151"/>
-      <c r="AU17" s="151"/>
-      <c r="AV17" s="151"/>
-      <c r="AW17" s="151"/>
-      <c r="AX17" s="151"/>
-      <c r="AY17" s="151"/>
-      <c r="AZ17" s="151"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="162"/>
+      <c r="M17" s="162"/>
+      <c r="N17" s="162"/>
+      <c r="O17" s="162"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="162"/>
+      <c r="S17" s="162"/>
+      <c r="T17" s="162"/>
+      <c r="U17" s="162"/>
+      <c r="V17" s="162"/>
+      <c r="W17" s="162"/>
+      <c r="X17" s="162"/>
+      <c r="Y17" s="162"/>
+      <c r="Z17" s="162"/>
+      <c r="AA17" s="162"/>
+      <c r="AB17" s="162"/>
+      <c r="AC17" s="162"/>
+      <c r="AD17" s="162"/>
+      <c r="AE17" s="162"/>
+      <c r="AF17" s="162"/>
+      <c r="AG17" s="162"/>
+      <c r="AH17" s="162"/>
+      <c r="AI17" s="162"/>
+      <c r="AJ17" s="162"/>
+      <c r="AK17" s="162"/>
+      <c r="AL17" s="162"/>
+      <c r="AM17" s="162"/>
+      <c r="AN17" s="162"/>
+      <c r="AO17" s="162"/>
+      <c r="AP17" s="162"/>
+      <c r="AQ17" s="162"/>
+      <c r="AR17" s="162"/>
+      <c r="AS17" s="162"/>
+      <c r="AT17" s="162"/>
+      <c r="AU17" s="162"/>
+      <c r="AV17" s="162"/>
+      <c r="AW17" s="162"/>
+      <c r="AX17" s="162"/>
+      <c r="AY17" s="162"/>
+      <c r="AZ17" s="162"/>
     </row>
     <row r="18" spans="1:52">
-      <c r="A18" s="148"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="151"/>
-      <c r="R18" s="151"/>
-      <c r="S18" s="151"/>
-      <c r="T18" s="151"/>
-      <c r="U18" s="151"/>
-      <c r="V18" s="151"/>
-      <c r="W18" s="151"/>
-      <c r="X18" s="151"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="151"/>
-      <c r="AA18" s="151"/>
-      <c r="AB18" s="151"/>
-      <c r="AC18" s="151"/>
-      <c r="AD18" s="151"/>
-      <c r="AE18" s="151"/>
-      <c r="AF18" s="151"/>
-      <c r="AG18" s="151"/>
-      <c r="AH18" s="151"/>
-      <c r="AI18" s="151"/>
-      <c r="AJ18" s="151"/>
-      <c r="AK18" s="151"/>
-      <c r="AL18" s="151"/>
-      <c r="AM18" s="151"/>
-      <c r="AN18" s="151"/>
-      <c r="AO18" s="151"/>
-      <c r="AP18" s="151"/>
-      <c r="AQ18" s="151"/>
-      <c r="AR18" s="151"/>
-      <c r="AS18" s="151"/>
-      <c r="AT18" s="151"/>
-      <c r="AU18" s="151"/>
-      <c r="AV18" s="151"/>
-      <c r="AW18" s="151"/>
-      <c r="AX18" s="151"/>
-      <c r="AY18" s="151"/>
-      <c r="AZ18" s="151"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="162"/>
+      <c r="U18" s="162"/>
+      <c r="V18" s="162"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+      <c r="AB18" s="162"/>
+      <c r="AC18" s="162"/>
+      <c r="AD18" s="162"/>
+      <c r="AE18" s="162"/>
+      <c r="AF18" s="162"/>
+      <c r="AG18" s="162"/>
+      <c r="AH18" s="162"/>
+      <c r="AI18" s="162"/>
+      <c r="AJ18" s="162"/>
+      <c r="AK18" s="162"/>
+      <c r="AL18" s="162"/>
+      <c r="AM18" s="162"/>
+      <c r="AN18" s="162"/>
+      <c r="AO18" s="162"/>
+      <c r="AP18" s="162"/>
+      <c r="AQ18" s="162"/>
+      <c r="AR18" s="162"/>
+      <c r="AS18" s="162"/>
+      <c r="AT18" s="162"/>
+      <c r="AU18" s="162"/>
+      <c r="AV18" s="162"/>
+      <c r="AW18" s="162"/>
+      <c r="AX18" s="162"/>
+      <c r="AY18" s="162"/>
+      <c r="AZ18" s="162"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="148"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
-      <c r="Q19" s="151"/>
-      <c r="R19" s="151"/>
-      <c r="S19" s="151"/>
-      <c r="T19" s="151"/>
-      <c r="U19" s="151"/>
-      <c r="V19" s="151"/>
-      <c r="W19" s="151"/>
-      <c r="X19" s="151"/>
-      <c r="Y19" s="151"/>
-      <c r="Z19" s="151"/>
-      <c r="AA19" s="151"/>
-      <c r="AB19" s="151"/>
-      <c r="AC19" s="151"/>
-      <c r="AD19" s="151"/>
-      <c r="AE19" s="151"/>
-      <c r="AF19" s="151"/>
-      <c r="AG19" s="151"/>
-      <c r="AH19" s="151"/>
-      <c r="AI19" s="151"/>
-      <c r="AJ19" s="151"/>
-      <c r="AK19" s="151"/>
-      <c r="AL19" s="151"/>
-      <c r="AM19" s="151"/>
-      <c r="AN19" s="151"/>
-      <c r="AO19" s="151"/>
-      <c r="AP19" s="151"/>
-      <c r="AQ19" s="151"/>
-      <c r="AR19" s="151"/>
-      <c r="AS19" s="151"/>
-      <c r="AT19" s="151"/>
-      <c r="AU19" s="151"/>
-      <c r="AV19" s="151"/>
-      <c r="AW19" s="151"/>
-      <c r="AX19" s="151"/>
-      <c r="AY19" s="151"/>
-      <c r="AZ19" s="151"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="162"/>
+      <c r="V19" s="162"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+      <c r="Y19" s="162"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="162"/>
+      <c r="AB19" s="162"/>
+      <c r="AC19" s="162"/>
+      <c r="AD19" s="162"/>
+      <c r="AE19" s="162"/>
+      <c r="AF19" s="162"/>
+      <c r="AG19" s="162"/>
+      <c r="AH19" s="162"/>
+      <c r="AI19" s="162"/>
+      <c r="AJ19" s="162"/>
+      <c r="AK19" s="162"/>
+      <c r="AL19" s="162"/>
+      <c r="AM19" s="162"/>
+      <c r="AN19" s="162"/>
+      <c r="AO19" s="162"/>
+      <c r="AP19" s="162"/>
+      <c r="AQ19" s="162"/>
+      <c r="AR19" s="162"/>
+      <c r="AS19" s="162"/>
+      <c r="AT19" s="162"/>
+      <c r="AU19" s="162"/>
+      <c r="AV19" s="162"/>
+      <c r="AW19" s="162"/>
+      <c r="AX19" s="162"/>
+      <c r="AY19" s="162"/>
+      <c r="AZ19" s="162"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="148"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="151"/>
-      <c r="R20" s="151"/>
-      <c r="S20" s="151"/>
-      <c r="T20" s="151"/>
-      <c r="U20" s="151"/>
-      <c r="V20" s="151"/>
-      <c r="W20" s="151"/>
-      <c r="X20" s="151"/>
-      <c r="Y20" s="151"/>
-      <c r="Z20" s="151"/>
-      <c r="AA20" s="151"/>
-      <c r="AB20" s="151"/>
-      <c r="AC20" s="151"/>
-      <c r="AD20" s="151"/>
-      <c r="AE20" s="151"/>
-      <c r="AF20" s="151"/>
-      <c r="AG20" s="151"/>
-      <c r="AH20" s="151"/>
-      <c r="AI20" s="151"/>
-      <c r="AJ20" s="151"/>
-      <c r="AK20" s="151"/>
-      <c r="AL20" s="151"/>
-      <c r="AM20" s="151"/>
-      <c r="AN20" s="151"/>
-      <c r="AO20" s="151"/>
-      <c r="AP20" s="151"/>
-      <c r="AQ20" s="151"/>
-      <c r="AR20" s="151"/>
-      <c r="AS20" s="151"/>
-      <c r="AT20" s="151"/>
-      <c r="AU20" s="151"/>
-      <c r="AV20" s="151"/>
-      <c r="AW20" s="151"/>
-      <c r="AX20" s="151"/>
-      <c r="AY20" s="151"/>
-      <c r="AZ20" s="151"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="162"/>
+      <c r="U20" s="162"/>
+      <c r="V20" s="162"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+      <c r="AB20" s="162"/>
+      <c r="AC20" s="162"/>
+      <c r="AD20" s="162"/>
+      <c r="AE20" s="162"/>
+      <c r="AF20" s="162"/>
+      <c r="AG20" s="162"/>
+      <c r="AH20" s="162"/>
+      <c r="AI20" s="162"/>
+      <c r="AJ20" s="162"/>
+      <c r="AK20" s="162"/>
+      <c r="AL20" s="162"/>
+      <c r="AM20" s="162"/>
+      <c r="AN20" s="162"/>
+      <c r="AO20" s="162"/>
+      <c r="AP20" s="162"/>
+      <c r="AQ20" s="162"/>
+      <c r="AR20" s="162"/>
+      <c r="AS20" s="162"/>
+      <c r="AT20" s="162"/>
+      <c r="AU20" s="162"/>
+      <c r="AV20" s="162"/>
+      <c r="AW20" s="162"/>
+      <c r="AX20" s="162"/>
+      <c r="AY20" s="162"/>
+      <c r="AZ20" s="162"/>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="148"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="151"/>
-      <c r="V21" s="151"/>
-      <c r="W21" s="151"/>
-      <c r="X21" s="151"/>
-      <c r="Y21" s="151"/>
-      <c r="Z21" s="151"/>
-      <c r="AA21" s="151"/>
-      <c r="AB21" s="151"/>
-      <c r="AC21" s="151"/>
-      <c r="AD21" s="151"/>
-      <c r="AE21" s="151"/>
-      <c r="AF21" s="151"/>
-      <c r="AG21" s="151"/>
-      <c r="AH21" s="151"/>
-      <c r="AI21" s="151"/>
-      <c r="AJ21" s="151"/>
-      <c r="AK21" s="151"/>
-      <c r="AL21" s="151"/>
-      <c r="AM21" s="151"/>
-      <c r="AN21" s="151"/>
-      <c r="AO21" s="151"/>
-      <c r="AP21" s="151"/>
-      <c r="AQ21" s="151"/>
-      <c r="AR21" s="151"/>
-      <c r="AS21" s="151"/>
-      <c r="AT21" s="151"/>
-      <c r="AU21" s="151"/>
-      <c r="AV21" s="151"/>
-      <c r="AW21" s="151"/>
-      <c r="AX21" s="151"/>
-      <c r="AY21" s="151"/>
-      <c r="AZ21" s="151"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="162"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="162"/>
+      <c r="AB21" s="162"/>
+      <c r="AC21" s="162"/>
+      <c r="AD21" s="162"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="162"/>
+      <c r="AG21" s="162"/>
+      <c r="AH21" s="162"/>
+      <c r="AI21" s="162"/>
+      <c r="AJ21" s="162"/>
+      <c r="AK21" s="162"/>
+      <c r="AL21" s="162"/>
+      <c r="AM21" s="162"/>
+      <c r="AN21" s="162"/>
+      <c r="AO21" s="162"/>
+      <c r="AP21" s="162"/>
+      <c r="AQ21" s="162"/>
+      <c r="AR21" s="162"/>
+      <c r="AS21" s="162"/>
+      <c r="AT21" s="162"/>
+      <c r="AU21" s="162"/>
+      <c r="AV21" s="162"/>
+      <c r="AW21" s="162"/>
+      <c r="AX21" s="162"/>
+      <c r="AY21" s="162"/>
+      <c r="AZ21" s="162"/>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="148"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="151"/>
-      <c r="AB22" s="151"/>
-      <c r="AC22" s="151"/>
-      <c r="AD22" s="151"/>
-      <c r="AE22" s="151"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="151"/>
-      <c r="AJ22" s="151"/>
-      <c r="AK22" s="151"/>
-      <c r="AL22" s="151"/>
-      <c r="AM22" s="151"/>
-      <c r="AN22" s="151"/>
-      <c r="AO22" s="151"/>
-      <c r="AP22" s="151"/>
-      <c r="AQ22" s="151"/>
-      <c r="AR22" s="151"/>
-      <c r="AS22" s="151"/>
-      <c r="AT22" s="151"/>
-      <c r="AU22" s="151"/>
-      <c r="AV22" s="151"/>
-      <c r="AW22" s="151"/>
-      <c r="AX22" s="151"/>
-      <c r="AY22" s="151"/>
-      <c r="AZ22" s="151"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="162"/>
+      <c r="AB22" s="162"/>
+      <c r="AC22" s="162"/>
+      <c r="AD22" s="162"/>
+      <c r="AE22" s="162"/>
+      <c r="AF22" s="162"/>
+      <c r="AG22" s="162"/>
+      <c r="AH22" s="162"/>
+      <c r="AI22" s="162"/>
+      <c r="AJ22" s="162"/>
+      <c r="AK22" s="162"/>
+      <c r="AL22" s="162"/>
+      <c r="AM22" s="162"/>
+      <c r="AN22" s="162"/>
+      <c r="AO22" s="162"/>
+      <c r="AP22" s="162"/>
+      <c r="AQ22" s="162"/>
+      <c r="AR22" s="162"/>
+      <c r="AS22" s="162"/>
+      <c r="AT22" s="162"/>
+      <c r="AU22" s="162"/>
+      <c r="AV22" s="162"/>
+      <c r="AW22" s="162"/>
+      <c r="AX22" s="162"/>
+      <c r="AY22" s="162"/>
+      <c r="AZ22" s="162"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="148"/>
-      <c r="B23" s="148"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
-      <c r="S23" s="151"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="151"/>
-      <c r="V23" s="151"/>
-      <c r="W23" s="151"/>
-      <c r="X23" s="151"/>
-      <c r="Y23" s="151"/>
-      <c r="Z23" s="151"/>
-      <c r="AA23" s="151"/>
-      <c r="AB23" s="151"/>
-      <c r="AC23" s="151"/>
-      <c r="AD23" s="151"/>
-      <c r="AE23" s="151"/>
-      <c r="AF23" s="151"/>
-      <c r="AG23" s="151"/>
-      <c r="AH23" s="151"/>
-      <c r="AI23" s="151"/>
-      <c r="AJ23" s="151"/>
-      <c r="AK23" s="151"/>
-      <c r="AL23" s="151"/>
-      <c r="AM23" s="151"/>
-      <c r="AN23" s="151"/>
-      <c r="AO23" s="151"/>
-      <c r="AP23" s="151"/>
-      <c r="AQ23" s="151"/>
-      <c r="AR23" s="151"/>
-      <c r="AS23" s="151"/>
-      <c r="AT23" s="151"/>
-      <c r="AU23" s="151"/>
-      <c r="AV23" s="151"/>
-      <c r="AW23" s="151"/>
-      <c r="AX23" s="151"/>
-      <c r="AY23" s="151"/>
-      <c r="AZ23" s="151"/>
+      <c r="A23" s="159"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="162"/>
+      <c r="V23" s="162"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162"/>
+      <c r="AB23" s="162"/>
+      <c r="AC23" s="162"/>
+      <c r="AD23" s="162"/>
+      <c r="AE23" s="162"/>
+      <c r="AF23" s="162"/>
+      <c r="AG23" s="162"/>
+      <c r="AH23" s="162"/>
+      <c r="AI23" s="162"/>
+      <c r="AJ23" s="162"/>
+      <c r="AK23" s="162"/>
+      <c r="AL23" s="162"/>
+      <c r="AM23" s="162"/>
+      <c r="AN23" s="162"/>
+      <c r="AO23" s="162"/>
+      <c r="AP23" s="162"/>
+      <c r="AQ23" s="162"/>
+      <c r="AR23" s="162"/>
+      <c r="AS23" s="162"/>
+      <c r="AT23" s="162"/>
+      <c r="AU23" s="162"/>
+      <c r="AV23" s="162"/>
+      <c r="AW23" s="162"/>
+      <c r="AX23" s="162"/>
+      <c r="AY23" s="162"/>
+      <c r="AZ23" s="162"/>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="148"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="151"/>
-      <c r="S24" s="151"/>
-      <c r="T24" s="151"/>
-      <c r="U24" s="151"/>
-      <c r="V24" s="151"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="151"/>
-      <c r="Y24" s="151"/>
-      <c r="Z24" s="151"/>
-      <c r="AA24" s="151"/>
-      <c r="AB24" s="151"/>
-      <c r="AC24" s="151"/>
-      <c r="AD24" s="151"/>
-      <c r="AE24" s="151"/>
-      <c r="AF24" s="151"/>
-      <c r="AG24" s="151"/>
-      <c r="AH24" s="151"/>
-      <c r="AI24" s="151"/>
-      <c r="AJ24" s="151"/>
-      <c r="AK24" s="151"/>
-      <c r="AL24" s="151"/>
-      <c r="AM24" s="151"/>
-      <c r="AN24" s="151"/>
-      <c r="AO24" s="151"/>
-      <c r="AP24" s="151"/>
-      <c r="AQ24" s="151"/>
-      <c r="AR24" s="151"/>
-      <c r="AS24" s="151"/>
-      <c r="AT24" s="151"/>
-      <c r="AU24" s="151"/>
-      <c r="AV24" s="151"/>
-      <c r="AW24" s="151"/>
-      <c r="AX24" s="151"/>
-      <c r="AY24" s="151"/>
-      <c r="AZ24" s="151"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="162"/>
+      <c r="U24" s="162"/>
+      <c r="V24" s="162"/>
+      <c r="W24" s="162"/>
+      <c r="X24" s="162"/>
+      <c r="Y24" s="162"/>
+      <c r="Z24" s="162"/>
+      <c r="AA24" s="162"/>
+      <c r="AB24" s="162"/>
+      <c r="AC24" s="162"/>
+      <c r="AD24" s="162"/>
+      <c r="AE24" s="162"/>
+      <c r="AF24" s="162"/>
+      <c r="AG24" s="162"/>
+      <c r="AH24" s="162"/>
+      <c r="AI24" s="162"/>
+      <c r="AJ24" s="162"/>
+      <c r="AK24" s="162"/>
+      <c r="AL24" s="162"/>
+      <c r="AM24" s="162"/>
+      <c r="AN24" s="162"/>
+      <c r="AO24" s="162"/>
+      <c r="AP24" s="162"/>
+      <c r="AQ24" s="162"/>
+      <c r="AR24" s="162"/>
+      <c r="AS24" s="162"/>
+      <c r="AT24" s="162"/>
+      <c r="AU24" s="162"/>
+      <c r="AV24" s="162"/>
+      <c r="AW24" s="162"/>
+      <c r="AX24" s="162"/>
+      <c r="AY24" s="162"/>
+      <c r="AZ24" s="162"/>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="148"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="151"/>
-      <c r="S25" s="151"/>
-      <c r="T25" s="151"/>
-      <c r="U25" s="151"/>
-      <c r="V25" s="151"/>
-      <c r="W25" s="151"/>
-      <c r="X25" s="151"/>
-      <c r="Y25" s="151"/>
-      <c r="Z25" s="151"/>
-      <c r="AA25" s="151"/>
-      <c r="AB25" s="151"/>
-      <c r="AC25" s="151"/>
-      <c r="AD25" s="151"/>
-      <c r="AE25" s="151"/>
-      <c r="AF25" s="151"/>
-      <c r="AG25" s="151"/>
-      <c r="AH25" s="151"/>
-      <c r="AI25" s="151"/>
-      <c r="AJ25" s="151"/>
-      <c r="AK25" s="151"/>
-      <c r="AL25" s="151"/>
-      <c r="AM25" s="151"/>
-      <c r="AN25" s="151"/>
-      <c r="AO25" s="151"/>
-      <c r="AP25" s="151"/>
-      <c r="AQ25" s="151"/>
-      <c r="AR25" s="151"/>
-      <c r="AS25" s="151"/>
-      <c r="AT25" s="151"/>
-      <c r="AU25" s="151"/>
-      <c r="AV25" s="151"/>
-      <c r="AW25" s="151"/>
-      <c r="AX25" s="151"/>
-      <c r="AY25" s="151"/>
-      <c r="AZ25" s="151"/>
+      <c r="A25" s="159"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="162"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
+      <c r="U25" s="162"/>
+      <c r="V25" s="162"/>
+      <c r="W25" s="162"/>
+      <c r="X25" s="162"/>
+      <c r="Y25" s="162"/>
+      <c r="Z25" s="162"/>
+      <c r="AA25" s="162"/>
+      <c r="AB25" s="162"/>
+      <c r="AC25" s="162"/>
+      <c r="AD25" s="162"/>
+      <c r="AE25" s="162"/>
+      <c r="AF25" s="162"/>
+      <c r="AG25" s="162"/>
+      <c r="AH25" s="162"/>
+      <c r="AI25" s="162"/>
+      <c r="AJ25" s="162"/>
+      <c r="AK25" s="162"/>
+      <c r="AL25" s="162"/>
+      <c r="AM25" s="162"/>
+      <c r="AN25" s="162"/>
+      <c r="AO25" s="162"/>
+      <c r="AP25" s="162"/>
+      <c r="AQ25" s="162"/>
+      <c r="AR25" s="162"/>
+      <c r="AS25" s="162"/>
+      <c r="AT25" s="162"/>
+      <c r="AU25" s="162"/>
+      <c r="AV25" s="162"/>
+      <c r="AW25" s="162"/>
+      <c r="AX25" s="162"/>
+      <c r="AY25" s="162"/>
+      <c r="AZ25" s="162"/>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="148"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
-      <c r="N26" s="151"/>
-      <c r="O26" s="151"/>
-      <c r="P26" s="151"/>
-      <c r="Q26" s="151"/>
-      <c r="R26" s="151"/>
-      <c r="S26" s="151"/>
-      <c r="T26" s="151"/>
-      <c r="U26" s="151"/>
-      <c r="V26" s="151"/>
-      <c r="W26" s="151"/>
-      <c r="X26" s="151"/>
-      <c r="Y26" s="151"/>
-      <c r="Z26" s="151"/>
-      <c r="AA26" s="151"/>
-      <c r="AB26" s="151"/>
-      <c r="AC26" s="151"/>
-      <c r="AD26" s="151"/>
-      <c r="AE26" s="151"/>
-      <c r="AF26" s="151"/>
-      <c r="AG26" s="151"/>
-      <c r="AH26" s="151"/>
-      <c r="AI26" s="151"/>
-      <c r="AJ26" s="151"/>
-      <c r="AK26" s="151"/>
-      <c r="AL26" s="151"/>
-      <c r="AM26" s="151"/>
-      <c r="AN26" s="151"/>
-      <c r="AO26" s="151"/>
-      <c r="AP26" s="151"/>
-      <c r="AQ26" s="151"/>
-      <c r="AR26" s="151"/>
-      <c r="AS26" s="151"/>
-      <c r="AT26" s="151"/>
-      <c r="AU26" s="151"/>
-      <c r="AV26" s="151"/>
-      <c r="AW26" s="151"/>
-      <c r="AX26" s="151"/>
-      <c r="AY26" s="151"/>
-      <c r="AZ26" s="151"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+      <c r="AB26" s="162"/>
+      <c r="AC26" s="162"/>
+      <c r="AD26" s="162"/>
+      <c r="AE26" s="162"/>
+      <c r="AF26" s="162"/>
+      <c r="AG26" s="162"/>
+      <c r="AH26" s="162"/>
+      <c r="AI26" s="162"/>
+      <c r="AJ26" s="162"/>
+      <c r="AK26" s="162"/>
+      <c r="AL26" s="162"/>
+      <c r="AM26" s="162"/>
+      <c r="AN26" s="162"/>
+      <c r="AO26" s="162"/>
+      <c r="AP26" s="162"/>
+      <c r="AQ26" s="162"/>
+      <c r="AR26" s="162"/>
+      <c r="AS26" s="162"/>
+      <c r="AT26" s="162"/>
+      <c r="AU26" s="162"/>
+      <c r="AV26" s="162"/>
+      <c r="AW26" s="162"/>
+      <c r="AX26" s="162"/>
+      <c r="AY26" s="162"/>
+      <c r="AZ26" s="162"/>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="148"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151"/>
-      <c r="P27" s="151"/>
-      <c r="Q27" s="151"/>
-      <c r="R27" s="151"/>
-      <c r="S27" s="151"/>
-      <c r="T27" s="151"/>
-      <c r="U27" s="151"/>
-      <c r="V27" s="151"/>
-      <c r="W27" s="151"/>
-      <c r="X27" s="151"/>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="151"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="151"/>
-      <c r="AP27" s="151"/>
-      <c r="AQ27" s="151"/>
-      <c r="AR27" s="151"/>
-      <c r="AS27" s="151"/>
-      <c r="AT27" s="151"/>
-      <c r="AU27" s="151"/>
-      <c r="AV27" s="151"/>
-      <c r="AW27" s="151"/>
-      <c r="AX27" s="151"/>
-      <c r="AY27" s="151"/>
-      <c r="AZ27" s="151"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="162"/>
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="162"/>
+      <c r="AF27" s="162"/>
+      <c r="AG27" s="162"/>
+      <c r="AH27" s="162"/>
+      <c r="AI27" s="162"/>
+      <c r="AJ27" s="162"/>
+      <c r="AK27" s="162"/>
+      <c r="AL27" s="162"/>
+      <c r="AM27" s="162"/>
+      <c r="AN27" s="162"/>
+      <c r="AO27" s="162"/>
+      <c r="AP27" s="162"/>
+      <c r="AQ27" s="162"/>
+      <c r="AR27" s="162"/>
+      <c r="AS27" s="162"/>
+      <c r="AT27" s="162"/>
+      <c r="AU27" s="162"/>
+      <c r="AV27" s="162"/>
+      <c r="AW27" s="162"/>
+      <c r="AX27" s="162"/>
+      <c r="AY27" s="162"/>
+      <c r="AZ27" s="162"/>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="148"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="151"/>
-      <c r="R28" s="151"/>
-      <c r="S28" s="151"/>
-      <c r="T28" s="151"/>
-      <c r="U28" s="151"/>
-      <c r="V28" s="151"/>
-      <c r="W28" s="151"/>
-      <c r="X28" s="151"/>
-      <c r="Y28" s="151"/>
-      <c r="Z28" s="151"/>
-      <c r="AA28" s="151"/>
-      <c r="AB28" s="151"/>
-      <c r="AC28" s="151"/>
-      <c r="AD28" s="151"/>
-      <c r="AE28" s="151"/>
-      <c r="AF28" s="151"/>
-      <c r="AG28" s="151"/>
-      <c r="AH28" s="151"/>
-      <c r="AI28" s="151"/>
-      <c r="AJ28" s="151"/>
-      <c r="AK28" s="151"/>
-      <c r="AL28" s="151"/>
-      <c r="AM28" s="151"/>
-      <c r="AN28" s="151"/>
-      <c r="AO28" s="151"/>
-      <c r="AP28" s="151"/>
-      <c r="AQ28" s="151"/>
-      <c r="AR28" s="151"/>
-      <c r="AS28" s="151"/>
-      <c r="AT28" s="151"/>
-      <c r="AU28" s="151"/>
-      <c r="AV28" s="151"/>
-      <c r="AW28" s="151"/>
-      <c r="AX28" s="151"/>
-      <c r="AY28" s="151"/>
-      <c r="AZ28" s="151"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="162"/>
+      <c r="AF28" s="162"/>
+      <c r="AG28" s="162"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="162"/>
+      <c r="AJ28" s="162"/>
+      <c r="AK28" s="162"/>
+      <c r="AL28" s="162"/>
+      <c r="AM28" s="162"/>
+      <c r="AN28" s="162"/>
+      <c r="AO28" s="162"/>
+      <c r="AP28" s="162"/>
+      <c r="AQ28" s="162"/>
+      <c r="AR28" s="162"/>
+      <c r="AS28" s="162"/>
+      <c r="AT28" s="162"/>
+      <c r="AU28" s="162"/>
+      <c r="AV28" s="162"/>
+      <c r="AW28" s="162"/>
+      <c r="AX28" s="162"/>
+      <c r="AY28" s="162"/>
+      <c r="AZ28" s="162"/>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="148"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="151"/>
-      <c r="V29" s="151"/>
-      <c r="W29" s="151"/>
-      <c r="X29" s="151"/>
-      <c r="Y29" s="151"/>
-      <c r="Z29" s="151"/>
-      <c r="AA29" s="151"/>
-      <c r="AB29" s="151"/>
-      <c r="AC29" s="151"/>
-      <c r="AD29" s="151"/>
-      <c r="AE29" s="151"/>
-      <c r="AF29" s="151"/>
-      <c r="AG29" s="151"/>
-      <c r="AH29" s="151"/>
-      <c r="AI29" s="151"/>
-      <c r="AJ29" s="151"/>
-      <c r="AK29" s="151"/>
-      <c r="AL29" s="151"/>
-      <c r="AM29" s="151"/>
-      <c r="AN29" s="151"/>
-      <c r="AO29" s="151"/>
-      <c r="AP29" s="151"/>
-      <c r="AQ29" s="151"/>
-      <c r="AR29" s="151"/>
-      <c r="AS29" s="151"/>
-      <c r="AT29" s="151"/>
-      <c r="AU29" s="151"/>
-      <c r="AV29" s="151"/>
-      <c r="AW29" s="151"/>
-      <c r="AX29" s="151"/>
-      <c r="AY29" s="151"/>
-      <c r="AZ29" s="151"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+      <c r="P29" s="162"/>
+      <c r="Q29" s="162"/>
+      <c r="R29" s="162"/>
+      <c r="S29" s="162"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="162"/>
+      <c r="V29" s="162"/>
+      <c r="W29" s="162"/>
+      <c r="X29" s="162"/>
+      <c r="Y29" s="162"/>
+      <c r="Z29" s="162"/>
+      <c r="AA29" s="162"/>
+      <c r="AB29" s="162"/>
+      <c r="AC29" s="162"/>
+      <c r="AD29" s="162"/>
+      <c r="AE29" s="162"/>
+      <c r="AF29" s="162"/>
+      <c r="AG29" s="162"/>
+      <c r="AH29" s="162"/>
+      <c r="AI29" s="162"/>
+      <c r="AJ29" s="162"/>
+      <c r="AK29" s="162"/>
+      <c r="AL29" s="162"/>
+      <c r="AM29" s="162"/>
+      <c r="AN29" s="162"/>
+      <c r="AO29" s="162"/>
+      <c r="AP29" s="162"/>
+      <c r="AQ29" s="162"/>
+      <c r="AR29" s="162"/>
+      <c r="AS29" s="162"/>
+      <c r="AT29" s="162"/>
+      <c r="AU29" s="162"/>
+      <c r="AV29" s="162"/>
+      <c r="AW29" s="162"/>
+      <c r="AX29" s="162"/>
+      <c r="AY29" s="162"/>
+      <c r="AZ29" s="162"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="148"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="151"/>
-      <c r="R30" s="151"/>
-      <c r="S30" s="151"/>
-      <c r="T30" s="151"/>
-      <c r="U30" s="151"/>
-      <c r="V30" s="151"/>
-      <c r="W30" s="151"/>
-      <c r="X30" s="151"/>
-      <c r="Y30" s="151"/>
-      <c r="Z30" s="151"/>
-      <c r="AA30" s="151"/>
-      <c r="AB30" s="151"/>
-      <c r="AC30" s="151"/>
-      <c r="AD30" s="151"/>
-      <c r="AE30" s="151"/>
-      <c r="AF30" s="151"/>
-      <c r="AG30" s="151"/>
-      <c r="AH30" s="151"/>
-      <c r="AI30" s="151"/>
-      <c r="AJ30" s="151"/>
-      <c r="AK30" s="151"/>
-      <c r="AL30" s="151"/>
-      <c r="AM30" s="151"/>
-      <c r="AN30" s="151"/>
-      <c r="AO30" s="151"/>
-      <c r="AP30" s="151"/>
-      <c r="AQ30" s="151"/>
-      <c r="AR30" s="151"/>
-      <c r="AS30" s="151"/>
-      <c r="AT30" s="151"/>
-      <c r="AU30" s="151"/>
-      <c r="AV30" s="151"/>
-      <c r="AW30" s="151"/>
-      <c r="AX30" s="151"/>
-      <c r="AY30" s="151"/>
-      <c r="AZ30" s="151"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="162"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="162"/>
+      <c r="T30" s="162"/>
+      <c r="U30" s="162"/>
+      <c r="V30" s="162"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="162"/>
+      <c r="AB30" s="162"/>
+      <c r="AC30" s="162"/>
+      <c r="AD30" s="162"/>
+      <c r="AE30" s="162"/>
+      <c r="AF30" s="162"/>
+      <c r="AG30" s="162"/>
+      <c r="AH30" s="162"/>
+      <c r="AI30" s="162"/>
+      <c r="AJ30" s="162"/>
+      <c r="AK30" s="162"/>
+      <c r="AL30" s="162"/>
+      <c r="AM30" s="162"/>
+      <c r="AN30" s="162"/>
+      <c r="AO30" s="162"/>
+      <c r="AP30" s="162"/>
+      <c r="AQ30" s="162"/>
+      <c r="AR30" s="162"/>
+      <c r="AS30" s="162"/>
+      <c r="AT30" s="162"/>
+      <c r="AU30" s="162"/>
+      <c r="AV30" s="162"/>
+      <c r="AW30" s="162"/>
+      <c r="AX30" s="162"/>
+      <c r="AY30" s="162"/>
+      <c r="AZ30" s="162"/>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="148"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
-      <c r="N31" s="151"/>
-      <c r="O31" s="151"/>
-      <c r="P31" s="151"/>
-      <c r="Q31" s="151"/>
-      <c r="R31" s="151"/>
-      <c r="S31" s="151"/>
-      <c r="T31" s="151"/>
-      <c r="U31" s="151"/>
-      <c r="V31" s="151"/>
-      <c r="W31" s="151"/>
-      <c r="X31" s="151"/>
-      <c r="Y31" s="151"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="151"/>
-      <c r="AB31" s="151"/>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="151"/>
-      <c r="AE31" s="151"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="151"/>
-      <c r="AH31" s="151"/>
-      <c r="AI31" s="151"/>
-      <c r="AJ31" s="151"/>
-      <c r="AK31" s="151"/>
-      <c r="AL31" s="151"/>
-      <c r="AM31" s="151"/>
-      <c r="AN31" s="151"/>
-      <c r="AO31" s="151"/>
-      <c r="AP31" s="151"/>
-      <c r="AQ31" s="151"/>
-      <c r="AR31" s="151"/>
-      <c r="AS31" s="151"/>
-      <c r="AT31" s="151"/>
-      <c r="AU31" s="151"/>
-      <c r="AV31" s="151"/>
-      <c r="AW31" s="151"/>
-      <c r="AX31" s="151"/>
-      <c r="AY31" s="151"/>
-      <c r="AZ31" s="151"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="162"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="162"/>
+      <c r="V31" s="162"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="162"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+      <c r="AB31" s="162"/>
+      <c r="AC31" s="162"/>
+      <c r="AD31" s="162"/>
+      <c r="AE31" s="162"/>
+      <c r="AF31" s="162"/>
+      <c r="AG31" s="162"/>
+      <c r="AH31" s="162"/>
+      <c r="AI31" s="162"/>
+      <c r="AJ31" s="162"/>
+      <c r="AK31" s="162"/>
+      <c r="AL31" s="162"/>
+      <c r="AM31" s="162"/>
+      <c r="AN31" s="162"/>
+      <c r="AO31" s="162"/>
+      <c r="AP31" s="162"/>
+      <c r="AQ31" s="162"/>
+      <c r="AR31" s="162"/>
+      <c r="AS31" s="162"/>
+      <c r="AT31" s="162"/>
+      <c r="AU31" s="162"/>
+      <c r="AV31" s="162"/>
+      <c r="AW31" s="162"/>
+      <c r="AX31" s="162"/>
+      <c r="AY31" s="162"/>
+      <c r="AZ31" s="162"/>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="148"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="151"/>
-      <c r="R32" s="151"/>
-      <c r="S32" s="151"/>
-      <c r="T32" s="151"/>
-      <c r="U32" s="151"/>
-      <c r="V32" s="151"/>
-      <c r="W32" s="151"/>
-      <c r="X32" s="151"/>
-      <c r="Y32" s="151"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="151"/>
-      <c r="AE32" s="151"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="151"/>
-      <c r="AH32" s="151"/>
-      <c r="AI32" s="151"/>
-      <c r="AJ32" s="151"/>
-      <c r="AK32" s="151"/>
-      <c r="AL32" s="151"/>
-      <c r="AM32" s="151"/>
-      <c r="AN32" s="151"/>
-      <c r="AO32" s="151"/>
-      <c r="AP32" s="151"/>
-      <c r="AQ32" s="151"/>
-      <c r="AR32" s="151"/>
-      <c r="AS32" s="151"/>
-      <c r="AT32" s="151"/>
-      <c r="AU32" s="151"/>
-      <c r="AV32" s="151"/>
-      <c r="AW32" s="151"/>
-      <c r="AX32" s="151"/>
-      <c r="AY32" s="151"/>
-      <c r="AZ32" s="151"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="161"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="162"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="162"/>
+      <c r="V32" s="162"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="162"/>
+      <c r="Z32" s="162"/>
+      <c r="AA32" s="162"/>
+      <c r="AB32" s="162"/>
+      <c r="AC32" s="162"/>
+      <c r="AD32" s="162"/>
+      <c r="AE32" s="162"/>
+      <c r="AF32" s="162"/>
+      <c r="AG32" s="162"/>
+      <c r="AH32" s="162"/>
+      <c r="AI32" s="162"/>
+      <c r="AJ32" s="162"/>
+      <c r="AK32" s="162"/>
+      <c r="AL32" s="162"/>
+      <c r="AM32" s="162"/>
+      <c r="AN32" s="162"/>
+      <c r="AO32" s="162"/>
+      <c r="AP32" s="162"/>
+      <c r="AQ32" s="162"/>
+      <c r="AR32" s="162"/>
+      <c r="AS32" s="162"/>
+      <c r="AT32" s="162"/>
+      <c r="AU32" s="162"/>
+      <c r="AV32" s="162"/>
+      <c r="AW32" s="162"/>
+      <c r="AX32" s="162"/>
+      <c r="AY32" s="162"/>
+      <c r="AZ32" s="162"/>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="148"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
-      <c r="O33" s="151"/>
-      <c r="P33" s="151"/>
-      <c r="Q33" s="151"/>
-      <c r="R33" s="151"/>
-      <c r="S33" s="151"/>
-      <c r="T33" s="151"/>
-      <c r="U33" s="151"/>
-      <c r="V33" s="151"/>
-      <c r="W33" s="151"/>
-      <c r="X33" s="151"/>
-      <c r="Y33" s="151"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
-      <c r="AE33" s="151"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="151"/>
-      <c r="AH33" s="151"/>
-      <c r="AI33" s="151"/>
-      <c r="AJ33" s="151"/>
-      <c r="AK33" s="151"/>
-      <c r="AL33" s="151"/>
-      <c r="AM33" s="151"/>
-      <c r="AN33" s="151"/>
-      <c r="AO33" s="151"/>
-      <c r="AP33" s="151"/>
-      <c r="AQ33" s="151"/>
-      <c r="AR33" s="151"/>
-      <c r="AS33" s="151"/>
-      <c r="AT33" s="151"/>
-      <c r="AU33" s="151"/>
-      <c r="AV33" s="151"/>
-      <c r="AW33" s="151"/>
-      <c r="AX33" s="151"/>
-      <c r="AY33" s="151"/>
-      <c r="AZ33" s="151"/>
+      <c r="A33" s="159"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+      <c r="P33" s="162"/>
+      <c r="Q33" s="162"/>
+      <c r="R33" s="162"/>
+      <c r="S33" s="162"/>
+      <c r="T33" s="162"/>
+      <c r="U33" s="162"/>
+      <c r="V33" s="162"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="162"/>
+      <c r="Z33" s="162"/>
+      <c r="AA33" s="162"/>
+      <c r="AB33" s="162"/>
+      <c r="AC33" s="162"/>
+      <c r="AD33" s="162"/>
+      <c r="AE33" s="162"/>
+      <c r="AF33" s="162"/>
+      <c r="AG33" s="162"/>
+      <c r="AH33" s="162"/>
+      <c r="AI33" s="162"/>
+      <c r="AJ33" s="162"/>
+      <c r="AK33" s="162"/>
+      <c r="AL33" s="162"/>
+      <c r="AM33" s="162"/>
+      <c r="AN33" s="162"/>
+      <c r="AO33" s="162"/>
+      <c r="AP33" s="162"/>
+      <c r="AQ33" s="162"/>
+      <c r="AR33" s="162"/>
+      <c r="AS33" s="162"/>
+      <c r="AT33" s="162"/>
+      <c r="AU33" s="162"/>
+      <c r="AV33" s="162"/>
+      <c r="AW33" s="162"/>
+      <c r="AX33" s="162"/>
+      <c r="AY33" s="162"/>
+      <c r="AZ33" s="162"/>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="148"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
-      <c r="N34" s="151"/>
-      <c r="O34" s="151"/>
-      <c r="P34" s="151"/>
-      <c r="Q34" s="151"/>
-      <c r="R34" s="151"/>
-      <c r="S34" s="151"/>
-      <c r="T34" s="151"/>
-      <c r="U34" s="151"/>
-      <c r="V34" s="151"/>
-      <c r="W34" s="151"/>
-      <c r="X34" s="151"/>
-      <c r="Y34" s="151"/>
-      <c r="Z34" s="151"/>
-      <c r="AA34" s="151"/>
-      <c r="AB34" s="151"/>
-      <c r="AC34" s="151"/>
-      <c r="AD34" s="151"/>
-      <c r="AE34" s="151"/>
-      <c r="AF34" s="151"/>
-      <c r="AG34" s="151"/>
-      <c r="AH34" s="151"/>
-      <c r="AI34" s="151"/>
-      <c r="AJ34" s="151"/>
-      <c r="AK34" s="151"/>
-      <c r="AL34" s="151"/>
-      <c r="AM34" s="151"/>
-      <c r="AN34" s="151"/>
-      <c r="AO34" s="151"/>
-      <c r="AP34" s="151"/>
-      <c r="AQ34" s="151"/>
-      <c r="AR34" s="151"/>
-      <c r="AS34" s="151"/>
-      <c r="AT34" s="151"/>
-      <c r="AU34" s="151"/>
-      <c r="AV34" s="151"/>
-      <c r="AW34" s="151"/>
-      <c r="AX34" s="151"/>
-      <c r="AY34" s="151"/>
-      <c r="AZ34" s="151"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="160"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="162"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="162"/>
+      <c r="Q34" s="162"/>
+      <c r="R34" s="162"/>
+      <c r="S34" s="162"/>
+      <c r="T34" s="162"/>
+      <c r="U34" s="162"/>
+      <c r="V34" s="162"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
+      <c r="Y34" s="162"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="162"/>
+      <c r="AB34" s="162"/>
+      <c r="AC34" s="162"/>
+      <c r="AD34" s="162"/>
+      <c r="AE34" s="162"/>
+      <c r="AF34" s="162"/>
+      <c r="AG34" s="162"/>
+      <c r="AH34" s="162"/>
+      <c r="AI34" s="162"/>
+      <c r="AJ34" s="162"/>
+      <c r="AK34" s="162"/>
+      <c r="AL34" s="162"/>
+      <c r="AM34" s="162"/>
+      <c r="AN34" s="162"/>
+      <c r="AO34" s="162"/>
+      <c r="AP34" s="162"/>
+      <c r="AQ34" s="162"/>
+      <c r="AR34" s="162"/>
+      <c r="AS34" s="162"/>
+      <c r="AT34" s="162"/>
+      <c r="AU34" s="162"/>
+      <c r="AV34" s="162"/>
+      <c r="AW34" s="162"/>
+      <c r="AX34" s="162"/>
+      <c r="AY34" s="162"/>
+      <c r="AZ34" s="162"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="148"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
-      <c r="N35" s="151"/>
-      <c r="O35" s="151"/>
-      <c r="P35" s="151"/>
-      <c r="Q35" s="151"/>
-      <c r="R35" s="151"/>
-      <c r="S35" s="151"/>
-      <c r="T35" s="151"/>
-      <c r="U35" s="151"/>
-      <c r="V35" s="151"/>
-      <c r="W35" s="151"/>
-      <c r="X35" s="151"/>
-      <c r="Y35" s="151"/>
-      <c r="Z35" s="151"/>
-      <c r="AA35" s="151"/>
-      <c r="AB35" s="151"/>
-      <c r="AC35" s="151"/>
-      <c r="AD35" s="151"/>
-      <c r="AE35" s="151"/>
-      <c r="AF35" s="151"/>
-      <c r="AG35" s="151"/>
-      <c r="AH35" s="151"/>
-      <c r="AI35" s="151"/>
-      <c r="AJ35" s="151"/>
-      <c r="AK35" s="151"/>
-      <c r="AL35" s="151"/>
-      <c r="AM35" s="151"/>
-      <c r="AN35" s="151"/>
-      <c r="AO35" s="151"/>
-      <c r="AP35" s="151"/>
-      <c r="AQ35" s="151"/>
-      <c r="AR35" s="151"/>
-      <c r="AS35" s="151"/>
-      <c r="AT35" s="151"/>
-      <c r="AU35" s="151"/>
-      <c r="AV35" s="151"/>
-      <c r="AW35" s="151"/>
-      <c r="AX35" s="151"/>
-      <c r="AY35" s="151"/>
-      <c r="AZ35" s="151"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
+      <c r="P35" s="162"/>
+      <c r="Q35" s="162"/>
+      <c r="R35" s="162"/>
+      <c r="S35" s="162"/>
+      <c r="T35" s="162"/>
+      <c r="U35" s="162"/>
+      <c r="V35" s="162"/>
+      <c r="W35" s="162"/>
+      <c r="X35" s="162"/>
+      <c r="Y35" s="162"/>
+      <c r="Z35" s="162"/>
+      <c r="AA35" s="162"/>
+      <c r="AB35" s="162"/>
+      <c r="AC35" s="162"/>
+      <c r="AD35" s="162"/>
+      <c r="AE35" s="162"/>
+      <c r="AF35" s="162"/>
+      <c r="AG35" s="162"/>
+      <c r="AH35" s="162"/>
+      <c r="AI35" s="162"/>
+      <c r="AJ35" s="162"/>
+      <c r="AK35" s="162"/>
+      <c r="AL35" s="162"/>
+      <c r="AM35" s="162"/>
+      <c r="AN35" s="162"/>
+      <c r="AO35" s="162"/>
+      <c r="AP35" s="162"/>
+      <c r="AQ35" s="162"/>
+      <c r="AR35" s="162"/>
+      <c r="AS35" s="162"/>
+      <c r="AT35" s="162"/>
+      <c r="AU35" s="162"/>
+      <c r="AV35" s="162"/>
+      <c r="AW35" s="162"/>
+      <c r="AX35" s="162"/>
+      <c r="AY35" s="162"/>
+      <c r="AZ35" s="162"/>
     </row>
     <row r="36" spans="1:52">
-      <c r="A36" s="148"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
-      <c r="N36" s="151"/>
-      <c r="O36" s="151"/>
-      <c r="P36" s="151"/>
-      <c r="Q36" s="151"/>
-      <c r="R36" s="151"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="151"/>
-      <c r="U36" s="151"/>
-      <c r="V36" s="151"/>
-      <c r="W36" s="151"/>
-      <c r="X36" s="151"/>
-      <c r="Y36" s="151"/>
-      <c r="Z36" s="151"/>
-      <c r="AA36" s="151"/>
-      <c r="AB36" s="151"/>
-      <c r="AC36" s="151"/>
-      <c r="AD36" s="151"/>
-      <c r="AE36" s="151"/>
-      <c r="AF36" s="151"/>
-      <c r="AG36" s="151"/>
-      <c r="AH36" s="151"/>
-      <c r="AI36" s="151"/>
-      <c r="AJ36" s="151"/>
-      <c r="AK36" s="151"/>
-      <c r="AL36" s="151"/>
-      <c r="AM36" s="151"/>
-      <c r="AN36" s="151"/>
-      <c r="AO36" s="151"/>
-      <c r="AP36" s="151"/>
-      <c r="AQ36" s="151"/>
-      <c r="AR36" s="151"/>
-      <c r="AS36" s="151"/>
-      <c r="AT36" s="151"/>
-      <c r="AU36" s="151"/>
-      <c r="AV36" s="151"/>
-      <c r="AW36" s="151"/>
-      <c r="AX36" s="151"/>
-      <c r="AY36" s="151"/>
-      <c r="AZ36" s="151"/>
+      <c r="A36" s="159"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="162"/>
+      <c r="R36" s="162"/>
+      <c r="S36" s="162"/>
+      <c r="T36" s="162"/>
+      <c r="U36" s="162"/>
+      <c r="V36" s="162"/>
+      <c r="W36" s="162"/>
+      <c r="X36" s="162"/>
+      <c r="Y36" s="162"/>
+      <c r="Z36" s="162"/>
+      <c r="AA36" s="162"/>
+      <c r="AB36" s="162"/>
+      <c r="AC36" s="162"/>
+      <c r="AD36" s="162"/>
+      <c r="AE36" s="162"/>
+      <c r="AF36" s="162"/>
+      <c r="AG36" s="162"/>
+      <c r="AH36" s="162"/>
+      <c r="AI36" s="162"/>
+      <c r="AJ36" s="162"/>
+      <c r="AK36" s="162"/>
+      <c r="AL36" s="162"/>
+      <c r="AM36" s="162"/>
+      <c r="AN36" s="162"/>
+      <c r="AO36" s="162"/>
+      <c r="AP36" s="162"/>
+      <c r="AQ36" s="162"/>
+      <c r="AR36" s="162"/>
+      <c r="AS36" s="162"/>
+      <c r="AT36" s="162"/>
+      <c r="AU36" s="162"/>
+      <c r="AV36" s="162"/>
+      <c r="AW36" s="162"/>
+      <c r="AX36" s="162"/>
+      <c r="AY36" s="162"/>
+      <c r="AZ36" s="162"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="148"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
-      <c r="N37" s="151"/>
-      <c r="O37" s="151"/>
-      <c r="P37" s="151"/>
-      <c r="Q37" s="151"/>
-      <c r="R37" s="151"/>
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="151"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="151"/>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="151"/>
-      <c r="AB37" s="151"/>
-      <c r="AC37" s="151"/>
-      <c r="AD37" s="151"/>
-      <c r="AE37" s="151"/>
-      <c r="AF37" s="151"/>
-      <c r="AG37" s="151"/>
-      <c r="AH37" s="151"/>
-      <c r="AI37" s="151"/>
-      <c r="AJ37" s="151"/>
-      <c r="AK37" s="151"/>
-      <c r="AL37" s="151"/>
-      <c r="AM37" s="151"/>
-      <c r="AN37" s="151"/>
-      <c r="AO37" s="151"/>
-      <c r="AP37" s="151"/>
-      <c r="AQ37" s="151"/>
-      <c r="AR37" s="151"/>
-      <c r="AS37" s="151"/>
-      <c r="AT37" s="151"/>
-      <c r="AU37" s="151"/>
-      <c r="AV37" s="151"/>
-      <c r="AW37" s="151"/>
-      <c r="AX37" s="151"/>
-      <c r="AY37" s="151"/>
-      <c r="AZ37" s="151"/>
+      <c r="A37" s="159"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="161"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="161"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="162"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="162"/>
+      <c r="R37" s="162"/>
+      <c r="S37" s="162"/>
+      <c r="T37" s="162"/>
+      <c r="U37" s="162"/>
+      <c r="V37" s="162"/>
+      <c r="W37" s="162"/>
+      <c r="X37" s="162"/>
+      <c r="Y37" s="162"/>
+      <c r="Z37" s="162"/>
+      <c r="AA37" s="162"/>
+      <c r="AB37" s="162"/>
+      <c r="AC37" s="162"/>
+      <c r="AD37" s="162"/>
+      <c r="AE37" s="162"/>
+      <c r="AF37" s="162"/>
+      <c r="AG37" s="162"/>
+      <c r="AH37" s="162"/>
+      <c r="AI37" s="162"/>
+      <c r="AJ37" s="162"/>
+      <c r="AK37" s="162"/>
+      <c r="AL37" s="162"/>
+      <c r="AM37" s="162"/>
+      <c r="AN37" s="162"/>
+      <c r="AO37" s="162"/>
+      <c r="AP37" s="162"/>
+      <c r="AQ37" s="162"/>
+      <c r="AR37" s="162"/>
+      <c r="AS37" s="162"/>
+      <c r="AT37" s="162"/>
+      <c r="AU37" s="162"/>
+      <c r="AV37" s="162"/>
+      <c r="AW37" s="162"/>
+      <c r="AX37" s="162"/>
+      <c r="AY37" s="162"/>
+      <c r="AZ37" s="162"/>
     </row>
     <row r="38" spans="1:52">
-      <c r="A38" s="148"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
-      <c r="N38" s="151"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="151"/>
-      <c r="Q38" s="151"/>
-      <c r="R38" s="151"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="151"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
-      <c r="AB38" s="151"/>
-      <c r="AC38" s="151"/>
-      <c r="AD38" s="151"/>
-      <c r="AE38" s="151"/>
-      <c r="AF38" s="151"/>
-      <c r="AG38" s="151"/>
-      <c r="AH38" s="151"/>
-      <c r="AI38" s="151"/>
-      <c r="AJ38" s="151"/>
-      <c r="AK38" s="151"/>
-      <c r="AL38" s="151"/>
-      <c r="AM38" s="151"/>
-      <c r="AN38" s="151"/>
-      <c r="AO38" s="151"/>
-      <c r="AP38" s="151"/>
-      <c r="AQ38" s="151"/>
-      <c r="AR38" s="151"/>
-      <c r="AS38" s="151"/>
-      <c r="AT38" s="151"/>
-      <c r="AU38" s="151"/>
-      <c r="AV38" s="151"/>
-      <c r="AW38" s="151"/>
-      <c r="AX38" s="151"/>
-      <c r="AY38" s="151"/>
-      <c r="AZ38" s="151"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="161"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="161"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="162"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="162"/>
+      <c r="P38" s="162"/>
+      <c r="Q38" s="162"/>
+      <c r="R38" s="162"/>
+      <c r="S38" s="162"/>
+      <c r="T38" s="162"/>
+      <c r="U38" s="162"/>
+      <c r="V38" s="162"/>
+      <c r="W38" s="162"/>
+      <c r="X38" s="162"/>
+      <c r="Y38" s="162"/>
+      <c r="Z38" s="162"/>
+      <c r="AA38" s="162"/>
+      <c r="AB38" s="162"/>
+      <c r="AC38" s="162"/>
+      <c r="AD38" s="162"/>
+      <c r="AE38" s="162"/>
+      <c r="AF38" s="162"/>
+      <c r="AG38" s="162"/>
+      <c r="AH38" s="162"/>
+      <c r="AI38" s="162"/>
+      <c r="AJ38" s="162"/>
+      <c r="AK38" s="162"/>
+      <c r="AL38" s="162"/>
+      <c r="AM38" s="162"/>
+      <c r="AN38" s="162"/>
+      <c r="AO38" s="162"/>
+      <c r="AP38" s="162"/>
+      <c r="AQ38" s="162"/>
+      <c r="AR38" s="162"/>
+      <c r="AS38" s="162"/>
+      <c r="AT38" s="162"/>
+      <c r="AU38" s="162"/>
+      <c r="AV38" s="162"/>
+      <c r="AW38" s="162"/>
+      <c r="AX38" s="162"/>
+      <c r="AY38" s="162"/>
+      <c r="AZ38" s="162"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="148"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151"/>
-      <c r="S39" s="151"/>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="151"/>
-      <c r="AB39" s="151"/>
-      <c r="AC39" s="151"/>
-      <c r="AD39" s="151"/>
-      <c r="AE39" s="151"/>
-      <c r="AF39" s="151"/>
-      <c r="AG39" s="151"/>
-      <c r="AH39" s="151"/>
-      <c r="AI39" s="151"/>
-      <c r="AJ39" s="151"/>
-      <c r="AK39" s="151"/>
-      <c r="AL39" s="151"/>
-      <c r="AM39" s="151"/>
-      <c r="AN39" s="151"/>
-      <c r="AO39" s="151"/>
-      <c r="AP39" s="151"/>
-      <c r="AQ39" s="151"/>
-      <c r="AR39" s="151"/>
-      <c r="AS39" s="151"/>
-      <c r="AT39" s="151"/>
-      <c r="AU39" s="151"/>
-      <c r="AV39" s="151"/>
-      <c r="AW39" s="151"/>
-      <c r="AX39" s="151"/>
-      <c r="AY39" s="151"/>
-      <c r="AZ39" s="151"/>
+      <c r="A39" s="159"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="162"/>
+      <c r="P39" s="162"/>
+      <c r="Q39" s="162"/>
+      <c r="R39" s="162"/>
+      <c r="S39" s="162"/>
+      <c r="T39" s="162"/>
+      <c r="U39" s="162"/>
+      <c r="V39" s="162"/>
+      <c r="W39" s="162"/>
+      <c r="X39" s="162"/>
+      <c r="Y39" s="162"/>
+      <c r="Z39" s="162"/>
+      <c r="AA39" s="162"/>
+      <c r="AB39" s="162"/>
+      <c r="AC39" s="162"/>
+      <c r="AD39" s="162"/>
+      <c r="AE39" s="162"/>
+      <c r="AF39" s="162"/>
+      <c r="AG39" s="162"/>
+      <c r="AH39" s="162"/>
+      <c r="AI39" s="162"/>
+      <c r="AJ39" s="162"/>
+      <c r="AK39" s="162"/>
+      <c r="AL39" s="162"/>
+      <c r="AM39" s="162"/>
+      <c r="AN39" s="162"/>
+      <c r="AO39" s="162"/>
+      <c r="AP39" s="162"/>
+      <c r="AQ39" s="162"/>
+      <c r="AR39" s="162"/>
+      <c r="AS39" s="162"/>
+      <c r="AT39" s="162"/>
+      <c r="AU39" s="162"/>
+      <c r="AV39" s="162"/>
+      <c r="AW39" s="162"/>
+      <c r="AX39" s="162"/>
+      <c r="AY39" s="162"/>
+      <c r="AZ39" s="162"/>
     </row>
     <row r="40" spans="1:52">
-      <c r="A40" s="148"/>
-      <c r="B40" s="148"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="151"/>
-      <c r="P40" s="151"/>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="151"/>
-      <c r="S40" s="151"/>
-      <c r="T40" s="151"/>
-      <c r="U40" s="151"/>
-      <c r="V40" s="151"/>
-      <c r="W40" s="151"/>
-      <c r="X40" s="151"/>
-      <c r="Y40" s="151"/>
-      <c r="Z40" s="151"/>
-      <c r="AA40" s="151"/>
-      <c r="AB40" s="151"/>
-      <c r="AC40" s="151"/>
-      <c r="AD40" s="151"/>
-      <c r="AE40" s="151"/>
-      <c r="AF40" s="151"/>
-      <c r="AG40" s="151"/>
-      <c r="AH40" s="151"/>
-      <c r="AI40" s="151"/>
-      <c r="AJ40" s="151"/>
-      <c r="AK40" s="151"/>
-      <c r="AL40" s="151"/>
-      <c r="AM40" s="151"/>
-      <c r="AN40" s="151"/>
-      <c r="AO40" s="151"/>
-      <c r="AP40" s="151"/>
-      <c r="AQ40" s="151"/>
-      <c r="AR40" s="151"/>
-      <c r="AS40" s="151"/>
-      <c r="AT40" s="151"/>
-      <c r="AU40" s="151"/>
-      <c r="AV40" s="151"/>
-      <c r="AW40" s="151"/>
-      <c r="AX40" s="151"/>
-      <c r="AY40" s="151"/>
-      <c r="AZ40" s="151"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="162"/>
+      <c r="P40" s="162"/>
+      <c r="Q40" s="162"/>
+      <c r="R40" s="162"/>
+      <c r="S40" s="162"/>
+      <c r="T40" s="162"/>
+      <c r="U40" s="162"/>
+      <c r="V40" s="162"/>
+      <c r="W40" s="162"/>
+      <c r="X40" s="162"/>
+      <c r="Y40" s="162"/>
+      <c r="Z40" s="162"/>
+      <c r="AA40" s="162"/>
+      <c r="AB40" s="162"/>
+      <c r="AC40" s="162"/>
+      <c r="AD40" s="162"/>
+      <c r="AE40" s="162"/>
+      <c r="AF40" s="162"/>
+      <c r="AG40" s="162"/>
+      <c r="AH40" s="162"/>
+      <c r="AI40" s="162"/>
+      <c r="AJ40" s="162"/>
+      <c r="AK40" s="162"/>
+      <c r="AL40" s="162"/>
+      <c r="AM40" s="162"/>
+      <c r="AN40" s="162"/>
+      <c r="AO40" s="162"/>
+      <c r="AP40" s="162"/>
+      <c r="AQ40" s="162"/>
+      <c r="AR40" s="162"/>
+      <c r="AS40" s="162"/>
+      <c r="AT40" s="162"/>
+      <c r="AU40" s="162"/>
+      <c r="AV40" s="162"/>
+      <c r="AW40" s="162"/>
+      <c r="AX40" s="162"/>
+      <c r="AY40" s="162"/>
+      <c r="AZ40" s="162"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="148"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="151"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151"/>
-      <c r="S41" s="151"/>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="151"/>
-      <c r="W41" s="151"/>
-      <c r="X41" s="151"/>
-      <c r="Y41" s="151"/>
-      <c r="Z41" s="151"/>
-      <c r="AA41" s="151"/>
-      <c r="AB41" s="151"/>
-      <c r="AC41" s="151"/>
-      <c r="AD41" s="151"/>
-      <c r="AE41" s="151"/>
-      <c r="AF41" s="151"/>
-      <c r="AG41" s="151"/>
-      <c r="AH41" s="151"/>
-      <c r="AI41" s="151"/>
-      <c r="AJ41" s="151"/>
-      <c r="AK41" s="151"/>
-      <c r="AL41" s="151"/>
-      <c r="AM41" s="151"/>
-      <c r="AN41" s="151"/>
-      <c r="AO41" s="151"/>
-      <c r="AP41" s="151"/>
-      <c r="AQ41" s="151"/>
-      <c r="AR41" s="151"/>
-      <c r="AS41" s="151"/>
-      <c r="AT41" s="151"/>
-      <c r="AU41" s="151"/>
-      <c r="AV41" s="151"/>
-      <c r="AW41" s="151"/>
-      <c r="AX41" s="151"/>
-      <c r="AY41" s="151"/>
-      <c r="AZ41" s="151"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="162"/>
+      <c r="L41" s="162"/>
+      <c r="M41" s="162"/>
+      <c r="N41" s="162"/>
+      <c r="O41" s="162"/>
+      <c r="P41" s="162"/>
+      <c r="Q41" s="162"/>
+      <c r="R41" s="162"/>
+      <c r="S41" s="162"/>
+      <c r="T41" s="162"/>
+      <c r="U41" s="162"/>
+      <c r="V41" s="162"/>
+      <c r="W41" s="162"/>
+      <c r="X41" s="162"/>
+      <c r="Y41" s="162"/>
+      <c r="Z41" s="162"/>
+      <c r="AA41" s="162"/>
+      <c r="AB41" s="162"/>
+      <c r="AC41" s="162"/>
+      <c r="AD41" s="162"/>
+      <c r="AE41" s="162"/>
+      <c r="AF41" s="162"/>
+      <c r="AG41" s="162"/>
+      <c r="AH41" s="162"/>
+      <c r="AI41" s="162"/>
+      <c r="AJ41" s="162"/>
+      <c r="AK41" s="162"/>
+      <c r="AL41" s="162"/>
+      <c r="AM41" s="162"/>
+      <c r="AN41" s="162"/>
+      <c r="AO41" s="162"/>
+      <c r="AP41" s="162"/>
+      <c r="AQ41" s="162"/>
+      <c r="AR41" s="162"/>
+      <c r="AS41" s="162"/>
+      <c r="AT41" s="162"/>
+      <c r="AU41" s="162"/>
+      <c r="AV41" s="162"/>
+      <c r="AW41" s="162"/>
+      <c r="AX41" s="162"/>
+      <c r="AY41" s="162"/>
+      <c r="AZ41" s="162"/>
     </row>
     <row r="42" spans="1:52">
-      <c r="A42" s="148"/>
-      <c r="B42" s="148"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="151"/>
-      <c r="P42" s="151"/>
-      <c r="Q42" s="151"/>
-      <c r="R42" s="151"/>
-      <c r="S42" s="151"/>
-      <c r="T42" s="151"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="151"/>
-      <c r="W42" s="151"/>
-      <c r="X42" s="151"/>
-      <c r="Y42" s="151"/>
-      <c r="Z42" s="151"/>
-      <c r="AA42" s="151"/>
-      <c r="AB42" s="151"/>
-      <c r="AC42" s="151"/>
-      <c r="AD42" s="151"/>
-      <c r="AE42" s="151"/>
-      <c r="AF42" s="151"/>
-      <c r="AG42" s="151"/>
-      <c r="AH42" s="151"/>
-      <c r="AI42" s="151"/>
-      <c r="AJ42" s="151"/>
-      <c r="AK42" s="151"/>
-      <c r="AL42" s="151"/>
-      <c r="AM42" s="151"/>
-      <c r="AN42" s="151"/>
-      <c r="AO42" s="151"/>
-      <c r="AP42" s="151"/>
-      <c r="AQ42" s="151"/>
-      <c r="AR42" s="151"/>
-      <c r="AS42" s="151"/>
-      <c r="AT42" s="151"/>
-      <c r="AU42" s="151"/>
-      <c r="AV42" s="151"/>
-      <c r="AW42" s="151"/>
-      <c r="AX42" s="151"/>
-      <c r="AY42" s="151"/>
-      <c r="AZ42" s="151"/>
+      <c r="A42" s="159"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="162"/>
+      <c r="P42" s="162"/>
+      <c r="Q42" s="162"/>
+      <c r="R42" s="162"/>
+      <c r="S42" s="162"/>
+      <c r="T42" s="162"/>
+      <c r="U42" s="162"/>
+      <c r="V42" s="162"/>
+      <c r="W42" s="162"/>
+      <c r="X42" s="162"/>
+      <c r="Y42" s="162"/>
+      <c r="Z42" s="162"/>
+      <c r="AA42" s="162"/>
+      <c r="AB42" s="162"/>
+      <c r="AC42" s="162"/>
+      <c r="AD42" s="162"/>
+      <c r="AE42" s="162"/>
+      <c r="AF42" s="162"/>
+      <c r="AG42" s="162"/>
+      <c r="AH42" s="162"/>
+      <c r="AI42" s="162"/>
+      <c r="AJ42" s="162"/>
+      <c r="AK42" s="162"/>
+      <c r="AL42" s="162"/>
+      <c r="AM42" s="162"/>
+      <c r="AN42" s="162"/>
+      <c r="AO42" s="162"/>
+      <c r="AP42" s="162"/>
+      <c r="AQ42" s="162"/>
+      <c r="AR42" s="162"/>
+      <c r="AS42" s="162"/>
+      <c r="AT42" s="162"/>
+      <c r="AU42" s="162"/>
+      <c r="AV42" s="162"/>
+      <c r="AW42" s="162"/>
+      <c r="AX42" s="162"/>
+      <c r="AY42" s="162"/>
+      <c r="AZ42" s="162"/>
     </row>
     <row r="43" spans="1:52">
-      <c r="A43" s="148"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="151"/>
-      <c r="T43" s="151"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="151"/>
-      <c r="W43" s="151"/>
-      <c r="X43" s="151"/>
-      <c r="Y43" s="151"/>
-      <c r="Z43" s="151"/>
-      <c r="AA43" s="151"/>
-      <c r="AB43" s="151"/>
-      <c r="AC43" s="151"/>
-      <c r="AD43" s="151"/>
-      <c r="AE43" s="151"/>
-      <c r="AF43" s="151"/>
-      <c r="AG43" s="151"/>
-      <c r="AH43" s="151"/>
-      <c r="AI43" s="151"/>
-      <c r="AJ43" s="151"/>
-      <c r="AK43" s="151"/>
-      <c r="AL43" s="151"/>
-      <c r="AM43" s="151"/>
-      <c r="AN43" s="151"/>
-      <c r="AO43" s="151"/>
-      <c r="AP43" s="151"/>
-      <c r="AQ43" s="151"/>
-      <c r="AR43" s="151"/>
-      <c r="AS43" s="151"/>
-      <c r="AT43" s="151"/>
-      <c r="AU43" s="151"/>
-      <c r="AV43" s="151"/>
-      <c r="AW43" s="151"/>
-      <c r="AX43" s="151"/>
-      <c r="AY43" s="151"/>
-      <c r="AZ43" s="151"/>
+      <c r="A43" s="159"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="162"/>
+      <c r="M43" s="162"/>
+      <c r="N43" s="162"/>
+      <c r="O43" s="162"/>
+      <c r="P43" s="162"/>
+      <c r="Q43" s="162"/>
+      <c r="R43" s="162"/>
+      <c r="S43" s="162"/>
+      <c r="T43" s="162"/>
+      <c r="U43" s="162"/>
+      <c r="V43" s="162"/>
+      <c r="W43" s="162"/>
+      <c r="X43" s="162"/>
+      <c r="Y43" s="162"/>
+      <c r="Z43" s="162"/>
+      <c r="AA43" s="162"/>
+      <c r="AB43" s="162"/>
+      <c r="AC43" s="162"/>
+      <c r="AD43" s="162"/>
+      <c r="AE43" s="162"/>
+      <c r="AF43" s="162"/>
+      <c r="AG43" s="162"/>
+      <c r="AH43" s="162"/>
+      <c r="AI43" s="162"/>
+      <c r="AJ43" s="162"/>
+      <c r="AK43" s="162"/>
+      <c r="AL43" s="162"/>
+      <c r="AM43" s="162"/>
+      <c r="AN43" s="162"/>
+      <c r="AO43" s="162"/>
+      <c r="AP43" s="162"/>
+      <c r="AQ43" s="162"/>
+      <c r="AR43" s="162"/>
+      <c r="AS43" s="162"/>
+      <c r="AT43" s="162"/>
+      <c r="AU43" s="162"/>
+      <c r="AV43" s="162"/>
+      <c r="AW43" s="162"/>
+      <c r="AX43" s="162"/>
+      <c r="AY43" s="162"/>
+      <c r="AZ43" s="162"/>
     </row>
     <row r="44" spans="1:52">
-      <c r="A44" s="148"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151"/>
-      <c r="S44" s="151"/>
-      <c r="T44" s="151"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="151"/>
-      <c r="W44" s="151"/>
-      <c r="X44" s="151"/>
-      <c r="Y44" s="151"/>
-      <c r="Z44" s="151"/>
-      <c r="AA44" s="151"/>
-      <c r="AB44" s="151"/>
-      <c r="AC44" s="151"/>
-      <c r="AD44" s="151"/>
-      <c r="AE44" s="151"/>
-      <c r="AF44" s="151"/>
-      <c r="AG44" s="151"/>
-      <c r="AH44" s="151"/>
-      <c r="AI44" s="151"/>
-      <c r="AJ44" s="151"/>
-      <c r="AK44" s="151"/>
-      <c r="AL44" s="151"/>
-      <c r="AM44" s="151"/>
-      <c r="AN44" s="151"/>
-      <c r="AO44" s="151"/>
-      <c r="AP44" s="151"/>
-      <c r="AQ44" s="151"/>
-      <c r="AR44" s="151"/>
-      <c r="AS44" s="151"/>
-      <c r="AT44" s="151"/>
-      <c r="AU44" s="151"/>
-      <c r="AV44" s="151"/>
-      <c r="AW44" s="151"/>
-      <c r="AX44" s="151"/>
-      <c r="AY44" s="151"/>
-      <c r="AZ44" s="151"/>
+      <c r="A44" s="159"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="162"/>
+      <c r="L44" s="162"/>
+      <c r="M44" s="162"/>
+      <c r="N44" s="162"/>
+      <c r="O44" s="162"/>
+      <c r="P44" s="162"/>
+      <c r="Q44" s="162"/>
+      <c r="R44" s="162"/>
+      <c r="S44" s="162"/>
+      <c r="T44" s="162"/>
+      <c r="U44" s="162"/>
+      <c r="V44" s="162"/>
+      <c r="W44" s="162"/>
+      <c r="X44" s="162"/>
+      <c r="Y44" s="162"/>
+      <c r="Z44" s="162"/>
+      <c r="AA44" s="162"/>
+      <c r="AB44" s="162"/>
+      <c r="AC44" s="162"/>
+      <c r="AD44" s="162"/>
+      <c r="AE44" s="162"/>
+      <c r="AF44" s="162"/>
+      <c r="AG44" s="162"/>
+      <c r="AH44" s="162"/>
+      <c r="AI44" s="162"/>
+      <c r="AJ44" s="162"/>
+      <c r="AK44" s="162"/>
+      <c r="AL44" s="162"/>
+      <c r="AM44" s="162"/>
+      <c r="AN44" s="162"/>
+      <c r="AO44" s="162"/>
+      <c r="AP44" s="162"/>
+      <c r="AQ44" s="162"/>
+      <c r="AR44" s="162"/>
+      <c r="AS44" s="162"/>
+      <c r="AT44" s="162"/>
+      <c r="AU44" s="162"/>
+      <c r="AV44" s="162"/>
+      <c r="AW44" s="162"/>
+      <c r="AX44" s="162"/>
+      <c r="AY44" s="162"/>
+      <c r="AZ44" s="162"/>
     </row>
     <row r="45" spans="1:52">
-      <c r="A45" s="148"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="150"/>
-      <c r="K45" s="151"/>
-      <c r="L45" s="151"/>
-      <c r="M45" s="151"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="151"/>
-      <c r="P45" s="151"/>
-      <c r="Q45" s="151"/>
-      <c r="R45" s="151"/>
-      <c r="S45" s="151"/>
-      <c r="T45" s="151"/>
-      <c r="U45" s="151"/>
-      <c r="V45" s="151"/>
-      <c r="W45" s="151"/>
-      <c r="X45" s="151"/>
-      <c r="Y45" s="151"/>
-      <c r="Z45" s="151"/>
-      <c r="AA45" s="151"/>
-      <c r="AB45" s="151"/>
-      <c r="AC45" s="151"/>
-      <c r="AD45" s="151"/>
-      <c r="AE45" s="151"/>
-      <c r="AF45" s="151"/>
-      <c r="AG45" s="151"/>
-      <c r="AH45" s="151"/>
-      <c r="AI45" s="151"/>
-      <c r="AJ45" s="151"/>
-      <c r="AK45" s="151"/>
-      <c r="AL45" s="151"/>
-      <c r="AM45" s="151"/>
-      <c r="AN45" s="151"/>
-      <c r="AO45" s="151"/>
-      <c r="AP45" s="151"/>
-      <c r="AQ45" s="151"/>
-      <c r="AR45" s="151"/>
-      <c r="AS45" s="151"/>
-      <c r="AT45" s="151"/>
-      <c r="AU45" s="151"/>
-      <c r="AV45" s="151"/>
-      <c r="AW45" s="151"/>
-      <c r="AX45" s="151"/>
-      <c r="AY45" s="151"/>
-      <c r="AZ45" s="151"/>
+      <c r="A45" s="159"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="160"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="162"/>
+      <c r="L45" s="162"/>
+      <c r="M45" s="162"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="162"/>
+      <c r="P45" s="162"/>
+      <c r="Q45" s="162"/>
+      <c r="R45" s="162"/>
+      <c r="S45" s="162"/>
+      <c r="T45" s="162"/>
+      <c r="U45" s="162"/>
+      <c r="V45" s="162"/>
+      <c r="W45" s="162"/>
+      <c r="X45" s="162"/>
+      <c r="Y45" s="162"/>
+      <c r="Z45" s="162"/>
+      <c r="AA45" s="162"/>
+      <c r="AB45" s="162"/>
+      <c r="AC45" s="162"/>
+      <c r="AD45" s="162"/>
+      <c r="AE45" s="162"/>
+      <c r="AF45" s="162"/>
+      <c r="AG45" s="162"/>
+      <c r="AH45" s="162"/>
+      <c r="AI45" s="162"/>
+      <c r="AJ45" s="162"/>
+      <c r="AK45" s="162"/>
+      <c r="AL45" s="162"/>
+      <c r="AM45" s="162"/>
+      <c r="AN45" s="162"/>
+      <c r="AO45" s="162"/>
+      <c r="AP45" s="162"/>
+      <c r="AQ45" s="162"/>
+      <c r="AR45" s="162"/>
+      <c r="AS45" s="162"/>
+      <c r="AT45" s="162"/>
+      <c r="AU45" s="162"/>
+      <c r="AV45" s="162"/>
+      <c r="AW45" s="162"/>
+      <c r="AX45" s="162"/>
+      <c r="AY45" s="162"/>
+      <c r="AZ45" s="162"/>
     </row>
     <row r="46" spans="1:52">
-      <c r="A46" s="148"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="151"/>
-      <c r="L46" s="151"/>
-      <c r="M46" s="151"/>
-      <c r="N46" s="151"/>
-      <c r="O46" s="151"/>
-      <c r="P46" s="151"/>
-      <c r="Q46" s="151"/>
-      <c r="R46" s="151"/>
-      <c r="S46" s="151"/>
-      <c r="T46" s="151"/>
-      <c r="U46" s="151"/>
-      <c r="V46" s="151"/>
-      <c r="W46" s="151"/>
-      <c r="X46" s="151"/>
-      <c r="Y46" s="151"/>
-      <c r="Z46" s="151"/>
-      <c r="AA46" s="151"/>
-      <c r="AB46" s="151"/>
-      <c r="AC46" s="151"/>
-      <c r="AD46" s="151"/>
-      <c r="AE46" s="151"/>
-      <c r="AF46" s="151"/>
-      <c r="AG46" s="151"/>
-      <c r="AH46" s="151"/>
-      <c r="AI46" s="151"/>
-      <c r="AJ46" s="151"/>
-      <c r="AK46" s="151"/>
-      <c r="AL46" s="151"/>
-      <c r="AM46" s="151"/>
-      <c r="AN46" s="151"/>
-      <c r="AO46" s="151"/>
-      <c r="AP46" s="151"/>
-      <c r="AQ46" s="151"/>
-      <c r="AR46" s="151"/>
-      <c r="AS46" s="151"/>
-      <c r="AT46" s="151"/>
-      <c r="AU46" s="151"/>
-      <c r="AV46" s="151"/>
-      <c r="AW46" s="151"/>
-      <c r="AX46" s="151"/>
-      <c r="AY46" s="151"/>
-      <c r="AZ46" s="151"/>
+      <c r="A46" s="159"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="162"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="162"/>
+      <c r="P46" s="162"/>
+      <c r="Q46" s="162"/>
+      <c r="R46" s="162"/>
+      <c r="S46" s="162"/>
+      <c r="T46" s="162"/>
+      <c r="U46" s="162"/>
+      <c r="V46" s="162"/>
+      <c r="W46" s="162"/>
+      <c r="X46" s="162"/>
+      <c r="Y46" s="162"/>
+      <c r="Z46" s="162"/>
+      <c r="AA46" s="162"/>
+      <c r="AB46" s="162"/>
+      <c r="AC46" s="162"/>
+      <c r="AD46" s="162"/>
+      <c r="AE46" s="162"/>
+      <c r="AF46" s="162"/>
+      <c r="AG46" s="162"/>
+      <c r="AH46" s="162"/>
+      <c r="AI46" s="162"/>
+      <c r="AJ46" s="162"/>
+      <c r="AK46" s="162"/>
+      <c r="AL46" s="162"/>
+      <c r="AM46" s="162"/>
+      <c r="AN46" s="162"/>
+      <c r="AO46" s="162"/>
+      <c r="AP46" s="162"/>
+      <c r="AQ46" s="162"/>
+      <c r="AR46" s="162"/>
+      <c r="AS46" s="162"/>
+      <c r="AT46" s="162"/>
+      <c r="AU46" s="162"/>
+      <c r="AV46" s="162"/>
+      <c r="AW46" s="162"/>
+      <c r="AX46" s="162"/>
+      <c r="AY46" s="162"/>
+      <c r="AZ46" s="162"/>
     </row>
     <row r="47" spans="1:52">
-      <c r="A47" s="148"/>
-      <c r="B47" s="148"/>
-      <c r="C47" s="149"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="150"/>
-      <c r="K47" s="151"/>
-      <c r="L47" s="151"/>
-      <c r="M47" s="151"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="151"/>
-      <c r="P47" s="151"/>
-      <c r="Q47" s="151"/>
-      <c r="R47" s="151"/>
-      <c r="S47" s="151"/>
-      <c r="T47" s="151"/>
-      <c r="U47" s="151"/>
-      <c r="V47" s="151"/>
-      <c r="W47" s="151"/>
-      <c r="X47" s="151"/>
-      <c r="Y47" s="151"/>
-      <c r="Z47" s="151"/>
-      <c r="AA47" s="151"/>
-      <c r="AB47" s="151"/>
-      <c r="AC47" s="151"/>
-      <c r="AD47" s="151"/>
-      <c r="AE47" s="151"/>
-      <c r="AF47" s="151"/>
-      <c r="AG47" s="151"/>
-      <c r="AH47" s="151"/>
-      <c r="AI47" s="151"/>
-      <c r="AJ47" s="151"/>
-      <c r="AK47" s="151"/>
-      <c r="AL47" s="151"/>
-      <c r="AM47" s="151"/>
-      <c r="AN47" s="151"/>
-      <c r="AO47" s="151"/>
-      <c r="AP47" s="151"/>
-      <c r="AQ47" s="151"/>
-      <c r="AR47" s="151"/>
-      <c r="AS47" s="151"/>
-      <c r="AT47" s="151"/>
-      <c r="AU47" s="151"/>
-      <c r="AV47" s="151"/>
-      <c r="AW47" s="151"/>
-      <c r="AX47" s="151"/>
-      <c r="AY47" s="151"/>
-      <c r="AZ47" s="151"/>
+      <c r="A47" s="159"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="161"/>
+      <c r="H47" s="161"/>
+      <c r="I47" s="161"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="162"/>
+      <c r="L47" s="162"/>
+      <c r="M47" s="162"/>
+      <c r="N47" s="162"/>
+      <c r="O47" s="162"/>
+      <c r="P47" s="162"/>
+      <c r="Q47" s="162"/>
+      <c r="R47" s="162"/>
+      <c r="S47" s="162"/>
+      <c r="T47" s="162"/>
+      <c r="U47" s="162"/>
+      <c r="V47" s="162"/>
+      <c r="W47" s="162"/>
+      <c r="X47" s="162"/>
+      <c r="Y47" s="162"/>
+      <c r="Z47" s="162"/>
+      <c r="AA47" s="162"/>
+      <c r="AB47" s="162"/>
+      <c r="AC47" s="162"/>
+      <c r="AD47" s="162"/>
+      <c r="AE47" s="162"/>
+      <c r="AF47" s="162"/>
+      <c r="AG47" s="162"/>
+      <c r="AH47" s="162"/>
+      <c r="AI47" s="162"/>
+      <c r="AJ47" s="162"/>
+      <c r="AK47" s="162"/>
+      <c r="AL47" s="162"/>
+      <c r="AM47" s="162"/>
+      <c r="AN47" s="162"/>
+      <c r="AO47" s="162"/>
+      <c r="AP47" s="162"/>
+      <c r="AQ47" s="162"/>
+      <c r="AR47" s="162"/>
+      <c r="AS47" s="162"/>
+      <c r="AT47" s="162"/>
+      <c r="AU47" s="162"/>
+      <c r="AV47" s="162"/>
+      <c r="AW47" s="162"/>
+      <c r="AX47" s="162"/>
+      <c r="AY47" s="162"/>
+      <c r="AZ47" s="162"/>
     </row>
     <row r="48" spans="1:52">
-      <c r="A48" s="148"/>
-      <c r="B48" s="148"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="151"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="151"/>
-      <c r="P48" s="151"/>
-      <c r="Q48" s="151"/>
-      <c r="R48" s="151"/>
-      <c r="S48" s="151"/>
-      <c r="T48" s="151"/>
-      <c r="U48" s="151"/>
-      <c r="V48" s="151"/>
-      <c r="W48" s="151"/>
-      <c r="X48" s="151"/>
-      <c r="Y48" s="151"/>
-      <c r="Z48" s="151"/>
-      <c r="AA48" s="151"/>
-      <c r="AB48" s="151"/>
-      <c r="AC48" s="151"/>
-      <c r="AD48" s="151"/>
-      <c r="AE48" s="151"/>
-      <c r="AF48" s="151"/>
-      <c r="AG48" s="151"/>
-      <c r="AH48" s="151"/>
-      <c r="AI48" s="151"/>
-      <c r="AJ48" s="151"/>
-      <c r="AK48" s="151"/>
-      <c r="AL48" s="151"/>
-      <c r="AM48" s="151"/>
-      <c r="AN48" s="151"/>
-      <c r="AO48" s="151"/>
-      <c r="AP48" s="151"/>
-      <c r="AQ48" s="151"/>
-      <c r="AR48" s="151"/>
-      <c r="AS48" s="151"/>
-      <c r="AT48" s="151"/>
-      <c r="AU48" s="151"/>
-      <c r="AV48" s="151"/>
-      <c r="AW48" s="151"/>
-      <c r="AX48" s="151"/>
-      <c r="AY48" s="151"/>
-      <c r="AZ48" s="151"/>
+      <c r="A48" s="159"/>
+      <c r="B48" s="159"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="161"/>
+      <c r="H48" s="161"/>
+      <c r="I48" s="161"/>
+      <c r="J48" s="161"/>
+      <c r="K48" s="162"/>
+      <c r="L48" s="162"/>
+      <c r="M48" s="162"/>
+      <c r="N48" s="162"/>
+      <c r="O48" s="162"/>
+      <c r="P48" s="162"/>
+      <c r="Q48" s="162"/>
+      <c r="R48" s="162"/>
+      <c r="S48" s="162"/>
+      <c r="T48" s="162"/>
+      <c r="U48" s="162"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
+      <c r="Y48" s="162"/>
+      <c r="Z48" s="162"/>
+      <c r="AA48" s="162"/>
+      <c r="AB48" s="162"/>
+      <c r="AC48" s="162"/>
+      <c r="AD48" s="162"/>
+      <c r="AE48" s="162"/>
+      <c r="AF48" s="162"/>
+      <c r="AG48" s="162"/>
+      <c r="AH48" s="162"/>
+      <c r="AI48" s="162"/>
+      <c r="AJ48" s="162"/>
+      <c r="AK48" s="162"/>
+      <c r="AL48" s="162"/>
+      <c r="AM48" s="162"/>
+      <c r="AN48" s="162"/>
+      <c r="AO48" s="162"/>
+      <c r="AP48" s="162"/>
+      <c r="AQ48" s="162"/>
+      <c r="AR48" s="162"/>
+      <c r="AS48" s="162"/>
+      <c r="AT48" s="162"/>
+      <c r="AU48" s="162"/>
+      <c r="AV48" s="162"/>
+      <c r="AW48" s="162"/>
+      <c r="AX48" s="162"/>
+      <c r="AY48" s="162"/>
+      <c r="AZ48" s="162"/>
     </row>
     <row r="49" spans="1:52">
-      <c r="A49" s="148"/>
-      <c r="B49" s="148"/>
-      <c r="C49" s="149"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="150"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="151"/>
-      <c r="Q49" s="151"/>
-      <c r="R49" s="151"/>
-      <c r="S49" s="151"/>
-      <c r="T49" s="151"/>
-      <c r="U49" s="151"/>
-      <c r="V49" s="151"/>
-      <c r="W49" s="151"/>
-      <c r="X49" s="151"/>
-      <c r="Y49" s="151"/>
-      <c r="Z49" s="151"/>
-      <c r="AA49" s="151"/>
-      <c r="AB49" s="151"/>
-      <c r="AC49" s="151"/>
-      <c r="AD49" s="151"/>
-      <c r="AE49" s="151"/>
-      <c r="AF49" s="151"/>
-      <c r="AG49" s="151"/>
-      <c r="AH49" s="151"/>
-      <c r="AI49" s="151"/>
-      <c r="AJ49" s="151"/>
-      <c r="AK49" s="151"/>
-      <c r="AL49" s="151"/>
-      <c r="AM49" s="151"/>
-      <c r="AN49" s="151"/>
-      <c r="AO49" s="151"/>
-      <c r="AP49" s="151"/>
-      <c r="AQ49" s="151"/>
-      <c r="AR49" s="151"/>
-      <c r="AS49" s="151"/>
-      <c r="AT49" s="151"/>
-      <c r="AU49" s="151"/>
-      <c r="AV49" s="151"/>
-      <c r="AW49" s="151"/>
-      <c r="AX49" s="151"/>
-      <c r="AY49" s="151"/>
-      <c r="AZ49" s="151"/>
+      <c r="A49" s="159"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="160"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="161"/>
+      <c r="H49" s="161"/>
+      <c r="I49" s="161"/>
+      <c r="J49" s="161"/>
+      <c r="K49" s="162"/>
+      <c r="L49" s="162"/>
+      <c r="M49" s="162"/>
+      <c r="N49" s="162"/>
+      <c r="O49" s="162"/>
+      <c r="P49" s="162"/>
+      <c r="Q49" s="162"/>
+      <c r="R49" s="162"/>
+      <c r="S49" s="162"/>
+      <c r="T49" s="162"/>
+      <c r="U49" s="162"/>
+      <c r="V49" s="162"/>
+      <c r="W49" s="162"/>
+      <c r="X49" s="162"/>
+      <c r="Y49" s="162"/>
+      <c r="Z49" s="162"/>
+      <c r="AA49" s="162"/>
+      <c r="AB49" s="162"/>
+      <c r="AC49" s="162"/>
+      <c r="AD49" s="162"/>
+      <c r="AE49" s="162"/>
+      <c r="AF49" s="162"/>
+      <c r="AG49" s="162"/>
+      <c r="AH49" s="162"/>
+      <c r="AI49" s="162"/>
+      <c r="AJ49" s="162"/>
+      <c r="AK49" s="162"/>
+      <c r="AL49" s="162"/>
+      <c r="AM49" s="162"/>
+      <c r="AN49" s="162"/>
+      <c r="AO49" s="162"/>
+      <c r="AP49" s="162"/>
+      <c r="AQ49" s="162"/>
+      <c r="AR49" s="162"/>
+      <c r="AS49" s="162"/>
+      <c r="AT49" s="162"/>
+      <c r="AU49" s="162"/>
+      <c r="AV49" s="162"/>
+      <c r="AW49" s="162"/>
+      <c r="AX49" s="162"/>
+      <c r="AY49" s="162"/>
+      <c r="AZ49" s="162"/>
     </row>
     <row r="50" spans="1:52">
-      <c r="A50" s="148"/>
-      <c r="B50" s="148"/>
-      <c r="C50" s="149"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="149"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="151"/>
-      <c r="M50" s="151"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="151"/>
-      <c r="P50" s="151"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151"/>
-      <c r="S50" s="151"/>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="151"/>
-      <c r="W50" s="151"/>
-      <c r="X50" s="151"/>
-      <c r="Y50" s="151"/>
-      <c r="Z50" s="151"/>
-      <c r="AA50" s="151"/>
-      <c r="AB50" s="151"/>
-      <c r="AC50" s="151"/>
-      <c r="AD50" s="151"/>
-      <c r="AE50" s="151"/>
-      <c r="AF50" s="151"/>
-      <c r="AG50" s="151"/>
-      <c r="AH50" s="151"/>
-      <c r="AI50" s="151"/>
-      <c r="AJ50" s="151"/>
-      <c r="AK50" s="151"/>
-      <c r="AL50" s="151"/>
-      <c r="AM50" s="151"/>
-      <c r="AN50" s="151"/>
-      <c r="AO50" s="151"/>
-      <c r="AP50" s="151"/>
-      <c r="AQ50" s="151"/>
-      <c r="AR50" s="151"/>
-      <c r="AS50" s="151"/>
-      <c r="AT50" s="151"/>
-      <c r="AU50" s="151"/>
-      <c r="AV50" s="151"/>
-      <c r="AW50" s="151"/>
-      <c r="AX50" s="151"/>
-      <c r="AY50" s="151"/>
-      <c r="AZ50" s="151"/>
+      <c r="A50" s="159"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="162"/>
+      <c r="L50" s="162"/>
+      <c r="M50" s="162"/>
+      <c r="N50" s="162"/>
+      <c r="O50" s="162"/>
+      <c r="P50" s="162"/>
+      <c r="Q50" s="162"/>
+      <c r="R50" s="162"/>
+      <c r="S50" s="162"/>
+      <c r="T50" s="162"/>
+      <c r="U50" s="162"/>
+      <c r="V50" s="162"/>
+      <c r="W50" s="162"/>
+      <c r="X50" s="162"/>
+      <c r="Y50" s="162"/>
+      <c r="Z50" s="162"/>
+      <c r="AA50" s="162"/>
+      <c r="AB50" s="162"/>
+      <c r="AC50" s="162"/>
+      <c r="AD50" s="162"/>
+      <c r="AE50" s="162"/>
+      <c r="AF50" s="162"/>
+      <c r="AG50" s="162"/>
+      <c r="AH50" s="162"/>
+      <c r="AI50" s="162"/>
+      <c r="AJ50" s="162"/>
+      <c r="AK50" s="162"/>
+      <c r="AL50" s="162"/>
+      <c r="AM50" s="162"/>
+      <c r="AN50" s="162"/>
+      <c r="AO50" s="162"/>
+      <c r="AP50" s="162"/>
+      <c r="AQ50" s="162"/>
+      <c r="AR50" s="162"/>
+      <c r="AS50" s="162"/>
+      <c r="AT50" s="162"/>
+      <c r="AU50" s="162"/>
+      <c r="AV50" s="162"/>
+      <c r="AW50" s="162"/>
+      <c r="AX50" s="162"/>
+      <c r="AY50" s="162"/>
+      <c r="AZ50" s="162"/>
     </row>
     <row r="51" spans="1:52">
-      <c r="A51" s="148"/>
-      <c r="B51" s="148"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="151"/>
-      <c r="L51" s="151"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="151"/>
-      <c r="Q51" s="151"/>
-      <c r="R51" s="151"/>
-      <c r="S51" s="151"/>
-      <c r="T51" s="151"/>
-      <c r="U51" s="151"/>
-      <c r="V51" s="151"/>
-      <c r="W51" s="151"/>
-      <c r="X51" s="151"/>
-      <c r="Y51" s="151"/>
-      <c r="Z51" s="151"/>
-      <c r="AA51" s="151"/>
-      <c r="AB51" s="151"/>
-      <c r="AC51" s="151"/>
-      <c r="AD51" s="151"/>
-      <c r="AE51" s="151"/>
-      <c r="AF51" s="151"/>
-      <c r="AG51" s="151"/>
-      <c r="AH51" s="151"/>
-      <c r="AI51" s="151"/>
-      <c r="AJ51" s="151"/>
-      <c r="AK51" s="151"/>
-      <c r="AL51" s="151"/>
-      <c r="AM51" s="151"/>
-      <c r="AN51" s="151"/>
-      <c r="AO51" s="151"/>
-      <c r="AP51" s="151"/>
-      <c r="AQ51" s="151"/>
-      <c r="AR51" s="151"/>
-      <c r="AS51" s="151"/>
-      <c r="AT51" s="151"/>
-      <c r="AU51" s="151"/>
-      <c r="AV51" s="151"/>
-      <c r="AW51" s="151"/>
-      <c r="AX51" s="151"/>
-      <c r="AY51" s="151"/>
-      <c r="AZ51" s="151"/>
+      <c r="A51" s="159"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="161"/>
+      <c r="H51" s="161"/>
+      <c r="I51" s="161"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="162"/>
+      <c r="L51" s="162"/>
+      <c r="M51" s="162"/>
+      <c r="N51" s="162"/>
+      <c r="O51" s="162"/>
+      <c r="P51" s="162"/>
+      <c r="Q51" s="162"/>
+      <c r="R51" s="162"/>
+      <c r="S51" s="162"/>
+      <c r="T51" s="162"/>
+      <c r="U51" s="162"/>
+      <c r="V51" s="162"/>
+      <c r="W51" s="162"/>
+      <c r="X51" s="162"/>
+      <c r="Y51" s="162"/>
+      <c r="Z51" s="162"/>
+      <c r="AA51" s="162"/>
+      <c r="AB51" s="162"/>
+      <c r="AC51" s="162"/>
+      <c r="AD51" s="162"/>
+      <c r="AE51" s="162"/>
+      <c r="AF51" s="162"/>
+      <c r="AG51" s="162"/>
+      <c r="AH51" s="162"/>
+      <c r="AI51" s="162"/>
+      <c r="AJ51" s="162"/>
+      <c r="AK51" s="162"/>
+      <c r="AL51" s="162"/>
+      <c r="AM51" s="162"/>
+      <c r="AN51" s="162"/>
+      <c r="AO51" s="162"/>
+      <c r="AP51" s="162"/>
+      <c r="AQ51" s="162"/>
+      <c r="AR51" s="162"/>
+      <c r="AS51" s="162"/>
+      <c r="AT51" s="162"/>
+      <c r="AU51" s="162"/>
+      <c r="AV51" s="162"/>
+      <c r="AW51" s="162"/>
+      <c r="AX51" s="162"/>
+      <c r="AY51" s="162"/>
+      <c r="AZ51" s="162"/>
     </row>
     <row r="52" spans="1:52">
-      <c r="A52" s="152"/>
-      <c r="B52" s="152"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="154"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-      <c r="P52" s="155"/>
-      <c r="Q52" s="155"/>
-      <c r="R52" s="155"/>
-      <c r="S52" s="155"/>
-      <c r="T52" s="155"/>
-      <c r="U52" s="155"/>
-      <c r="V52" s="155"/>
-      <c r="W52" s="155"/>
-      <c r="X52" s="155"/>
-      <c r="Y52" s="155"/>
-      <c r="Z52" s="155"/>
-      <c r="AA52" s="155"/>
-      <c r="AB52" s="155"/>
-      <c r="AC52" s="155"/>
-      <c r="AD52" s="155"/>
-      <c r="AE52" s="155"/>
-      <c r="AF52" s="155"/>
-      <c r="AG52" s="155"/>
-      <c r="AH52" s="155"/>
-      <c r="AI52" s="155"/>
-      <c r="AJ52" s="155"/>
-      <c r="AK52" s="155"/>
-      <c r="AL52" s="155"/>
-      <c r="AM52" s="155"/>
-      <c r="AN52" s="155"/>
-      <c r="AO52" s="155"/>
-      <c r="AP52" s="155"/>
-      <c r="AQ52" s="155"/>
-      <c r="AR52" s="155"/>
-      <c r="AS52" s="155"/>
-      <c r="AT52" s="155"/>
-      <c r="AU52" s="155"/>
-      <c r="AV52" s="155"/>
-      <c r="AW52" s="155"/>
-      <c r="AX52" s="155"/>
-      <c r="AY52" s="155"/>
-      <c r="AZ52" s="155"/>
+      <c r="A52" s="163"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="165"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="165"/>
+      <c r="J52" s="165"/>
+      <c r="K52" s="166"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="166"/>
+      <c r="N52" s="166"/>
+      <c r="O52" s="166"/>
+      <c r="P52" s="166"/>
+      <c r="Q52" s="166"/>
+      <c r="R52" s="166"/>
+      <c r="S52" s="166"/>
+      <c r="T52" s="166"/>
+      <c r="U52" s="166"/>
+      <c r="V52" s="166"/>
+      <c r="W52" s="166"/>
+      <c r="X52" s="166"/>
+      <c r="Y52" s="166"/>
+      <c r="Z52" s="166"/>
+      <c r="AA52" s="166"/>
+      <c r="AB52" s="166"/>
+      <c r="AC52" s="166"/>
+      <c r="AD52" s="166"/>
+      <c r="AE52" s="166"/>
+      <c r="AF52" s="166"/>
+      <c r="AG52" s="166"/>
+      <c r="AH52" s="166"/>
+      <c r="AI52" s="166"/>
+      <c r="AJ52" s="166"/>
+      <c r="AK52" s="166"/>
+      <c r="AL52" s="166"/>
+      <c r="AM52" s="166"/>
+      <c r="AN52" s="166"/>
+      <c r="AO52" s="166"/>
+      <c r="AP52" s="166"/>
+      <c r="AQ52" s="166"/>
+      <c r="AR52" s="166"/>
+      <c r="AS52" s="166"/>
+      <c r="AT52" s="166"/>
+      <c r="AU52" s="166"/>
+      <c r="AV52" s="166"/>
+      <c r="AW52" s="166"/>
+      <c r="AX52" s="166"/>
+      <c r="AY52" s="166"/>
+      <c r="AZ52" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:T51"/>
+    <mergeCell ref="U51:AZ51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:T52"/>
+    <mergeCell ref="U52:AZ52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:T49"/>
+    <mergeCell ref="U49:AZ49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:T50"/>
+    <mergeCell ref="U50:AZ50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="U47:AZ47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:T48"/>
+    <mergeCell ref="U48:AZ48"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
     <mergeCell ref="A1:AL2"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AQ1:AZ1"/>
@@ -36877,246 +37117,6 @@
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
     <mergeCell ref="U4:AZ4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="U47:AZ47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:T48"/>
-    <mergeCell ref="U48:AZ48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:T49"/>
-    <mergeCell ref="U49:AZ49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:T50"/>
-    <mergeCell ref="U50:AZ50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:T51"/>
-    <mergeCell ref="U51:AZ51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:T52"/>
-    <mergeCell ref="U52:AZ52"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37134,7 +37134,7 @@
   </sheetPr>
   <dimension ref="A1:BD68"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:V2"/>
     </sheetView>
   </sheetViews>
@@ -40848,7 +40848,7 @@
       <c r="BA67" s="45"/>
       <c r="BB67" s="45"/>
       <c r="BC67" s="45"/>
-      <c r="BD67" s="45"/>
+      <c r="BD67" s="47"/>
     </row>
     <row r="68" spans="1:56">
       <c r="A68" s="60"/>
@@ -40906,7 +40906,7 @@
       <c r="BA68" s="60"/>
       <c r="BB68" s="60"/>
       <c r="BC68" s="60"/>
-      <c r="BD68" s="60"/>
+      <c r="BD68" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -52948,22 +52948,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="W97:AB98"/>
-    <mergeCell ref="B69:G70"/>
-    <mergeCell ref="I69:N70"/>
-    <mergeCell ref="P69:U70"/>
-    <mergeCell ref="I32:N33"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="I41:N42"/>
-    <mergeCell ref="P41:U42"/>
-    <mergeCell ref="B59:G60"/>
-    <mergeCell ref="I59:N60"/>
-    <mergeCell ref="B32:G33"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
     <mergeCell ref="W131:AB132"/>
     <mergeCell ref="B131:G132"/>
     <mergeCell ref="I131:N132"/>
@@ -52980,6 +52964,22 @@
     <mergeCell ref="W114:AB115"/>
     <mergeCell ref="B50:G51"/>
     <mergeCell ref="B80:G81"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
+    <mergeCell ref="W97:AB98"/>
+    <mergeCell ref="B69:G70"/>
+    <mergeCell ref="I69:N70"/>
+    <mergeCell ref="P69:U70"/>
+    <mergeCell ref="I32:N33"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="I41:N42"/>
+    <mergeCell ref="P41:U42"/>
+    <mergeCell ref="B59:G60"/>
+    <mergeCell ref="I59:N60"/>
+    <mergeCell ref="B32:G33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -58662,6 +58662,23 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A26:BA26"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
+    <mergeCell ref="A4:BA4"/>
+    <mergeCell ref="B53:G54"/>
+    <mergeCell ref="P44:U45"/>
+    <mergeCell ref="W44:AB45"/>
+    <mergeCell ref="AD44:AI45"/>
+    <mergeCell ref="P29:U31"/>
+    <mergeCell ref="W29:AB31"/>
+    <mergeCell ref="B44:G45"/>
+    <mergeCell ref="I44:N45"/>
+    <mergeCell ref="B29:G31"/>
+    <mergeCell ref="I29:N31"/>
     <mergeCell ref="B94:G95"/>
     <mergeCell ref="W65:AB66"/>
     <mergeCell ref="B74:G75"/>
@@ -58672,23 +58689,6 @@
     <mergeCell ref="B65:G66"/>
     <mergeCell ref="I65:N66"/>
     <mergeCell ref="P65:U66"/>
-    <mergeCell ref="B53:G54"/>
-    <mergeCell ref="P44:U45"/>
-    <mergeCell ref="W44:AB45"/>
-    <mergeCell ref="AD44:AI45"/>
-    <mergeCell ref="P29:U31"/>
-    <mergeCell ref="W29:AB31"/>
-    <mergeCell ref="B44:G45"/>
-    <mergeCell ref="I44:N45"/>
-    <mergeCell ref="B29:G31"/>
-    <mergeCell ref="I29:N31"/>
-    <mergeCell ref="A26:BA26"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
-    <mergeCell ref="A4:BA4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -66831,11 +66831,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B123:G124"/>
-    <mergeCell ref="I123:N124"/>
-    <mergeCell ref="B131:G132"/>
-    <mergeCell ref="B108:G109"/>
-    <mergeCell ref="I108:N109"/>
+    <mergeCell ref="I86:N87"/>
+    <mergeCell ref="P86:U87"/>
+    <mergeCell ref="W86:AB87"/>
+    <mergeCell ref="A34:BA34"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
+    <mergeCell ref="A4:BA4"/>
     <mergeCell ref="P108:U109"/>
     <mergeCell ref="B116:G117"/>
     <mergeCell ref="W37:AB38"/>
@@ -66852,16 +66857,11 @@
     <mergeCell ref="P37:U38"/>
     <mergeCell ref="B101:G102"/>
     <mergeCell ref="B86:G87"/>
-    <mergeCell ref="I86:N87"/>
-    <mergeCell ref="P86:U87"/>
-    <mergeCell ref="W86:AB87"/>
-    <mergeCell ref="A34:BA34"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
-    <mergeCell ref="A4:BA4"/>
+    <mergeCell ref="B123:G124"/>
+    <mergeCell ref="I123:N124"/>
+    <mergeCell ref="B131:G132"/>
+    <mergeCell ref="B108:G109"/>
+    <mergeCell ref="I108:N109"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -73841,6 +73841,23 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B96:G97"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B80:G81"/>
+    <mergeCell ref="I80:N81"/>
+    <mergeCell ref="P80:U81"/>
+    <mergeCell ref="B88:G89"/>
+    <mergeCell ref="P31:U32"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="I54:N55"/>
+    <mergeCell ref="P54:U55"/>
+    <mergeCell ref="B62:G63"/>
+    <mergeCell ref="B45:G46"/>
+    <mergeCell ref="B22:G23"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="B31:G32"/>
+    <mergeCell ref="I31:N32"/>
+    <mergeCell ref="B37:G38"/>
     <mergeCell ref="A19:BA19"/>
     <mergeCell ref="A1:V2"/>
     <mergeCell ref="W1:Z1"/>
@@ -73848,23 +73865,6 @@
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AJ2"/>
     <mergeCell ref="A4:BA4"/>
-    <mergeCell ref="B22:G23"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="B31:G32"/>
-    <mergeCell ref="I31:N32"/>
-    <mergeCell ref="B37:G38"/>
-    <mergeCell ref="P31:U32"/>
-    <mergeCell ref="B54:G55"/>
-    <mergeCell ref="I54:N55"/>
-    <mergeCell ref="P54:U55"/>
-    <mergeCell ref="B62:G63"/>
-    <mergeCell ref="B45:G46"/>
-    <mergeCell ref="B96:G97"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B80:G81"/>
-    <mergeCell ref="I80:N81"/>
-    <mergeCell ref="P80:U81"/>
-    <mergeCell ref="B88:G89"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/20 要件/要件分析書.xlsx
+++ b/20 要件/要件分析書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="195" windowWidth="14460" windowHeight="12600" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="14760" yWindow="195" windowWidth="14460" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -2130,16 +2130,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザー情報削除</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ユーザー一覧閲覧</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2257,10 +2247,6 @@
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー情報削除</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2717,6 +2703,17 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー削除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -12328,7 +12325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
@@ -21293,7 +21290,7 @@
       <c r="H13" s="45"/>
       <c r="I13" s="45"/>
       <c r="J13" s="56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K13" s="60"/>
       <c r="L13" s="60"/>
@@ -21397,7 +21394,7 @@
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
@@ -21506,7 +21503,7 @@
       <c r="H17" s="45"/>
       <c r="I17" s="45"/>
       <c r="J17" s="56" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
@@ -21728,7 +21725,7 @@
       <c r="D21" s="91"/>
       <c r="E21" s="92"/>
       <c r="F21" s="48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="49"/>
@@ -21847,7 +21844,7 @@
       <c r="I23" s="45"/>
       <c r="J23" s="45"/>
       <c r="K23" s="192" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L23" s="184"/>
       <c r="M23" s="184"/>
@@ -21857,7 +21854,7 @@
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
       <c r="S23" s="192" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T23" s="184"/>
       <c r="U23" s="184"/>
@@ -22681,7 +22678,7 @@
       <c r="D38" s="91"/>
       <c r="E38" s="92"/>
       <c r="F38" s="48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G38" s="49"/>
       <c r="H38" s="49"/>
@@ -22790,7 +22787,7 @@
       <c r="A40" s="57"/>
       <c r="B40" s="45"/>
       <c r="C40" s="193" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D40" s="194"/>
       <c r="E40" s="194"/>
@@ -22800,7 +22797,7 @@
       <c r="I40" s="45"/>
       <c r="J40" s="45"/>
       <c r="K40" s="192" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L40" s="184"/>
       <c r="M40" s="184"/>
@@ -22962,7 +22959,7 @@
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
@@ -23522,7 +23519,7 @@
       <c r="D53" s="91"/>
       <c r="E53" s="92"/>
       <c r="F53" s="48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G53" s="49"/>
       <c r="H53" s="49"/>
@@ -23631,7 +23628,7 @@
       <c r="A55" s="57"/>
       <c r="B55" s="45"/>
       <c r="C55" s="193" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D55" s="194"/>
       <c r="E55" s="194"/>
@@ -23641,7 +23638,7 @@
       <c r="I55" s="45"/>
       <c r="J55" s="45"/>
       <c r="K55" s="192" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L55" s="184"/>
       <c r="M55" s="184"/>
@@ -23915,7 +23912,7 @@
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
       <c r="F60" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G60" s="60"/>
       <c r="H60" s="60"/>
@@ -24475,7 +24472,7 @@
       <c r="D70" s="91"/>
       <c r="E70" s="92"/>
       <c r="F70" s="48" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="G70" s="49"/>
       <c r="H70" s="49"/>
@@ -24584,7 +24581,7 @@
       <c r="A72" s="57"/>
       <c r="B72" s="45"/>
       <c r="C72" s="193" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D72" s="194"/>
       <c r="E72" s="194"/>
@@ -24594,7 +24591,7 @@
       <c r="I72" s="45"/>
       <c r="J72" s="45"/>
       <c r="K72" s="192" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L72" s="184"/>
       <c r="M72" s="184"/>
@@ -24868,7 +24865,7 @@
       <c r="D77" s="45"/>
       <c r="E77" s="45"/>
       <c r="F77" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G77" s="60"/>
       <c r="H77" s="60"/>
@@ -25468,7 +25465,7 @@
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" s="170" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B1" s="171"/>
       <c r="C1" s="171"/>
@@ -25669,7 +25666,7 @@
     <row r="6" spans="1:53">
       <c r="A6" s="57"/>
       <c r="B6" s="41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -25789,7 +25786,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
@@ -26011,7 +26008,7 @@
       <c r="D12" s="91"/>
       <c r="E12" s="92"/>
       <c r="F12" s="48" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
@@ -26119,7 +26116,7 @@
     <row r="14" spans="1:53">
       <c r="A14" s="57"/>
       <c r="B14" s="193" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" s="194"/>
       <c r="D14" s="194"/>
@@ -26291,7 +26288,7 @@
       <c r="C17" s="45"/>
       <c r="D17" s="95"/>
       <c r="E17" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -37134,7 +37131,7 @@
   </sheetPr>
   <dimension ref="A1:BD68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:V2"/>
     </sheetView>
   </sheetViews>
@@ -38603,7 +38600,7 @@
       <c r="AU28" s="38"/>
       <c r="AV28" s="108"/>
       <c r="AW28" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AX28" s="22"/>
       <c r="AY28" s="22"/>
@@ -38616,7 +38613,7 @@
     <row r="29" spans="1:56">
       <c r="A29" s="40"/>
       <c r="B29" s="56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="60"/>
       <c r="D29" s="60"/>
@@ -38680,7 +38677,7 @@
     <row r="30" spans="1:56">
       <c r="A30" s="40"/>
       <c r="B30" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="36"/>
       <c r="D30" s="36"/>
@@ -38744,7 +38741,7 @@
     <row r="31" spans="1:56">
       <c r="A31" s="40"/>
       <c r="B31" s="40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
@@ -38795,7 +38792,7 @@
       <c r="AU31" s="45"/>
       <c r="AV31" s="47"/>
       <c r="AW31" s="52" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AX31" s="53"/>
       <c r="AY31" s="53"/>
@@ -38808,7 +38805,7 @@
     <row r="32" spans="1:56">
       <c r="A32" s="40"/>
       <c r="B32" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -38848,7 +38845,7 @@
       <c r="AJ32" s="104"/>
       <c r="AK32" s="120"/>
       <c r="AL32" s="125" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AM32" s="45"/>
       <c r="AN32" s="45"/>
@@ -38874,7 +38871,7 @@
     <row r="33" spans="1:56">
       <c r="A33" s="40"/>
       <c r="B33" s="57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
@@ -38909,7 +38906,7 @@
       <c r="AG33" s="45"/>
       <c r="AH33" s="57"/>
       <c r="AI33" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AJ33" s="42"/>
       <c r="AK33" s="42"/>
@@ -38938,7 +38935,7 @@
     <row r="34" spans="1:56">
       <c r="A34" s="40"/>
       <c r="B34" s="57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
@@ -39002,7 +38999,7 @@
     <row r="35" spans="1:56">
       <c r="A35" s="40"/>
       <c r="B35" s="56" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="C35" s="85"/>
       <c r="D35" s="85"/>
@@ -39089,7 +39086,7 @@
       <c r="AG36" s="45"/>
       <c r="AH36" s="57"/>
       <c r="AI36" s="57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
@@ -39148,7 +39145,7 @@
       <c r="AG37" s="45"/>
       <c r="AH37" s="57"/>
       <c r="AI37" s="55" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AJ37" s="19"/>
       <c r="AK37" s="19"/>
@@ -39203,7 +39200,7 @@
       <c r="AG38" s="45"/>
       <c r="AH38" s="57"/>
       <c r="AI38" s="56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AJ38" s="60"/>
       <c r="AK38" s="60"/>
@@ -39261,7 +39258,7 @@
       <c r="AJ39" s="45"/>
       <c r="AK39" s="45"/>
       <c r="AL39" s="99" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AM39" s="45"/>
       <c r="AN39" s="45"/>
@@ -39722,7 +39719,7 @@
       <c r="AG47" s="22"/>
       <c r="AH47" s="22"/>
       <c r="AI47" s="88" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AJ47" s="85"/>
       <c r="AK47" s="85"/>
@@ -39894,7 +39891,7 @@
       <c r="AG50" s="22"/>
       <c r="AH50" s="22"/>
       <c r="AI50" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AJ50" s="22"/>
       <c r="AK50" s="22"/>
@@ -39939,7 +39936,7 @@
       <c r="AG51" s="22"/>
       <c r="AH51" s="22"/>
       <c r="AI51" s="57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AJ51" s="45"/>
       <c r="AK51" s="45"/>
@@ -39989,7 +39986,7 @@
       <c r="AG52" s="45"/>
       <c r="AH52" s="22"/>
       <c r="AI52" s="88" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AJ52" s="85"/>
       <c r="AK52" s="85"/>
@@ -41330,7 +41327,7 @@
       <c r="H9" s="44"/>
       <c r="I9" s="45"/>
       <c r="J9" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
@@ -41389,7 +41386,7 @@
       <c r="H10" s="44"/>
       <c r="I10" s="45"/>
       <c r="J10" s="40" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
@@ -41785,7 +41782,7 @@
       <c r="M17" s="42"/>
       <c r="N17" s="43"/>
       <c r="O17" s="54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P17" s="59"/>
       <c r="Q17" s="59"/>
@@ -42183,7 +42180,7 @@
       <c r="N24" s="42"/>
       <c r="O24" s="109"/>
       <c r="P24" s="54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q24" s="112"/>
       <c r="R24" s="23"/>
@@ -42521,7 +42518,7 @@
       <c r="M30" s="42"/>
       <c r="N30" s="43"/>
       <c r="O30" s="52" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P30" s="53"/>
       <c r="Q30" s="86"/>
@@ -42793,7 +42790,7 @@
       <c r="N35" s="42"/>
       <c r="O35" s="109"/>
       <c r="P35" s="53" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q35" s="53"/>
       <c r="R35" s="54"/>
@@ -42844,7 +42841,7 @@
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
       <c r="J36" s="35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
@@ -42901,7 +42898,7 @@
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
       <c r="J37" s="40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K37" s="44"/>
       <c r="L37" s="44"/>
@@ -42958,7 +42955,7 @@
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K38" s="44"/>
       <c r="L38" s="44"/>
@@ -43015,7 +43012,7 @@
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
       <c r="J39" s="40" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K39" s="44"/>
       <c r="L39" s="44"/>
@@ -43072,7 +43069,7 @@
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
       <c r="J40" s="52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K40" s="85"/>
       <c r="L40" s="85"/>
@@ -43351,7 +43348,7 @@
       <c r="D45" s="91"/>
       <c r="E45" s="92"/>
       <c r="F45" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="36"/>
@@ -43699,7 +43696,7 @@
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
       <c r="E52" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
@@ -44110,7 +44107,7 @@
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
       <c r="E61" s="34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F61" s="60"/>
       <c r="G61" s="60"/>
@@ -44202,7 +44199,7 @@
       <c r="C63" s="45"/>
       <c r="D63" s="45"/>
       <c r="E63" s="34" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F63" s="60"/>
       <c r="G63" s="60"/>
@@ -44294,7 +44291,7 @@
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
       <c r="E65" s="64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F65" s="45"/>
       <c r="G65" s="45"/>
@@ -44386,7 +44383,7 @@
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
       <c r="E67" s="64" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F67" s="45"/>
       <c r="G67" s="45"/>
@@ -49578,7 +49575,7 @@
       <c r="C91" s="45"/>
       <c r="D91" s="45"/>
       <c r="E91" s="64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F91" s="45"/>
       <c r="G91" s="45"/>
@@ -49929,7 +49926,7 @@
       <c r="N97" s="185"/>
       <c r="O97" s="45"/>
       <c r="P97" s="183" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q97" s="184"/>
       <c r="R97" s="184"/>
@@ -50423,7 +50420,7 @@
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F106" s="45"/>
       <c r="G106" s="45"/>
@@ -52122,7 +52119,7 @@
       <c r="J136" s="45"/>
       <c r="K136" s="45"/>
       <c r="L136" s="64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M136" s="45"/>
       <c r="N136" s="45"/>
@@ -52563,7 +52560,7 @@
       <c r="C144" s="45"/>
       <c r="D144" s="45"/>
       <c r="E144" s="64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" s="45"/>
       <c r="G144" s="45"/>
@@ -52682,7 +52679,7 @@
       <c r="J146" s="45"/>
       <c r="K146" s="45"/>
       <c r="L146" s="64" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M146" s="45"/>
       <c r="N146" s="45"/>
@@ -55746,7 +55743,7 @@
       <c r="G52" s="45"/>
       <c r="H52" s="47"/>
       <c r="I52" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J52" s="45"/>
       <c r="K52" s="45"/>
@@ -55966,7 +55963,7 @@
       <c r="C56" s="45"/>
       <c r="D56" s="45"/>
       <c r="E56" s="34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F56" s="60"/>
       <c r="G56" s="60"/>
@@ -56135,7 +56132,7 @@
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
       <c r="E59" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F59" s="45"/>
       <c r="G59" s="45"/>
@@ -56644,7 +56641,7 @@
       <c r="C68" s="45"/>
       <c r="D68" s="45"/>
       <c r="E68" s="64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F68" s="45"/>
       <c r="G68" s="45"/>
@@ -56756,7 +56753,7 @@
       <c r="C70" s="45"/>
       <c r="D70" s="45"/>
       <c r="E70" s="64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F70" s="45"/>
       <c r="G70" s="45"/>
@@ -56929,7 +56926,7 @@
       <c r="G73" s="38"/>
       <c r="H73" s="39"/>
       <c r="I73" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J73" s="45"/>
       <c r="K73" s="45"/>
@@ -57149,7 +57146,7 @@
       <c r="C77" s="45"/>
       <c r="D77" s="45"/>
       <c r="E77" s="34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F77" s="60"/>
       <c r="G77" s="60"/>
@@ -57318,7 +57315,7 @@
       <c r="C80" s="45"/>
       <c r="D80" s="45"/>
       <c r="E80" s="64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
@@ -57827,7 +57824,7 @@
       <c r="C89" s="45"/>
       <c r="D89" s="45"/>
       <c r="E89" s="64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
@@ -57939,7 +57936,7 @@
       <c r="C91" s="45"/>
       <c r="D91" s="45"/>
       <c r="E91" s="64" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F91" s="45"/>
       <c r="G91" s="45"/>
@@ -58055,7 +58052,7 @@
       <c r="G93" s="38"/>
       <c r="H93" s="39"/>
       <c r="I93" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J93" s="45"/>
       <c r="K93" s="45"/>
@@ -58275,7 +58272,7 @@
       <c r="C97" s="45"/>
       <c r="D97" s="45"/>
       <c r="E97" s="34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F97" s="60"/>
       <c r="G97" s="60"/>
@@ -58444,7 +58441,7 @@
       <c r="C100" s="45"/>
       <c r="D100" s="45"/>
       <c r="E100" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F100" s="45"/>
       <c r="G100" s="45"/>
@@ -59500,7 +59497,7 @@
     <row r="19" spans="1:53">
       <c r="A19" s="57"/>
       <c r="B19" s="57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="45"/>
@@ -59614,7 +59611,7 @@
     <row r="22" spans="1:53">
       <c r="A22" s="57"/>
       <c r="B22" s="57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
@@ -59652,7 +59649,7 @@
     <row r="23" spans="1:53">
       <c r="A23" s="57"/>
       <c r="B23" s="57" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C23" s="45"/>
       <c r="D23" s="45"/>
@@ -59690,7 +59687,7 @@
     <row r="24" spans="1:53">
       <c r="A24" s="57"/>
       <c r="B24" s="56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
@@ -59769,7 +59766,7 @@
       <c r="C26" s="60"/>
       <c r="D26" s="60"/>
       <c r="E26" s="125" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="60"/>
@@ -59804,7 +59801,7 @@
     <row r="27" spans="1:53">
       <c r="A27" s="57"/>
       <c r="B27" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -59812,7 +59809,7 @@
       <c r="F27" s="42"/>
       <c r="G27" s="43"/>
       <c r="H27" s="125" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I27" s="60"/>
       <c r="J27" s="60"/>
@@ -59926,7 +59923,7 @@
     <row r="30" spans="1:53">
       <c r="A30" s="57"/>
       <c r="B30" s="57" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
@@ -60008,7 +60005,7 @@
     <row r="32" spans="1:53">
       <c r="A32" s="57"/>
       <c r="B32" s="56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C32" s="60"/>
       <c r="D32" s="60"/>
@@ -60301,7 +60298,7 @@
       <c r="N37" s="185"/>
       <c r="O37" s="45"/>
       <c r="P37" s="183" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q37" s="184"/>
       <c r="R37" s="184"/>
@@ -60966,7 +60963,7 @@
       <c r="G49" s="38"/>
       <c r="H49" s="39"/>
       <c r="I49" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J49" s="45"/>
       <c r="K49" s="45"/>
@@ -61186,7 +61183,7 @@
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
       <c r="E53" s="64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F53" s="45"/>
       <c r="G53" s="45"/>
@@ -61658,7 +61655,7 @@
       <c r="U61" s="185"/>
       <c r="V61" s="45"/>
       <c r="W61" s="183" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="X61" s="184"/>
       <c r="Y61" s="184"/>
@@ -61862,7 +61859,7 @@
       <c r="C65" s="45"/>
       <c r="D65" s="95"/>
       <c r="E65" s="64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F65" s="45"/>
       <c r="G65" s="45"/>
@@ -61981,7 +61978,7 @@
       <c r="J67" s="45"/>
       <c r="K67" s="95"/>
       <c r="L67" s="60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M67" s="60"/>
       <c r="N67" s="60"/>
@@ -62593,7 +62590,7 @@
       <c r="C78" s="45"/>
       <c r="D78" s="95"/>
       <c r="E78" s="64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
@@ -62712,7 +62709,7 @@
       <c r="J80" s="45"/>
       <c r="K80" s="95"/>
       <c r="L80" s="60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M80" s="60"/>
       <c r="N80" s="60"/>
@@ -63056,7 +63053,7 @@
       <c r="N86" s="185"/>
       <c r="O86" s="45"/>
       <c r="P86" s="183" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q86" s="184"/>
       <c r="R86" s="184"/>
@@ -63214,7 +63211,7 @@
       <c r="C89" s="45"/>
       <c r="D89" s="95"/>
       <c r="E89" s="64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
@@ -63326,7 +63323,7 @@
       <c r="C91" s="45"/>
       <c r="D91" s="95"/>
       <c r="E91" s="64" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F91" s="45"/>
       <c r="G91" s="45"/>
@@ -63557,7 +63554,7 @@
       <c r="J95" s="45"/>
       <c r="K95" s="95"/>
       <c r="L95" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M95" s="60"/>
       <c r="N95" s="60"/>
@@ -63669,7 +63666,7 @@
       <c r="J97" s="45"/>
       <c r="K97" s="95"/>
       <c r="L97" s="45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M97" s="45"/>
       <c r="N97" s="45"/>
@@ -63833,7 +63830,7 @@
       <c r="G100" s="38"/>
       <c r="H100" s="39"/>
       <c r="I100" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J100" s="45"/>
       <c r="K100" s="45"/>
@@ -64166,7 +64163,7 @@
       <c r="D106" s="91"/>
       <c r="E106" s="92"/>
       <c r="F106" s="48" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G106" s="49"/>
       <c r="H106" s="49"/>
@@ -64292,7 +64289,7 @@
       <c r="N108" s="185"/>
       <c r="O108" s="45"/>
       <c r="P108" s="183" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q108" s="184"/>
       <c r="R108" s="184"/>
@@ -64448,7 +64445,7 @@
       <c r="C111" s="45"/>
       <c r="D111" s="95"/>
       <c r="E111" s="64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F111" s="45"/>
       <c r="G111" s="45"/>
@@ -64567,7 +64564,7 @@
       <c r="J113" s="45"/>
       <c r="K113" s="95"/>
       <c r="L113" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M113" s="60"/>
       <c r="N113" s="60"/>
@@ -64676,7 +64673,7 @@
       <c r="G115" s="38"/>
       <c r="H115" s="39"/>
       <c r="I115" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J115" s="45"/>
       <c r="K115" s="45"/>
@@ -65009,7 +65006,7 @@
       <c r="D121" s="91"/>
       <c r="E121" s="92"/>
       <c r="F121" s="48" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G121" s="49"/>
       <c r="H121" s="49"/>
@@ -65289,7 +65286,7 @@
       <c r="C126" s="45"/>
       <c r="D126" s="95"/>
       <c r="E126" s="64" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F126" s="45"/>
       <c r="G126" s="45"/>
@@ -65515,7 +65512,7 @@
       <c r="G130" s="38"/>
       <c r="H130" s="39"/>
       <c r="I130" s="45" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J130" s="45"/>
       <c r="K130" s="45"/>
@@ -68390,7 +68387,7 @@
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" s="170" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B1" s="171"/>
       <c r="C1" s="171"/>
@@ -68591,7 +68588,7 @@
     <row r="6" spans="1:53">
       <c r="A6" s="57"/>
       <c r="B6" s="41" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -68798,7 +68795,7 @@
       <c r="A10" s="57"/>
       <c r="H10" s="47"/>
       <c r="J10" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -69244,7 +69241,7 @@
       <c r="D20" s="91"/>
       <c r="E20" s="92"/>
       <c r="F20" s="48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G20" s="49"/>
       <c r="H20" s="49"/>
@@ -69352,7 +69349,7 @@
     <row r="22" spans="1:53">
       <c r="A22" s="57"/>
       <c r="B22" s="193" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C22" s="194"/>
       <c r="D22" s="194"/>
@@ -69857,7 +69854,7 @@
     <row r="31" spans="1:53">
       <c r="A31" s="57"/>
       <c r="B31" s="193" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C31" s="194"/>
       <c r="D31" s="194"/>
@@ -70645,7 +70642,7 @@
     <row r="45" spans="1:53">
       <c r="A45" s="57"/>
       <c r="B45" s="183" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C45" s="184"/>
       <c r="D45" s="184"/>
@@ -71148,7 +71145,7 @@
     <row r="54" spans="1:53">
       <c r="A54" s="57"/>
       <c r="B54" s="193" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C54" s="194"/>
       <c r="D54" s="194"/>
@@ -72160,7 +72157,7 @@
     <row r="72" spans="1:53">
       <c r="A72" s="57"/>
       <c r="B72" s="183" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C72" s="184"/>
       <c r="D72" s="184"/>
@@ -72608,7 +72605,7 @@
     <row r="80" spans="1:53">
       <c r="A80" s="57"/>
       <c r="B80" s="193" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C80" s="194"/>
       <c r="D80" s="194"/>
@@ -73508,7 +73505,7 @@
     <row r="96" spans="1:53">
       <c r="A96" s="57"/>
       <c r="B96" s="183" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C96" s="184"/>
       <c r="D96" s="184"/>

--- a/20 要件/要件分析書.xlsx
+++ b/20 要件/要件分析書.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="324">
   <si>
     <t>システム名称</t>
     <phoneticPr fontId="5"/>
@@ -2717,6 +2717,16 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>7：カレンダー情報取得()</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -3470,6 +3480,36 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3491,36 +3531,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5444,13 +5454,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5496,13 +5506,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5548,13 +5558,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5600,13 +5610,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5652,13 +5662,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5704,7 +5714,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1276350" cy="0"/>
@@ -5751,7 +5761,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6334125" cy="0"/>
@@ -5763,6 +5773,53 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="733425" y="8934450"/>
+          <a:ext cx="6334125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6334125" cy="0"/>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="CNT_ACTR_1_GRP_YCSE_1_CNT"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="10001250"/>
           <a:ext cx="6334125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -20634,6 +20691,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A4:BA4"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
+    <mergeCell ref="A16:BA16"/>
+    <mergeCell ref="I19:N20"/>
+    <mergeCell ref="P19:U20"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="I36:N37"/>
+    <mergeCell ref="P36:U37"/>
     <mergeCell ref="B90:G91"/>
     <mergeCell ref="W19:AB20"/>
     <mergeCell ref="B25:G26"/>
@@ -20645,19 +20715,6 @@
     <mergeCell ref="B78:G79"/>
     <mergeCell ref="I78:N79"/>
     <mergeCell ref="P78:U79"/>
-    <mergeCell ref="A16:BA16"/>
-    <mergeCell ref="I19:N20"/>
-    <mergeCell ref="P19:U20"/>
-    <mergeCell ref="B19:G20"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="I36:N37"/>
-    <mergeCell ref="P36:U37"/>
-    <mergeCell ref="A4:BA4"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -25418,6 +25475,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:BA4"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
+    <mergeCell ref="A20:BA20"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="K23:P24"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="S23:X24"/>
     <mergeCell ref="C63:H64"/>
     <mergeCell ref="C72:H73"/>
     <mergeCell ref="K72:P73"/>
@@ -25427,17 +25495,6 @@
     <mergeCell ref="C46:H47"/>
     <mergeCell ref="C55:H56"/>
     <mergeCell ref="K55:P56"/>
-    <mergeCell ref="A20:BA20"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="K23:P24"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="S23:X24"/>
-    <mergeCell ref="A4:BA4"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -34079,2791 +34136,3031 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="149" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="160"/>
+      <c r="AH1" s="160"/>
+      <c r="AI1" s="160"/>
+      <c r="AJ1" s="160"/>
+      <c r="AK1" s="160"/>
+      <c r="AL1" s="160"/>
+      <c r="AM1" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="149"/>
-      <c r="AO1" s="149"/>
-      <c r="AP1" s="149"/>
-      <c r="AQ1" s="150" t="str">
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="161"/>
+      <c r="AP1" s="161"/>
+      <c r="AQ1" s="162" t="str">
         <f>IF(表紙!AL43&lt;&gt;"",表紙!AL43,"")</f>
         <v>connectyee</v>
       </c>
-      <c r="AR1" s="150"/>
-      <c r="AS1" s="150"/>
-      <c r="AT1" s="150"/>
-      <c r="AU1" s="150"/>
-      <c r="AV1" s="150"/>
-      <c r="AW1" s="150"/>
-      <c r="AX1" s="150"/>
-      <c r="AY1" s="150"/>
-      <c r="AZ1" s="150"/>
+      <c r="AR1" s="162"/>
+      <c r="AS1" s="162"/>
+      <c r="AT1" s="162"/>
+      <c r="AU1" s="162"/>
+      <c r="AV1" s="162"/>
+      <c r="AW1" s="162"/>
+      <c r="AX1" s="162"/>
+      <c r="AY1" s="162"/>
+      <c r="AZ1" s="162"/>
     </row>
     <row r="2" spans="1:52">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="148"/>
-      <c r="AH2" s="148"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="149" t="s">
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="160"/>
+      <c r="AH2" s="160"/>
+      <c r="AI2" s="160"/>
+      <c r="AJ2" s="160"/>
+      <c r="AK2" s="160"/>
+      <c r="AL2" s="160"/>
+      <c r="AM2" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="149"/>
-      <c r="AO2" s="149"/>
-      <c r="AP2" s="149"/>
-      <c r="AQ2" s="151">
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="161"/>
+      <c r="AP2" s="161"/>
+      <c r="AQ2" s="163">
         <f>IF(表紙!AL45&lt;&gt;"",表紙!AL45,"")</f>
         <v>2</v>
       </c>
-      <c r="AR2" s="151"/>
-      <c r="AS2" s="151"/>
-      <c r="AT2" s="151"/>
-      <c r="AU2" s="151"/>
-      <c r="AV2" s="151"/>
-      <c r="AW2" s="151"/>
-      <c r="AX2" s="151"/>
-      <c r="AY2" s="151"/>
-      <c r="AZ2" s="151"/>
+      <c r="AR2" s="163"/>
+      <c r="AS2" s="163"/>
+      <c r="AT2" s="163"/>
+      <c r="AU2" s="163"/>
+      <c r="AV2" s="163"/>
+      <c r="AW2" s="163"/>
+      <c r="AX2" s="163"/>
+      <c r="AY2" s="163"/>
+      <c r="AZ2" s="163"/>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="152" t="s">
+      <c r="B4" s="165"/>
+      <c r="C4" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="152" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="152" t="s">
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="153"/>
-      <c r="U4" s="152" t="s">
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="R4" s="166"/>
+      <c r="S4" s="166"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154"/>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="154"/>
-      <c r="AD4" s="154"/>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="154"/>
-      <c r="AK4" s="154"/>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="154"/>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="154"/>
-      <c r="AR4" s="154"/>
-      <c r="AS4" s="154"/>
-      <c r="AT4" s="154"/>
-      <c r="AU4" s="154"/>
-      <c r="AV4" s="154"/>
-      <c r="AW4" s="154"/>
-      <c r="AX4" s="154"/>
-      <c r="AY4" s="154"/>
-      <c r="AZ4" s="154"/>
+      <c r="V4" s="166"/>
+      <c r="W4" s="166"/>
+      <c r="X4" s="166"/>
+      <c r="Y4" s="166"/>
+      <c r="Z4" s="166"/>
+      <c r="AA4" s="166"/>
+      <c r="AB4" s="166"/>
+      <c r="AC4" s="166"/>
+      <c r="AD4" s="166"/>
+      <c r="AE4" s="166"/>
+      <c r="AF4" s="166"/>
+      <c r="AG4" s="166"/>
+      <c r="AH4" s="166"/>
+      <c r="AI4" s="166"/>
+      <c r="AJ4" s="166"/>
+      <c r="AK4" s="166"/>
+      <c r="AL4" s="166"/>
+      <c r="AM4" s="166"/>
+      <c r="AN4" s="166"/>
+      <c r="AO4" s="166"/>
+      <c r="AP4" s="166"/>
+      <c r="AQ4" s="166"/>
+      <c r="AR4" s="166"/>
+      <c r="AS4" s="166"/>
+      <c r="AT4" s="166"/>
+      <c r="AU4" s="166"/>
+      <c r="AV4" s="166"/>
+      <c r="AW4" s="166"/>
+      <c r="AX4" s="166"/>
+      <c r="AY4" s="166"/>
+      <c r="AZ4" s="166"/>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="155">
+      <c r="A5" s="156">
         <v>1</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156">
+      <c r="B5" s="156"/>
+      <c r="C5" s="157">
         <v>42259</v>
       </c>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157" t="s">
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158" t="s">
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="158"/>
-      <c r="AF5" s="158"/>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
-      <c r="AL5" s="158"/>
-      <c r="AM5" s="158"/>
-      <c r="AN5" s="158"/>
-      <c r="AO5" s="158"/>
-      <c r="AP5" s="158"/>
-      <c r="AQ5" s="158"/>
-      <c r="AR5" s="158"/>
-      <c r="AS5" s="158"/>
-      <c r="AT5" s="158"/>
-      <c r="AU5" s="158"/>
-      <c r="AV5" s="158"/>
-      <c r="AW5" s="158"/>
-      <c r="AX5" s="158"/>
-      <c r="AY5" s="158"/>
-      <c r="AZ5" s="158"/>
+      <c r="V5" s="159"/>
+      <c r="W5" s="159"/>
+      <c r="X5" s="159"/>
+      <c r="Y5" s="159"/>
+      <c r="Z5" s="159"/>
+      <c r="AA5" s="159"/>
+      <c r="AB5" s="159"/>
+      <c r="AC5" s="159"/>
+      <c r="AD5" s="159"/>
+      <c r="AE5" s="159"/>
+      <c r="AF5" s="159"/>
+      <c r="AG5" s="159"/>
+      <c r="AH5" s="159"/>
+      <c r="AI5" s="159"/>
+      <c r="AJ5" s="159"/>
+      <c r="AK5" s="159"/>
+      <c r="AL5" s="159"/>
+      <c r="AM5" s="159"/>
+      <c r="AN5" s="159"/>
+      <c r="AO5" s="159"/>
+      <c r="AP5" s="159"/>
+      <c r="AQ5" s="159"/>
+      <c r="AR5" s="159"/>
+      <c r="AS5" s="159"/>
+      <c r="AT5" s="159"/>
+      <c r="AU5" s="159"/>
+      <c r="AV5" s="159"/>
+      <c r="AW5" s="159"/>
+      <c r="AX5" s="159"/>
+      <c r="AY5" s="159"/>
+      <c r="AZ5" s="159"/>
     </row>
     <row r="6" spans="1:52">
-      <c r="A6" s="159"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="162"/>
-      <c r="T6" s="162"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="162"/>
-      <c r="W6" s="162"/>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="162"/>
-      <c r="Z6" s="162"/>
-      <c r="AA6" s="162"/>
-      <c r="AB6" s="162"/>
-      <c r="AC6" s="162"/>
-      <c r="AD6" s="162"/>
-      <c r="AE6" s="162"/>
-      <c r="AF6" s="162"/>
-      <c r="AG6" s="162"/>
-      <c r="AH6" s="162"/>
-      <c r="AI6" s="162"/>
-      <c r="AJ6" s="162"/>
-      <c r="AK6" s="162"/>
-      <c r="AL6" s="162"/>
-      <c r="AM6" s="162"/>
-      <c r="AN6" s="162"/>
-      <c r="AO6" s="162"/>
-      <c r="AP6" s="162"/>
-      <c r="AQ6" s="162"/>
-      <c r="AR6" s="162"/>
-      <c r="AS6" s="162"/>
-      <c r="AT6" s="162"/>
-      <c r="AU6" s="162"/>
-      <c r="AV6" s="162"/>
-      <c r="AW6" s="162"/>
-      <c r="AX6" s="162"/>
-      <c r="AY6" s="162"/>
-      <c r="AZ6" s="162"/>
+      <c r="A6" s="148"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="151"/>
+      <c r="O6" s="151"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="151"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="151"/>
+      <c r="T6" s="151"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="151"/>
+      <c r="X6" s="151"/>
+      <c r="Y6" s="151"/>
+      <c r="Z6" s="151"/>
+      <c r="AA6" s="151"/>
+      <c r="AB6" s="151"/>
+      <c r="AC6" s="151"/>
+      <c r="AD6" s="151"/>
+      <c r="AE6" s="151"/>
+      <c r="AF6" s="151"/>
+      <c r="AG6" s="151"/>
+      <c r="AH6" s="151"/>
+      <c r="AI6" s="151"/>
+      <c r="AJ6" s="151"/>
+      <c r="AK6" s="151"/>
+      <c r="AL6" s="151"/>
+      <c r="AM6" s="151"/>
+      <c r="AN6" s="151"/>
+      <c r="AO6" s="151"/>
+      <c r="AP6" s="151"/>
+      <c r="AQ6" s="151"/>
+      <c r="AR6" s="151"/>
+      <c r="AS6" s="151"/>
+      <c r="AT6" s="151"/>
+      <c r="AU6" s="151"/>
+      <c r="AV6" s="151"/>
+      <c r="AW6" s="151"/>
+      <c r="AX6" s="151"/>
+      <c r="AY6" s="151"/>
+      <c r="AZ6" s="151"/>
     </row>
     <row r="7" spans="1:52">
-      <c r="A7" s="159"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="162"/>
-      <c r="R7" s="162"/>
-      <c r="S7" s="162"/>
-      <c r="T7" s="162"/>
-      <c r="U7" s="162"/>
-      <c r="V7" s="162"/>
-      <c r="W7" s="162"/>
-      <c r="X7" s="162"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="162"/>
-      <c r="AB7" s="162"/>
-      <c r="AC7" s="162"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="162"/>
-      <c r="AF7" s="162"/>
-      <c r="AG7" s="162"/>
-      <c r="AH7" s="162"/>
-      <c r="AI7" s="162"/>
-      <c r="AJ7" s="162"/>
-      <c r="AK7" s="162"/>
-      <c r="AL7" s="162"/>
-      <c r="AM7" s="162"/>
-      <c r="AN7" s="162"/>
-      <c r="AO7" s="162"/>
-      <c r="AP7" s="162"/>
-      <c r="AQ7" s="162"/>
-      <c r="AR7" s="162"/>
-      <c r="AS7" s="162"/>
-      <c r="AT7" s="162"/>
-      <c r="AU7" s="162"/>
-      <c r="AV7" s="162"/>
-      <c r="AW7" s="162"/>
-      <c r="AX7" s="162"/>
-      <c r="AY7" s="162"/>
-      <c r="AZ7" s="162"/>
+      <c r="A7" s="148"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="151"/>
+      <c r="S7" s="151"/>
+      <c r="T7" s="151"/>
+      <c r="U7" s="151"/>
+      <c r="V7" s="151"/>
+      <c r="W7" s="151"/>
+      <c r="X7" s="151"/>
+      <c r="Y7" s="151"/>
+      <c r="Z7" s="151"/>
+      <c r="AA7" s="151"/>
+      <c r="AB7" s="151"/>
+      <c r="AC7" s="151"/>
+      <c r="AD7" s="151"/>
+      <c r="AE7" s="151"/>
+      <c r="AF7" s="151"/>
+      <c r="AG7" s="151"/>
+      <c r="AH7" s="151"/>
+      <c r="AI7" s="151"/>
+      <c r="AJ7" s="151"/>
+      <c r="AK7" s="151"/>
+      <c r="AL7" s="151"/>
+      <c r="AM7" s="151"/>
+      <c r="AN7" s="151"/>
+      <c r="AO7" s="151"/>
+      <c r="AP7" s="151"/>
+      <c r="AQ7" s="151"/>
+      <c r="AR7" s="151"/>
+      <c r="AS7" s="151"/>
+      <c r="AT7" s="151"/>
+      <c r="AU7" s="151"/>
+      <c r="AV7" s="151"/>
+      <c r="AW7" s="151"/>
+      <c r="AX7" s="151"/>
+      <c r="AY7" s="151"/>
+      <c r="AZ7" s="151"/>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="159"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="161"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="162"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="162"/>
-      <c r="U8" s="162"/>
-      <c r="V8" s="162"/>
-      <c r="W8" s="162"/>
-      <c r="X8" s="162"/>
-      <c r="Y8" s="162"/>
-      <c r="Z8" s="162"/>
-      <c r="AA8" s="162"/>
-      <c r="AB8" s="162"/>
-      <c r="AC8" s="162"/>
-      <c r="AD8" s="162"/>
-      <c r="AE8" s="162"/>
-      <c r="AF8" s="162"/>
-      <c r="AG8" s="162"/>
-      <c r="AH8" s="162"/>
-      <c r="AI8" s="162"/>
-      <c r="AJ8" s="162"/>
-      <c r="AK8" s="162"/>
-      <c r="AL8" s="162"/>
-      <c r="AM8" s="162"/>
-      <c r="AN8" s="162"/>
-      <c r="AO8" s="162"/>
-      <c r="AP8" s="162"/>
-      <c r="AQ8" s="162"/>
-      <c r="AR8" s="162"/>
-      <c r="AS8" s="162"/>
-      <c r="AT8" s="162"/>
-      <c r="AU8" s="162"/>
-      <c r="AV8" s="162"/>
-      <c r="AW8" s="162"/>
-      <c r="AX8" s="162"/>
-      <c r="AY8" s="162"/>
-      <c r="AZ8" s="162"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="151"/>
+      <c r="R8" s="151"/>
+      <c r="S8" s="151"/>
+      <c r="T8" s="151"/>
+      <c r="U8" s="151"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="151"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="151"/>
+      <c r="Z8" s="151"/>
+      <c r="AA8" s="151"/>
+      <c r="AB8" s="151"/>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="151"/>
+      <c r="AE8" s="151"/>
+      <c r="AF8" s="151"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="151"/>
+      <c r="AJ8" s="151"/>
+      <c r="AK8" s="151"/>
+      <c r="AL8" s="151"/>
+      <c r="AM8" s="151"/>
+      <c r="AN8" s="151"/>
+      <c r="AO8" s="151"/>
+      <c r="AP8" s="151"/>
+      <c r="AQ8" s="151"/>
+      <c r="AR8" s="151"/>
+      <c r="AS8" s="151"/>
+      <c r="AT8" s="151"/>
+      <c r="AU8" s="151"/>
+      <c r="AV8" s="151"/>
+      <c r="AW8" s="151"/>
+      <c r="AX8" s="151"/>
+      <c r="AY8" s="151"/>
+      <c r="AZ8" s="151"/>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="159"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="162"/>
-      <c r="AC9" s="162"/>
-      <c r="AD9" s="162"/>
-      <c r="AE9" s="162"/>
-      <c r="AF9" s="162"/>
-      <c r="AG9" s="162"/>
-      <c r="AH9" s="162"/>
-      <c r="AI9" s="162"/>
-      <c r="AJ9" s="162"/>
-      <c r="AK9" s="162"/>
-      <c r="AL9" s="162"/>
-      <c r="AM9" s="162"/>
-      <c r="AN9" s="162"/>
-      <c r="AO9" s="162"/>
-      <c r="AP9" s="162"/>
-      <c r="AQ9" s="162"/>
-      <c r="AR9" s="162"/>
-      <c r="AS9" s="162"/>
-      <c r="AT9" s="162"/>
-      <c r="AU9" s="162"/>
-      <c r="AV9" s="162"/>
-      <c r="AW9" s="162"/>
-      <c r="AX9" s="162"/>
-      <c r="AY9" s="162"/>
-      <c r="AZ9" s="162"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
+      <c r="M9" s="151"/>
+      <c r="N9" s="151"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
+      <c r="U9" s="151"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="151"/>
+      <c r="Y9" s="151"/>
+      <c r="Z9" s="151"/>
+      <c r="AA9" s="151"/>
+      <c r="AB9" s="151"/>
+      <c r="AC9" s="151"/>
+      <c r="AD9" s="151"/>
+      <c r="AE9" s="151"/>
+      <c r="AF9" s="151"/>
+      <c r="AG9" s="151"/>
+      <c r="AH9" s="151"/>
+      <c r="AI9" s="151"/>
+      <c r="AJ9" s="151"/>
+      <c r="AK9" s="151"/>
+      <c r="AL9" s="151"/>
+      <c r="AM9" s="151"/>
+      <c r="AN9" s="151"/>
+      <c r="AO9" s="151"/>
+      <c r="AP9" s="151"/>
+      <c r="AQ9" s="151"/>
+      <c r="AR9" s="151"/>
+      <c r="AS9" s="151"/>
+      <c r="AT9" s="151"/>
+      <c r="AU9" s="151"/>
+      <c r="AV9" s="151"/>
+      <c r="AW9" s="151"/>
+      <c r="AX9" s="151"/>
+      <c r="AY9" s="151"/>
+      <c r="AZ9" s="151"/>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="159"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-      <c r="AB10" s="162"/>
-      <c r="AC10" s="162"/>
-      <c r="AD10" s="162"/>
-      <c r="AE10" s="162"/>
-      <c r="AF10" s="162"/>
-      <c r="AG10" s="162"/>
-      <c r="AH10" s="162"/>
-      <c r="AI10" s="162"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="162"/>
-      <c r="AL10" s="162"/>
-      <c r="AM10" s="162"/>
-      <c r="AN10" s="162"/>
-      <c r="AO10" s="162"/>
-      <c r="AP10" s="162"/>
-      <c r="AQ10" s="162"/>
-      <c r="AR10" s="162"/>
-      <c r="AS10" s="162"/>
-      <c r="AT10" s="162"/>
-      <c r="AU10" s="162"/>
-      <c r="AV10" s="162"/>
-      <c r="AW10" s="162"/>
-      <c r="AX10" s="162"/>
-      <c r="AY10" s="162"/>
-      <c r="AZ10" s="162"/>
+      <c r="A10" s="148"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="151"/>
+      <c r="T10" s="151"/>
+      <c r="U10" s="151"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="151"/>
+      <c r="Z10" s="151"/>
+      <c r="AA10" s="151"/>
+      <c r="AB10" s="151"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="151"/>
+      <c r="AE10" s="151"/>
+      <c r="AF10" s="151"/>
+      <c r="AG10" s="151"/>
+      <c r="AH10" s="151"/>
+      <c r="AI10" s="151"/>
+      <c r="AJ10" s="151"/>
+      <c r="AK10" s="151"/>
+      <c r="AL10" s="151"/>
+      <c r="AM10" s="151"/>
+      <c r="AN10" s="151"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="151"/>
+      <c r="AQ10" s="151"/>
+      <c r="AR10" s="151"/>
+      <c r="AS10" s="151"/>
+      <c r="AT10" s="151"/>
+      <c r="AU10" s="151"/>
+      <c r="AV10" s="151"/>
+      <c r="AW10" s="151"/>
+      <c r="AX10" s="151"/>
+      <c r="AY10" s="151"/>
+      <c r="AZ10" s="151"/>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="159"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-      <c r="AB11" s="162"/>
-      <c r="AC11" s="162"/>
-      <c r="AD11" s="162"/>
-      <c r="AE11" s="162"/>
-      <c r="AF11" s="162"/>
-      <c r="AG11" s="162"/>
-      <c r="AH11" s="162"/>
-      <c r="AI11" s="162"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="162"/>
-      <c r="AL11" s="162"/>
-      <c r="AM11" s="162"/>
-      <c r="AN11" s="162"/>
-      <c r="AO11" s="162"/>
-      <c r="AP11" s="162"/>
-      <c r="AQ11" s="162"/>
-      <c r="AR11" s="162"/>
-      <c r="AS11" s="162"/>
-      <c r="AT11" s="162"/>
-      <c r="AU11" s="162"/>
-      <c r="AV11" s="162"/>
-      <c r="AW11" s="162"/>
-      <c r="AX11" s="162"/>
-      <c r="AY11" s="162"/>
-      <c r="AZ11" s="162"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="151"/>
+      <c r="O11" s="151"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="151"/>
+      <c r="T11" s="151"/>
+      <c r="U11" s="151"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="151"/>
+      <c r="Z11" s="151"/>
+      <c r="AA11" s="151"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="151"/>
+      <c r="AE11" s="151"/>
+      <c r="AF11" s="151"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="151"/>
+      <c r="AJ11" s="151"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="151"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="151"/>
+      <c r="AO11" s="151"/>
+      <c r="AP11" s="151"/>
+      <c r="AQ11" s="151"/>
+      <c r="AR11" s="151"/>
+      <c r="AS11" s="151"/>
+      <c r="AT11" s="151"/>
+      <c r="AU11" s="151"/>
+      <c r="AV11" s="151"/>
+      <c r="AW11" s="151"/>
+      <c r="AX11" s="151"/>
+      <c r="AY11" s="151"/>
+      <c r="AZ11" s="151"/>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="159"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="161"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-      <c r="AB12" s="162"/>
-      <c r="AC12" s="162"/>
-      <c r="AD12" s="162"/>
-      <c r="AE12" s="162"/>
-      <c r="AF12" s="162"/>
-      <c r="AG12" s="162"/>
-      <c r="AH12" s="162"/>
-      <c r="AI12" s="162"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="162"/>
-      <c r="AL12" s="162"/>
-      <c r="AM12" s="162"/>
-      <c r="AN12" s="162"/>
-      <c r="AO12" s="162"/>
-      <c r="AP12" s="162"/>
-      <c r="AQ12" s="162"/>
-      <c r="AR12" s="162"/>
-      <c r="AS12" s="162"/>
-      <c r="AT12" s="162"/>
-      <c r="AU12" s="162"/>
-      <c r="AV12" s="162"/>
-      <c r="AW12" s="162"/>
-      <c r="AX12" s="162"/>
-      <c r="AY12" s="162"/>
-      <c r="AZ12" s="162"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="151"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="151"/>
+      <c r="AJ12" s="151"/>
+      <c r="AK12" s="151"/>
+      <c r="AL12" s="151"/>
+      <c r="AM12" s="151"/>
+      <c r="AN12" s="151"/>
+      <c r="AO12" s="151"/>
+      <c r="AP12" s="151"/>
+      <c r="AQ12" s="151"/>
+      <c r="AR12" s="151"/>
+      <c r="AS12" s="151"/>
+      <c r="AT12" s="151"/>
+      <c r="AU12" s="151"/>
+      <c r="AV12" s="151"/>
+      <c r="AW12" s="151"/>
+      <c r="AX12" s="151"/>
+      <c r="AY12" s="151"/>
+      <c r="AZ12" s="151"/>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="159"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="162"/>
-      <c r="AD13" s="162"/>
-      <c r="AE13" s="162"/>
-      <c r="AF13" s="162"/>
-      <c r="AG13" s="162"/>
-      <c r="AH13" s="162"/>
-      <c r="AI13" s="162"/>
-      <c r="AJ13" s="162"/>
-      <c r="AK13" s="162"/>
-      <c r="AL13" s="162"/>
-      <c r="AM13" s="162"/>
-      <c r="AN13" s="162"/>
-      <c r="AO13" s="162"/>
-      <c r="AP13" s="162"/>
-      <c r="AQ13" s="162"/>
-      <c r="AR13" s="162"/>
-      <c r="AS13" s="162"/>
-      <c r="AT13" s="162"/>
-      <c r="AU13" s="162"/>
-      <c r="AV13" s="162"/>
-      <c r="AW13" s="162"/>
-      <c r="AX13" s="162"/>
-      <c r="AY13" s="162"/>
-      <c r="AZ13" s="162"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
+      <c r="N13" s="151"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
+      <c r="U13" s="151"/>
+      <c r="V13" s="151"/>
+      <c r="W13" s="151"/>
+      <c r="X13" s="151"/>
+      <c r="Y13" s="151"/>
+      <c r="Z13" s="151"/>
+      <c r="AA13" s="151"/>
+      <c r="AB13" s="151"/>
+      <c r="AC13" s="151"/>
+      <c r="AD13" s="151"/>
+      <c r="AE13" s="151"/>
+      <c r="AF13" s="151"/>
+      <c r="AG13" s="151"/>
+      <c r="AH13" s="151"/>
+      <c r="AI13" s="151"/>
+      <c r="AJ13" s="151"/>
+      <c r="AK13" s="151"/>
+      <c r="AL13" s="151"/>
+      <c r="AM13" s="151"/>
+      <c r="AN13" s="151"/>
+      <c r="AO13" s="151"/>
+      <c r="AP13" s="151"/>
+      <c r="AQ13" s="151"/>
+      <c r="AR13" s="151"/>
+      <c r="AS13" s="151"/>
+      <c r="AT13" s="151"/>
+      <c r="AU13" s="151"/>
+      <c r="AV13" s="151"/>
+      <c r="AW13" s="151"/>
+      <c r="AX13" s="151"/>
+      <c r="AY13" s="151"/>
+      <c r="AZ13" s="151"/>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="159"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
-      <c r="U14" s="162"/>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-      <c r="AB14" s="162"/>
-      <c r="AC14" s="162"/>
-      <c r="AD14" s="162"/>
-      <c r="AE14" s="162"/>
-      <c r="AF14" s="162"/>
-      <c r="AG14" s="162"/>
-      <c r="AH14" s="162"/>
-      <c r="AI14" s="162"/>
-      <c r="AJ14" s="162"/>
-      <c r="AK14" s="162"/>
-      <c r="AL14" s="162"/>
-      <c r="AM14" s="162"/>
-      <c r="AN14" s="162"/>
-      <c r="AO14" s="162"/>
-      <c r="AP14" s="162"/>
-      <c r="AQ14" s="162"/>
-      <c r="AR14" s="162"/>
-      <c r="AS14" s="162"/>
-      <c r="AT14" s="162"/>
-      <c r="AU14" s="162"/>
-      <c r="AV14" s="162"/>
-      <c r="AW14" s="162"/>
-      <c r="AX14" s="162"/>
-      <c r="AY14" s="162"/>
-      <c r="AZ14" s="162"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
+      <c r="X14" s="151"/>
+      <c r="Y14" s="151"/>
+      <c r="Z14" s="151"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="151"/>
+      <c r="AE14" s="151"/>
+      <c r="AF14" s="151"/>
+      <c r="AG14" s="151"/>
+      <c r="AH14" s="151"/>
+      <c r="AI14" s="151"/>
+      <c r="AJ14" s="151"/>
+      <c r="AK14" s="151"/>
+      <c r="AL14" s="151"/>
+      <c r="AM14" s="151"/>
+      <c r="AN14" s="151"/>
+      <c r="AO14" s="151"/>
+      <c r="AP14" s="151"/>
+      <c r="AQ14" s="151"/>
+      <c r="AR14" s="151"/>
+      <c r="AS14" s="151"/>
+      <c r="AT14" s="151"/>
+      <c r="AU14" s="151"/>
+      <c r="AV14" s="151"/>
+      <c r="AW14" s="151"/>
+      <c r="AX14" s="151"/>
+      <c r="AY14" s="151"/>
+      <c r="AZ14" s="151"/>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="159"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="162"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-      <c r="AB15" s="162"/>
-      <c r="AC15" s="162"/>
-      <c r="AD15" s="162"/>
-      <c r="AE15" s="162"/>
-      <c r="AF15" s="162"/>
-      <c r="AG15" s="162"/>
-      <c r="AH15" s="162"/>
-      <c r="AI15" s="162"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="162"/>
-      <c r="AL15" s="162"/>
-      <c r="AM15" s="162"/>
-      <c r="AN15" s="162"/>
-      <c r="AO15" s="162"/>
-      <c r="AP15" s="162"/>
-      <c r="AQ15" s="162"/>
-      <c r="AR15" s="162"/>
-      <c r="AS15" s="162"/>
-      <c r="AT15" s="162"/>
-      <c r="AU15" s="162"/>
-      <c r="AV15" s="162"/>
-      <c r="AW15" s="162"/>
-      <c r="AX15" s="162"/>
-      <c r="AY15" s="162"/>
-      <c r="AZ15" s="162"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="151"/>
+      <c r="S15" s="151"/>
+      <c r="T15" s="151"/>
+      <c r="U15" s="151"/>
+      <c r="V15" s="151"/>
+      <c r="W15" s="151"/>
+      <c r="X15" s="151"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="151"/>
+      <c r="AA15" s="151"/>
+      <c r="AB15" s="151"/>
+      <c r="AC15" s="151"/>
+      <c r="AD15" s="151"/>
+      <c r="AE15" s="151"/>
+      <c r="AF15" s="151"/>
+      <c r="AG15" s="151"/>
+      <c r="AH15" s="151"/>
+      <c r="AI15" s="151"/>
+      <c r="AJ15" s="151"/>
+      <c r="AK15" s="151"/>
+      <c r="AL15" s="151"/>
+      <c r="AM15" s="151"/>
+      <c r="AN15" s="151"/>
+      <c r="AO15" s="151"/>
+      <c r="AP15" s="151"/>
+      <c r="AQ15" s="151"/>
+      <c r="AR15" s="151"/>
+      <c r="AS15" s="151"/>
+      <c r="AT15" s="151"/>
+      <c r="AU15" s="151"/>
+      <c r="AV15" s="151"/>
+      <c r="AW15" s="151"/>
+      <c r="AX15" s="151"/>
+      <c r="AY15" s="151"/>
+      <c r="AZ15" s="151"/>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="159"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-      <c r="AB16" s="162"/>
-      <c r="AC16" s="162"/>
-      <c r="AD16" s="162"/>
-      <c r="AE16" s="162"/>
-      <c r="AF16" s="162"/>
-      <c r="AG16" s="162"/>
-      <c r="AH16" s="162"/>
-      <c r="AI16" s="162"/>
-      <c r="AJ16" s="162"/>
-      <c r="AK16" s="162"/>
-      <c r="AL16" s="162"/>
-      <c r="AM16" s="162"/>
-      <c r="AN16" s="162"/>
-      <c r="AO16" s="162"/>
-      <c r="AP16" s="162"/>
-      <c r="AQ16" s="162"/>
-      <c r="AR16" s="162"/>
-      <c r="AS16" s="162"/>
-      <c r="AT16" s="162"/>
-      <c r="AU16" s="162"/>
-      <c r="AV16" s="162"/>
-      <c r="AW16" s="162"/>
-      <c r="AX16" s="162"/>
-      <c r="AY16" s="162"/>
-      <c r="AZ16" s="162"/>
+      <c r="A16" s="148"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="151"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="151"/>
+      <c r="T16" s="151"/>
+      <c r="U16" s="151"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="151"/>
+      <c r="X16" s="151"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="151"/>
+      <c r="AB16" s="151"/>
+      <c r="AC16" s="151"/>
+      <c r="AD16" s="151"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="151"/>
+      <c r="AG16" s="151"/>
+      <c r="AH16" s="151"/>
+      <c r="AI16" s="151"/>
+      <c r="AJ16" s="151"/>
+      <c r="AK16" s="151"/>
+      <c r="AL16" s="151"/>
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="151"/>
+      <c r="AR16" s="151"/>
+      <c r="AS16" s="151"/>
+      <c r="AT16" s="151"/>
+      <c r="AU16" s="151"/>
+      <c r="AV16" s="151"/>
+      <c r="AW16" s="151"/>
+      <c r="AX16" s="151"/>
+      <c r="AY16" s="151"/>
+      <c r="AZ16" s="151"/>
     </row>
     <row r="17" spans="1:52">
-      <c r="A17" s="159"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="162"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
-      <c r="U17" s="162"/>
-      <c r="V17" s="162"/>
-      <c r="W17" s="162"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="162"/>
-      <c r="Z17" s="162"/>
-      <c r="AA17" s="162"/>
-      <c r="AB17" s="162"/>
-      <c r="AC17" s="162"/>
-      <c r="AD17" s="162"/>
-      <c r="AE17" s="162"/>
-      <c r="AF17" s="162"/>
-      <c r="AG17" s="162"/>
-      <c r="AH17" s="162"/>
-      <c r="AI17" s="162"/>
-      <c r="AJ17" s="162"/>
-      <c r="AK17" s="162"/>
-      <c r="AL17" s="162"/>
-      <c r="AM17" s="162"/>
-      <c r="AN17" s="162"/>
-      <c r="AO17" s="162"/>
-      <c r="AP17" s="162"/>
-      <c r="AQ17" s="162"/>
-      <c r="AR17" s="162"/>
-      <c r="AS17" s="162"/>
-      <c r="AT17" s="162"/>
-      <c r="AU17" s="162"/>
-      <c r="AV17" s="162"/>
-      <c r="AW17" s="162"/>
-      <c r="AX17" s="162"/>
-      <c r="AY17" s="162"/>
-      <c r="AZ17" s="162"/>
+      <c r="A17" s="148"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="151"/>
+      <c r="U17" s="151"/>
+      <c r="V17" s="151"/>
+      <c r="W17" s="151"/>
+      <c r="X17" s="151"/>
+      <c r="Y17" s="151"/>
+      <c r="Z17" s="151"/>
+      <c r="AA17" s="151"/>
+      <c r="AB17" s="151"/>
+      <c r="AC17" s="151"/>
+      <c r="AD17" s="151"/>
+      <c r="AE17" s="151"/>
+      <c r="AF17" s="151"/>
+      <c r="AG17" s="151"/>
+      <c r="AH17" s="151"/>
+      <c r="AI17" s="151"/>
+      <c r="AJ17" s="151"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="151"/>
+      <c r="AM17" s="151"/>
+      <c r="AN17" s="151"/>
+      <c r="AO17" s="151"/>
+      <c r="AP17" s="151"/>
+      <c r="AQ17" s="151"/>
+      <c r="AR17" s="151"/>
+      <c r="AS17" s="151"/>
+      <c r="AT17" s="151"/>
+      <c r="AU17" s="151"/>
+      <c r="AV17" s="151"/>
+      <c r="AW17" s="151"/>
+      <c r="AX17" s="151"/>
+      <c r="AY17" s="151"/>
+      <c r="AZ17" s="151"/>
     </row>
     <row r="18" spans="1:52">
-      <c r="A18" s="159"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="160"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-      <c r="AB18" s="162"/>
-      <c r="AC18" s="162"/>
-      <c r="AD18" s="162"/>
-      <c r="AE18" s="162"/>
-      <c r="AF18" s="162"/>
-      <c r="AG18" s="162"/>
-      <c r="AH18" s="162"/>
-      <c r="AI18" s="162"/>
-      <c r="AJ18" s="162"/>
-      <c r="AK18" s="162"/>
-      <c r="AL18" s="162"/>
-      <c r="AM18" s="162"/>
-      <c r="AN18" s="162"/>
-      <c r="AO18" s="162"/>
-      <c r="AP18" s="162"/>
-      <c r="AQ18" s="162"/>
-      <c r="AR18" s="162"/>
-      <c r="AS18" s="162"/>
-      <c r="AT18" s="162"/>
-      <c r="AU18" s="162"/>
-      <c r="AV18" s="162"/>
-      <c r="AW18" s="162"/>
-      <c r="AX18" s="162"/>
-      <c r="AY18" s="162"/>
-      <c r="AZ18" s="162"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="151"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="151"/>
+      <c r="T18" s="151"/>
+      <c r="U18" s="151"/>
+      <c r="V18" s="151"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="151"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="151"/>
+      <c r="AB18" s="151"/>
+      <c r="AC18" s="151"/>
+      <c r="AD18" s="151"/>
+      <c r="AE18" s="151"/>
+      <c r="AF18" s="151"/>
+      <c r="AG18" s="151"/>
+      <c r="AH18" s="151"/>
+      <c r="AI18" s="151"/>
+      <c r="AJ18" s="151"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="151"/>
+      <c r="AM18" s="151"/>
+      <c r="AN18" s="151"/>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="151"/>
+      <c r="AQ18" s="151"/>
+      <c r="AR18" s="151"/>
+      <c r="AS18" s="151"/>
+      <c r="AT18" s="151"/>
+      <c r="AU18" s="151"/>
+      <c r="AV18" s="151"/>
+      <c r="AW18" s="151"/>
+      <c r="AX18" s="151"/>
+      <c r="AY18" s="151"/>
+      <c r="AZ18" s="151"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="159"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-      <c r="AB19" s="162"/>
-      <c r="AC19" s="162"/>
-      <c r="AD19" s="162"/>
-      <c r="AE19" s="162"/>
-      <c r="AF19" s="162"/>
-      <c r="AG19" s="162"/>
-      <c r="AH19" s="162"/>
-      <c r="AI19" s="162"/>
-      <c r="AJ19" s="162"/>
-      <c r="AK19" s="162"/>
-      <c r="AL19" s="162"/>
-      <c r="AM19" s="162"/>
-      <c r="AN19" s="162"/>
-      <c r="AO19" s="162"/>
-      <c r="AP19" s="162"/>
-      <c r="AQ19" s="162"/>
-      <c r="AR19" s="162"/>
-      <c r="AS19" s="162"/>
-      <c r="AT19" s="162"/>
-      <c r="AU19" s="162"/>
-      <c r="AV19" s="162"/>
-      <c r="AW19" s="162"/>
-      <c r="AX19" s="162"/>
-      <c r="AY19" s="162"/>
-      <c r="AZ19" s="162"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="151"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="151"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="151"/>
+      <c r="T19" s="151"/>
+      <c r="U19" s="151"/>
+      <c r="V19" s="151"/>
+      <c r="W19" s="151"/>
+      <c r="X19" s="151"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="151"/>
+      <c r="AB19" s="151"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="151"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="151"/>
+      <c r="AH19" s="151"/>
+      <c r="AI19" s="151"/>
+      <c r="AJ19" s="151"/>
+      <c r="AK19" s="151"/>
+      <c r="AL19" s="151"/>
+      <c r="AM19" s="151"/>
+      <c r="AN19" s="151"/>
+      <c r="AO19" s="151"/>
+      <c r="AP19" s="151"/>
+      <c r="AQ19" s="151"/>
+      <c r="AR19" s="151"/>
+      <c r="AS19" s="151"/>
+      <c r="AT19" s="151"/>
+      <c r="AU19" s="151"/>
+      <c r="AV19" s="151"/>
+      <c r="AW19" s="151"/>
+      <c r="AX19" s="151"/>
+      <c r="AY19" s="151"/>
+      <c r="AZ19" s="151"/>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="159"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="162"/>
-      <c r="U20" s="162"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-      <c r="AB20" s="162"/>
-      <c r="AC20" s="162"/>
-      <c r="AD20" s="162"/>
-      <c r="AE20" s="162"/>
-      <c r="AF20" s="162"/>
-      <c r="AG20" s="162"/>
-      <c r="AH20" s="162"/>
-      <c r="AI20" s="162"/>
-      <c r="AJ20" s="162"/>
-      <c r="AK20" s="162"/>
-      <c r="AL20" s="162"/>
-      <c r="AM20" s="162"/>
-      <c r="AN20" s="162"/>
-      <c r="AO20" s="162"/>
-      <c r="AP20" s="162"/>
-      <c r="AQ20" s="162"/>
-      <c r="AR20" s="162"/>
-      <c r="AS20" s="162"/>
-      <c r="AT20" s="162"/>
-      <c r="AU20" s="162"/>
-      <c r="AV20" s="162"/>
-      <c r="AW20" s="162"/>
-      <c r="AX20" s="162"/>
-      <c r="AY20" s="162"/>
-      <c r="AZ20" s="162"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="151"/>
+      <c r="P20" s="151"/>
+      <c r="Q20" s="151"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="151"/>
+      <c r="T20" s="151"/>
+      <c r="U20" s="151"/>
+      <c r="V20" s="151"/>
+      <c r="W20" s="151"/>
+      <c r="X20" s="151"/>
+      <c r="Y20" s="151"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="151"/>
+      <c r="AB20" s="151"/>
+      <c r="AC20" s="151"/>
+      <c r="AD20" s="151"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="151"/>
+      <c r="AJ20" s="151"/>
+      <c r="AK20" s="151"/>
+      <c r="AL20" s="151"/>
+      <c r="AM20" s="151"/>
+      <c r="AN20" s="151"/>
+      <c r="AO20" s="151"/>
+      <c r="AP20" s="151"/>
+      <c r="AQ20" s="151"/>
+      <c r="AR20" s="151"/>
+      <c r="AS20" s="151"/>
+      <c r="AT20" s="151"/>
+      <c r="AU20" s="151"/>
+      <c r="AV20" s="151"/>
+      <c r="AW20" s="151"/>
+      <c r="AX20" s="151"/>
+      <c r="AY20" s="151"/>
+      <c r="AZ20" s="151"/>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="159"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="162"/>
-      <c r="T21" s="162"/>
-      <c r="U21" s="162"/>
-      <c r="V21" s="162"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
-      <c r="Y21" s="162"/>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="162"/>
-      <c r="AB21" s="162"/>
-      <c r="AC21" s="162"/>
-      <c r="AD21" s="162"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="162"/>
-      <c r="AG21" s="162"/>
-      <c r="AH21" s="162"/>
-      <c r="AI21" s="162"/>
-      <c r="AJ21" s="162"/>
-      <c r="AK21" s="162"/>
-      <c r="AL21" s="162"/>
-      <c r="AM21" s="162"/>
-      <c r="AN21" s="162"/>
-      <c r="AO21" s="162"/>
-      <c r="AP21" s="162"/>
-      <c r="AQ21" s="162"/>
-      <c r="AR21" s="162"/>
-      <c r="AS21" s="162"/>
-      <c r="AT21" s="162"/>
-      <c r="AU21" s="162"/>
-      <c r="AV21" s="162"/>
-      <c r="AW21" s="162"/>
-      <c r="AX21" s="162"/>
-      <c r="AY21" s="162"/>
-      <c r="AZ21" s="162"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="151"/>
+      <c r="V21" s="151"/>
+      <c r="W21" s="151"/>
+      <c r="X21" s="151"/>
+      <c r="Y21" s="151"/>
+      <c r="Z21" s="151"/>
+      <c r="AA21" s="151"/>
+      <c r="AB21" s="151"/>
+      <c r="AC21" s="151"/>
+      <c r="AD21" s="151"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="151"/>
+      <c r="AG21" s="151"/>
+      <c r="AH21" s="151"/>
+      <c r="AI21" s="151"/>
+      <c r="AJ21" s="151"/>
+      <c r="AK21" s="151"/>
+      <c r="AL21" s="151"/>
+      <c r="AM21" s="151"/>
+      <c r="AN21" s="151"/>
+      <c r="AO21" s="151"/>
+      <c r="AP21" s="151"/>
+      <c r="AQ21" s="151"/>
+      <c r="AR21" s="151"/>
+      <c r="AS21" s="151"/>
+      <c r="AT21" s="151"/>
+      <c r="AU21" s="151"/>
+      <c r="AV21" s="151"/>
+      <c r="AW21" s="151"/>
+      <c r="AX21" s="151"/>
+      <c r="AY21" s="151"/>
+      <c r="AZ21" s="151"/>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="159"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="162"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="162"/>
-      <c r="AB22" s="162"/>
-      <c r="AC22" s="162"/>
-      <c r="AD22" s="162"/>
-      <c r="AE22" s="162"/>
-      <c r="AF22" s="162"/>
-      <c r="AG22" s="162"/>
-      <c r="AH22" s="162"/>
-      <c r="AI22" s="162"/>
-      <c r="AJ22" s="162"/>
-      <c r="AK22" s="162"/>
-      <c r="AL22" s="162"/>
-      <c r="AM22" s="162"/>
-      <c r="AN22" s="162"/>
-      <c r="AO22" s="162"/>
-      <c r="AP22" s="162"/>
-      <c r="AQ22" s="162"/>
-      <c r="AR22" s="162"/>
-      <c r="AS22" s="162"/>
-      <c r="AT22" s="162"/>
-      <c r="AU22" s="162"/>
-      <c r="AV22" s="162"/>
-      <c r="AW22" s="162"/>
-      <c r="AX22" s="162"/>
-      <c r="AY22" s="162"/>
-      <c r="AZ22" s="162"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="151"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="151"/>
+      <c r="AB22" s="151"/>
+      <c r="AC22" s="151"/>
+      <c r="AD22" s="151"/>
+      <c r="AE22" s="151"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="151"/>
+      <c r="AJ22" s="151"/>
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="151"/>
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="151"/>
+      <c r="AS22" s="151"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="151"/>
+      <c r="AV22" s="151"/>
+      <c r="AW22" s="151"/>
+      <c r="AX22" s="151"/>
+      <c r="AY22" s="151"/>
+      <c r="AZ22" s="151"/>
     </row>
     <row r="23" spans="1:52">
-      <c r="A23" s="159"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="162"/>
-      <c r="T23" s="162"/>
-      <c r="U23" s="162"/>
-      <c r="V23" s="162"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
-      <c r="AB23" s="162"/>
-      <c r="AC23" s="162"/>
-      <c r="AD23" s="162"/>
-      <c r="AE23" s="162"/>
-      <c r="AF23" s="162"/>
-      <c r="AG23" s="162"/>
-      <c r="AH23" s="162"/>
-      <c r="AI23" s="162"/>
-      <c r="AJ23" s="162"/>
-      <c r="AK23" s="162"/>
-      <c r="AL23" s="162"/>
-      <c r="AM23" s="162"/>
-      <c r="AN23" s="162"/>
-      <c r="AO23" s="162"/>
-      <c r="AP23" s="162"/>
-      <c r="AQ23" s="162"/>
-      <c r="AR23" s="162"/>
-      <c r="AS23" s="162"/>
-      <c r="AT23" s="162"/>
-      <c r="AU23" s="162"/>
-      <c r="AV23" s="162"/>
-      <c r="AW23" s="162"/>
-      <c r="AX23" s="162"/>
-      <c r="AY23" s="162"/>
-      <c r="AZ23" s="162"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="151"/>
+      <c r="V23" s="151"/>
+      <c r="W23" s="151"/>
+      <c r="X23" s="151"/>
+      <c r="Y23" s="151"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="151"/>
+      <c r="AB23" s="151"/>
+      <c r="AC23" s="151"/>
+      <c r="AD23" s="151"/>
+      <c r="AE23" s="151"/>
+      <c r="AF23" s="151"/>
+      <c r="AG23" s="151"/>
+      <c r="AH23" s="151"/>
+      <c r="AI23" s="151"/>
+      <c r="AJ23" s="151"/>
+      <c r="AK23" s="151"/>
+      <c r="AL23" s="151"/>
+      <c r="AM23" s="151"/>
+      <c r="AN23" s="151"/>
+      <c r="AO23" s="151"/>
+      <c r="AP23" s="151"/>
+      <c r="AQ23" s="151"/>
+      <c r="AR23" s="151"/>
+      <c r="AS23" s="151"/>
+      <c r="AT23" s="151"/>
+      <c r="AU23" s="151"/>
+      <c r="AV23" s="151"/>
+      <c r="AW23" s="151"/>
+      <c r="AX23" s="151"/>
+      <c r="AY23" s="151"/>
+      <c r="AZ23" s="151"/>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="159"/>
-      <c r="B24" s="159"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="162"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="162"/>
-      <c r="S24" s="162"/>
-      <c r="T24" s="162"/>
-      <c r="U24" s="162"/>
-      <c r="V24" s="162"/>
-      <c r="W24" s="162"/>
-      <c r="X24" s="162"/>
-      <c r="Y24" s="162"/>
-      <c r="Z24" s="162"/>
-      <c r="AA24" s="162"/>
-      <c r="AB24" s="162"/>
-      <c r="AC24" s="162"/>
-      <c r="AD24" s="162"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="162"/>
-      <c r="AG24" s="162"/>
-      <c r="AH24" s="162"/>
-      <c r="AI24" s="162"/>
-      <c r="AJ24" s="162"/>
-      <c r="AK24" s="162"/>
-      <c r="AL24" s="162"/>
-      <c r="AM24" s="162"/>
-      <c r="AN24" s="162"/>
-      <c r="AO24" s="162"/>
-      <c r="AP24" s="162"/>
-      <c r="AQ24" s="162"/>
-      <c r="AR24" s="162"/>
-      <c r="AS24" s="162"/>
-      <c r="AT24" s="162"/>
-      <c r="AU24" s="162"/>
-      <c r="AV24" s="162"/>
-      <c r="AW24" s="162"/>
-      <c r="AX24" s="162"/>
-      <c r="AY24" s="162"/>
-      <c r="AZ24" s="162"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="151"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="151"/>
+      <c r="V24" s="151"/>
+      <c r="W24" s="151"/>
+      <c r="X24" s="151"/>
+      <c r="Y24" s="151"/>
+      <c r="Z24" s="151"/>
+      <c r="AA24" s="151"/>
+      <c r="AB24" s="151"/>
+      <c r="AC24" s="151"/>
+      <c r="AD24" s="151"/>
+      <c r="AE24" s="151"/>
+      <c r="AF24" s="151"/>
+      <c r="AG24" s="151"/>
+      <c r="AH24" s="151"/>
+      <c r="AI24" s="151"/>
+      <c r="AJ24" s="151"/>
+      <c r="AK24" s="151"/>
+      <c r="AL24" s="151"/>
+      <c r="AM24" s="151"/>
+      <c r="AN24" s="151"/>
+      <c r="AO24" s="151"/>
+      <c r="AP24" s="151"/>
+      <c r="AQ24" s="151"/>
+      <c r="AR24" s="151"/>
+      <c r="AS24" s="151"/>
+      <c r="AT24" s="151"/>
+      <c r="AU24" s="151"/>
+      <c r="AV24" s="151"/>
+      <c r="AW24" s="151"/>
+      <c r="AX24" s="151"/>
+      <c r="AY24" s="151"/>
+      <c r="AZ24" s="151"/>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="159"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="162"/>
-      <c r="S25" s="162"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="162"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="162"/>
-      <c r="X25" s="162"/>
-      <c r="Y25" s="162"/>
-      <c r="Z25" s="162"/>
-      <c r="AA25" s="162"/>
-      <c r="AB25" s="162"/>
-      <c r="AC25" s="162"/>
-      <c r="AD25" s="162"/>
-      <c r="AE25" s="162"/>
-      <c r="AF25" s="162"/>
-      <c r="AG25" s="162"/>
-      <c r="AH25" s="162"/>
-      <c r="AI25" s="162"/>
-      <c r="AJ25" s="162"/>
-      <c r="AK25" s="162"/>
-      <c r="AL25" s="162"/>
-      <c r="AM25" s="162"/>
-      <c r="AN25" s="162"/>
-      <c r="AO25" s="162"/>
-      <c r="AP25" s="162"/>
-      <c r="AQ25" s="162"/>
-      <c r="AR25" s="162"/>
-      <c r="AS25" s="162"/>
-      <c r="AT25" s="162"/>
-      <c r="AU25" s="162"/>
-      <c r="AV25" s="162"/>
-      <c r="AW25" s="162"/>
-      <c r="AX25" s="162"/>
-      <c r="AY25" s="162"/>
-      <c r="AZ25" s="162"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="151"/>
+      <c r="R25" s="151"/>
+      <c r="S25" s="151"/>
+      <c r="T25" s="151"/>
+      <c r="U25" s="151"/>
+      <c r="V25" s="151"/>
+      <c r="W25" s="151"/>
+      <c r="X25" s="151"/>
+      <c r="Y25" s="151"/>
+      <c r="Z25" s="151"/>
+      <c r="AA25" s="151"/>
+      <c r="AB25" s="151"/>
+      <c r="AC25" s="151"/>
+      <c r="AD25" s="151"/>
+      <c r="AE25" s="151"/>
+      <c r="AF25" s="151"/>
+      <c r="AG25" s="151"/>
+      <c r="AH25" s="151"/>
+      <c r="AI25" s="151"/>
+      <c r="AJ25" s="151"/>
+      <c r="AK25" s="151"/>
+      <c r="AL25" s="151"/>
+      <c r="AM25" s="151"/>
+      <c r="AN25" s="151"/>
+      <c r="AO25" s="151"/>
+      <c r="AP25" s="151"/>
+      <c r="AQ25" s="151"/>
+      <c r="AR25" s="151"/>
+      <c r="AS25" s="151"/>
+      <c r="AT25" s="151"/>
+      <c r="AU25" s="151"/>
+      <c r="AV25" s="151"/>
+      <c r="AW25" s="151"/>
+      <c r="AX25" s="151"/>
+      <c r="AY25" s="151"/>
+      <c r="AZ25" s="151"/>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="159"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="162"/>
-      <c r="T26" s="162"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="162"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="162"/>
-      <c r="AB26" s="162"/>
-      <c r="AC26" s="162"/>
-      <c r="AD26" s="162"/>
-      <c r="AE26" s="162"/>
-      <c r="AF26" s="162"/>
-      <c r="AG26" s="162"/>
-      <c r="AH26" s="162"/>
-      <c r="AI26" s="162"/>
-      <c r="AJ26" s="162"/>
-      <c r="AK26" s="162"/>
-      <c r="AL26" s="162"/>
-      <c r="AM26" s="162"/>
-      <c r="AN26" s="162"/>
-      <c r="AO26" s="162"/>
-      <c r="AP26" s="162"/>
-      <c r="AQ26" s="162"/>
-      <c r="AR26" s="162"/>
-      <c r="AS26" s="162"/>
-      <c r="AT26" s="162"/>
-      <c r="AU26" s="162"/>
-      <c r="AV26" s="162"/>
-      <c r="AW26" s="162"/>
-      <c r="AX26" s="162"/>
-      <c r="AY26" s="162"/>
-      <c r="AZ26" s="162"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
+      <c r="N26" s="151"/>
+      <c r="O26" s="151"/>
+      <c r="P26" s="151"/>
+      <c r="Q26" s="151"/>
+      <c r="R26" s="151"/>
+      <c r="S26" s="151"/>
+      <c r="T26" s="151"/>
+      <c r="U26" s="151"/>
+      <c r="V26" s="151"/>
+      <c r="W26" s="151"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="151"/>
+      <c r="Z26" s="151"/>
+      <c r="AA26" s="151"/>
+      <c r="AB26" s="151"/>
+      <c r="AC26" s="151"/>
+      <c r="AD26" s="151"/>
+      <c r="AE26" s="151"/>
+      <c r="AF26" s="151"/>
+      <c r="AG26" s="151"/>
+      <c r="AH26" s="151"/>
+      <c r="AI26" s="151"/>
+      <c r="AJ26" s="151"/>
+      <c r="AK26" s="151"/>
+      <c r="AL26" s="151"/>
+      <c r="AM26" s="151"/>
+      <c r="AN26" s="151"/>
+      <c r="AO26" s="151"/>
+      <c r="AP26" s="151"/>
+      <c r="AQ26" s="151"/>
+      <c r="AR26" s="151"/>
+      <c r="AS26" s="151"/>
+      <c r="AT26" s="151"/>
+      <c r="AU26" s="151"/>
+      <c r="AV26" s="151"/>
+      <c r="AW26" s="151"/>
+      <c r="AX26" s="151"/>
+      <c r="AY26" s="151"/>
+      <c r="AZ26" s="151"/>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="159"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="162"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="162"/>
-      <c r="V27" s="162"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
-      <c r="AB27" s="162"/>
-      <c r="AC27" s="162"/>
-      <c r="AD27" s="162"/>
-      <c r="AE27" s="162"/>
-      <c r="AF27" s="162"/>
-      <c r="AG27" s="162"/>
-      <c r="AH27" s="162"/>
-      <c r="AI27" s="162"/>
-      <c r="AJ27" s="162"/>
-      <c r="AK27" s="162"/>
-      <c r="AL27" s="162"/>
-      <c r="AM27" s="162"/>
-      <c r="AN27" s="162"/>
-      <c r="AO27" s="162"/>
-      <c r="AP27" s="162"/>
-      <c r="AQ27" s="162"/>
-      <c r="AR27" s="162"/>
-      <c r="AS27" s="162"/>
-      <c r="AT27" s="162"/>
-      <c r="AU27" s="162"/>
-      <c r="AV27" s="162"/>
-      <c r="AW27" s="162"/>
-      <c r="AX27" s="162"/>
-      <c r="AY27" s="162"/>
-      <c r="AZ27" s="162"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
+      <c r="N27" s="151"/>
+      <c r="O27" s="151"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="151"/>
+      <c r="R27" s="151"/>
+      <c r="S27" s="151"/>
+      <c r="T27" s="151"/>
+      <c r="U27" s="151"/>
+      <c r="V27" s="151"/>
+      <c r="W27" s="151"/>
+      <c r="X27" s="151"/>
+      <c r="Y27" s="151"/>
+      <c r="Z27" s="151"/>
+      <c r="AA27" s="151"/>
+      <c r="AB27" s="151"/>
+      <c r="AC27" s="151"/>
+      <c r="AD27" s="151"/>
+      <c r="AE27" s="151"/>
+      <c r="AF27" s="151"/>
+      <c r="AG27" s="151"/>
+      <c r="AH27" s="151"/>
+      <c r="AI27" s="151"/>
+      <c r="AJ27" s="151"/>
+      <c r="AK27" s="151"/>
+      <c r="AL27" s="151"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="151"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
+      <c r="AQ27" s="151"/>
+      <c r="AR27" s="151"/>
+      <c r="AS27" s="151"/>
+      <c r="AT27" s="151"/>
+      <c r="AU27" s="151"/>
+      <c r="AV27" s="151"/>
+      <c r="AW27" s="151"/>
+      <c r="AX27" s="151"/>
+      <c r="AY27" s="151"/>
+      <c r="AZ27" s="151"/>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="159"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="162"/>
-      <c r="AC28" s="162"/>
-      <c r="AD28" s="162"/>
-      <c r="AE28" s="162"/>
-      <c r="AF28" s="162"/>
-      <c r="AG28" s="162"/>
-      <c r="AH28" s="162"/>
-      <c r="AI28" s="162"/>
-      <c r="AJ28" s="162"/>
-      <c r="AK28" s="162"/>
-      <c r="AL28" s="162"/>
-      <c r="AM28" s="162"/>
-      <c r="AN28" s="162"/>
-      <c r="AO28" s="162"/>
-      <c r="AP28" s="162"/>
-      <c r="AQ28" s="162"/>
-      <c r="AR28" s="162"/>
-      <c r="AS28" s="162"/>
-      <c r="AT28" s="162"/>
-      <c r="AU28" s="162"/>
-      <c r="AV28" s="162"/>
-      <c r="AW28" s="162"/>
-      <c r="AX28" s="162"/>
-      <c r="AY28" s="162"/>
-      <c r="AZ28" s="162"/>
+      <c r="A28" s="148"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
+      <c r="N28" s="151"/>
+      <c r="O28" s="151"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="151"/>
+      <c r="R28" s="151"/>
+      <c r="S28" s="151"/>
+      <c r="T28" s="151"/>
+      <c r="U28" s="151"/>
+      <c r="V28" s="151"/>
+      <c r="W28" s="151"/>
+      <c r="X28" s="151"/>
+      <c r="Y28" s="151"/>
+      <c r="Z28" s="151"/>
+      <c r="AA28" s="151"/>
+      <c r="AB28" s="151"/>
+      <c r="AC28" s="151"/>
+      <c r="AD28" s="151"/>
+      <c r="AE28" s="151"/>
+      <c r="AF28" s="151"/>
+      <c r="AG28" s="151"/>
+      <c r="AH28" s="151"/>
+      <c r="AI28" s="151"/>
+      <c r="AJ28" s="151"/>
+      <c r="AK28" s="151"/>
+      <c r="AL28" s="151"/>
+      <c r="AM28" s="151"/>
+      <c r="AN28" s="151"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
+      <c r="AQ28" s="151"/>
+      <c r="AR28" s="151"/>
+      <c r="AS28" s="151"/>
+      <c r="AT28" s="151"/>
+      <c r="AU28" s="151"/>
+      <c r="AV28" s="151"/>
+      <c r="AW28" s="151"/>
+      <c r="AX28" s="151"/>
+      <c r="AY28" s="151"/>
+      <c r="AZ28" s="151"/>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="159"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
-      <c r="P29" s="162"/>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="162"/>
-      <c r="S29" s="162"/>
-      <c r="T29" s="162"/>
-      <c r="U29" s="162"/>
-      <c r="V29" s="162"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="162"/>
-      <c r="AB29" s="162"/>
-      <c r="AC29" s="162"/>
-      <c r="AD29" s="162"/>
-      <c r="AE29" s="162"/>
-      <c r="AF29" s="162"/>
-      <c r="AG29" s="162"/>
-      <c r="AH29" s="162"/>
-      <c r="AI29" s="162"/>
-      <c r="AJ29" s="162"/>
-      <c r="AK29" s="162"/>
-      <c r="AL29" s="162"/>
-      <c r="AM29" s="162"/>
-      <c r="AN29" s="162"/>
-      <c r="AO29" s="162"/>
-      <c r="AP29" s="162"/>
-      <c r="AQ29" s="162"/>
-      <c r="AR29" s="162"/>
-      <c r="AS29" s="162"/>
-      <c r="AT29" s="162"/>
-      <c r="AU29" s="162"/>
-      <c r="AV29" s="162"/>
-      <c r="AW29" s="162"/>
-      <c r="AX29" s="162"/>
-      <c r="AY29" s="162"/>
-      <c r="AZ29" s="162"/>
+      <c r="A29" s="148"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="151"/>
+      <c r="V29" s="151"/>
+      <c r="W29" s="151"/>
+      <c r="X29" s="151"/>
+      <c r="Y29" s="151"/>
+      <c r="Z29" s="151"/>
+      <c r="AA29" s="151"/>
+      <c r="AB29" s="151"/>
+      <c r="AC29" s="151"/>
+      <c r="AD29" s="151"/>
+      <c r="AE29" s="151"/>
+      <c r="AF29" s="151"/>
+      <c r="AG29" s="151"/>
+      <c r="AH29" s="151"/>
+      <c r="AI29" s="151"/>
+      <c r="AJ29" s="151"/>
+      <c r="AK29" s="151"/>
+      <c r="AL29" s="151"/>
+      <c r="AM29" s="151"/>
+      <c r="AN29" s="151"/>
+      <c r="AO29" s="151"/>
+      <c r="AP29" s="151"/>
+      <c r="AQ29" s="151"/>
+      <c r="AR29" s="151"/>
+      <c r="AS29" s="151"/>
+      <c r="AT29" s="151"/>
+      <c r="AU29" s="151"/>
+      <c r="AV29" s="151"/>
+      <c r="AW29" s="151"/>
+      <c r="AX29" s="151"/>
+      <c r="AY29" s="151"/>
+      <c r="AZ29" s="151"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="159"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="162"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="162"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="162"/>
-      <c r="T30" s="162"/>
-      <c r="U30" s="162"/>
-      <c r="V30" s="162"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="162"/>
-      <c r="AB30" s="162"/>
-      <c r="AC30" s="162"/>
-      <c r="AD30" s="162"/>
-      <c r="AE30" s="162"/>
-      <c r="AF30" s="162"/>
-      <c r="AG30" s="162"/>
-      <c r="AH30" s="162"/>
-      <c r="AI30" s="162"/>
-      <c r="AJ30" s="162"/>
-      <c r="AK30" s="162"/>
-      <c r="AL30" s="162"/>
-      <c r="AM30" s="162"/>
-      <c r="AN30" s="162"/>
-      <c r="AO30" s="162"/>
-      <c r="AP30" s="162"/>
-      <c r="AQ30" s="162"/>
-      <c r="AR30" s="162"/>
-      <c r="AS30" s="162"/>
-      <c r="AT30" s="162"/>
-      <c r="AU30" s="162"/>
-      <c r="AV30" s="162"/>
-      <c r="AW30" s="162"/>
-      <c r="AX30" s="162"/>
-      <c r="AY30" s="162"/>
-      <c r="AZ30" s="162"/>
+      <c r="A30" s="148"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="151"/>
+      <c r="R30" s="151"/>
+      <c r="S30" s="151"/>
+      <c r="T30" s="151"/>
+      <c r="U30" s="151"/>
+      <c r="V30" s="151"/>
+      <c r="W30" s="151"/>
+      <c r="X30" s="151"/>
+      <c r="Y30" s="151"/>
+      <c r="Z30" s="151"/>
+      <c r="AA30" s="151"/>
+      <c r="AB30" s="151"/>
+      <c r="AC30" s="151"/>
+      <c r="AD30" s="151"/>
+      <c r="AE30" s="151"/>
+      <c r="AF30" s="151"/>
+      <c r="AG30" s="151"/>
+      <c r="AH30" s="151"/>
+      <c r="AI30" s="151"/>
+      <c r="AJ30" s="151"/>
+      <c r="AK30" s="151"/>
+      <c r="AL30" s="151"/>
+      <c r="AM30" s="151"/>
+      <c r="AN30" s="151"/>
+      <c r="AO30" s="151"/>
+      <c r="AP30" s="151"/>
+      <c r="AQ30" s="151"/>
+      <c r="AR30" s="151"/>
+      <c r="AS30" s="151"/>
+      <c r="AT30" s="151"/>
+      <c r="AU30" s="151"/>
+      <c r="AV30" s="151"/>
+      <c r="AW30" s="151"/>
+      <c r="AX30" s="151"/>
+      <c r="AY30" s="151"/>
+      <c r="AZ30" s="151"/>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="159"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="162"/>
-      <c r="T31" s="162"/>
-      <c r="U31" s="162"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-      <c r="AB31" s="162"/>
-      <c r="AC31" s="162"/>
-      <c r="AD31" s="162"/>
-      <c r="AE31" s="162"/>
-      <c r="AF31" s="162"/>
-      <c r="AG31" s="162"/>
-      <c r="AH31" s="162"/>
-      <c r="AI31" s="162"/>
-      <c r="AJ31" s="162"/>
-      <c r="AK31" s="162"/>
-      <c r="AL31" s="162"/>
-      <c r="AM31" s="162"/>
-      <c r="AN31" s="162"/>
-      <c r="AO31" s="162"/>
-      <c r="AP31" s="162"/>
-      <c r="AQ31" s="162"/>
-      <c r="AR31" s="162"/>
-      <c r="AS31" s="162"/>
-      <c r="AT31" s="162"/>
-      <c r="AU31" s="162"/>
-      <c r="AV31" s="162"/>
-      <c r="AW31" s="162"/>
-      <c r="AX31" s="162"/>
-      <c r="AY31" s="162"/>
-      <c r="AZ31" s="162"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
+      <c r="N31" s="151"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="151"/>
+      <c r="Q31" s="151"/>
+      <c r="R31" s="151"/>
+      <c r="S31" s="151"/>
+      <c r="T31" s="151"/>
+      <c r="U31" s="151"/>
+      <c r="V31" s="151"/>
+      <c r="W31" s="151"/>
+      <c r="X31" s="151"/>
+      <c r="Y31" s="151"/>
+      <c r="Z31" s="151"/>
+      <c r="AA31" s="151"/>
+      <c r="AB31" s="151"/>
+      <c r="AC31" s="151"/>
+      <c r="AD31" s="151"/>
+      <c r="AE31" s="151"/>
+      <c r="AF31" s="151"/>
+      <c r="AG31" s="151"/>
+      <c r="AH31" s="151"/>
+      <c r="AI31" s="151"/>
+      <c r="AJ31" s="151"/>
+      <c r="AK31" s="151"/>
+      <c r="AL31" s="151"/>
+      <c r="AM31" s="151"/>
+      <c r="AN31" s="151"/>
+      <c r="AO31" s="151"/>
+      <c r="AP31" s="151"/>
+      <c r="AQ31" s="151"/>
+      <c r="AR31" s="151"/>
+      <c r="AS31" s="151"/>
+      <c r="AT31" s="151"/>
+      <c r="AU31" s="151"/>
+      <c r="AV31" s="151"/>
+      <c r="AW31" s="151"/>
+      <c r="AX31" s="151"/>
+      <c r="AY31" s="151"/>
+      <c r="AZ31" s="151"/>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="159"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-      <c r="AB32" s="162"/>
-      <c r="AC32" s="162"/>
-      <c r="AD32" s="162"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="162"/>
-      <c r="AG32" s="162"/>
-      <c r="AH32" s="162"/>
-      <c r="AI32" s="162"/>
-      <c r="AJ32" s="162"/>
-      <c r="AK32" s="162"/>
-      <c r="AL32" s="162"/>
-      <c r="AM32" s="162"/>
-      <c r="AN32" s="162"/>
-      <c r="AO32" s="162"/>
-      <c r="AP32" s="162"/>
-      <c r="AQ32" s="162"/>
-      <c r="AR32" s="162"/>
-      <c r="AS32" s="162"/>
-      <c r="AT32" s="162"/>
-      <c r="AU32" s="162"/>
-      <c r="AV32" s="162"/>
-      <c r="AW32" s="162"/>
-      <c r="AX32" s="162"/>
-      <c r="AY32" s="162"/>
-      <c r="AZ32" s="162"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
+      <c r="N32" s="151"/>
+      <c r="O32" s="151"/>
+      <c r="P32" s="151"/>
+      <c r="Q32" s="151"/>
+      <c r="R32" s="151"/>
+      <c r="S32" s="151"/>
+      <c r="T32" s="151"/>
+      <c r="U32" s="151"/>
+      <c r="V32" s="151"/>
+      <c r="W32" s="151"/>
+      <c r="X32" s="151"/>
+      <c r="Y32" s="151"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="151"/>
+      <c r="AB32" s="151"/>
+      <c r="AC32" s="151"/>
+      <c r="AD32" s="151"/>
+      <c r="AE32" s="151"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="151"/>
+      <c r="AH32" s="151"/>
+      <c r="AI32" s="151"/>
+      <c r="AJ32" s="151"/>
+      <c r="AK32" s="151"/>
+      <c r="AL32" s="151"/>
+      <c r="AM32" s="151"/>
+      <c r="AN32" s="151"/>
+      <c r="AO32" s="151"/>
+      <c r="AP32" s="151"/>
+      <c r="AQ32" s="151"/>
+      <c r="AR32" s="151"/>
+      <c r="AS32" s="151"/>
+      <c r="AT32" s="151"/>
+      <c r="AU32" s="151"/>
+      <c r="AV32" s="151"/>
+      <c r="AW32" s="151"/>
+      <c r="AX32" s="151"/>
+      <c r="AY32" s="151"/>
+      <c r="AZ32" s="151"/>
     </row>
     <row r="33" spans="1:52">
-      <c r="A33" s="159"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="162"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="162"/>
-      <c r="T33" s="162"/>
-      <c r="U33" s="162"/>
-      <c r="V33" s="162"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="162"/>
-      <c r="AA33" s="162"/>
-      <c r="AB33" s="162"/>
-      <c r="AC33" s="162"/>
-      <c r="AD33" s="162"/>
-      <c r="AE33" s="162"/>
-      <c r="AF33" s="162"/>
-      <c r="AG33" s="162"/>
-      <c r="AH33" s="162"/>
-      <c r="AI33" s="162"/>
-      <c r="AJ33" s="162"/>
-      <c r="AK33" s="162"/>
-      <c r="AL33" s="162"/>
-      <c r="AM33" s="162"/>
-      <c r="AN33" s="162"/>
-      <c r="AO33" s="162"/>
-      <c r="AP33" s="162"/>
-      <c r="AQ33" s="162"/>
-      <c r="AR33" s="162"/>
-      <c r="AS33" s="162"/>
-      <c r="AT33" s="162"/>
-      <c r="AU33" s="162"/>
-      <c r="AV33" s="162"/>
-      <c r="AW33" s="162"/>
-      <c r="AX33" s="162"/>
-      <c r="AY33" s="162"/>
-      <c r="AZ33" s="162"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
+      <c r="N33" s="151"/>
+      <c r="O33" s="151"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="151"/>
+      <c r="R33" s="151"/>
+      <c r="S33" s="151"/>
+      <c r="T33" s="151"/>
+      <c r="U33" s="151"/>
+      <c r="V33" s="151"/>
+      <c r="W33" s="151"/>
+      <c r="X33" s="151"/>
+      <c r="Y33" s="151"/>
+      <c r="Z33" s="151"/>
+      <c r="AA33" s="151"/>
+      <c r="AB33" s="151"/>
+      <c r="AC33" s="151"/>
+      <c r="AD33" s="151"/>
+      <c r="AE33" s="151"/>
+      <c r="AF33" s="151"/>
+      <c r="AG33" s="151"/>
+      <c r="AH33" s="151"/>
+      <c r="AI33" s="151"/>
+      <c r="AJ33" s="151"/>
+      <c r="AK33" s="151"/>
+      <c r="AL33" s="151"/>
+      <c r="AM33" s="151"/>
+      <c r="AN33" s="151"/>
+      <c r="AO33" s="151"/>
+      <c r="AP33" s="151"/>
+      <c r="AQ33" s="151"/>
+      <c r="AR33" s="151"/>
+      <c r="AS33" s="151"/>
+      <c r="AT33" s="151"/>
+      <c r="AU33" s="151"/>
+      <c r="AV33" s="151"/>
+      <c r="AW33" s="151"/>
+      <c r="AX33" s="151"/>
+      <c r="AY33" s="151"/>
+      <c r="AZ33" s="151"/>
     </row>
     <row r="34" spans="1:52">
-      <c r="A34" s="159"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="160"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="162"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="162"/>
-      <c r="R34" s="162"/>
-      <c r="S34" s="162"/>
-      <c r="T34" s="162"/>
-      <c r="U34" s="162"/>
-      <c r="V34" s="162"/>
-      <c r="W34" s="162"/>
-      <c r="X34" s="162"/>
-      <c r="Y34" s="162"/>
-      <c r="Z34" s="162"/>
-      <c r="AA34" s="162"/>
-      <c r="AB34" s="162"/>
-      <c r="AC34" s="162"/>
-      <c r="AD34" s="162"/>
-      <c r="AE34" s="162"/>
-      <c r="AF34" s="162"/>
-      <c r="AG34" s="162"/>
-      <c r="AH34" s="162"/>
-      <c r="AI34" s="162"/>
-      <c r="AJ34" s="162"/>
-      <c r="AK34" s="162"/>
-      <c r="AL34" s="162"/>
-      <c r="AM34" s="162"/>
-      <c r="AN34" s="162"/>
-      <c r="AO34" s="162"/>
-      <c r="AP34" s="162"/>
-      <c r="AQ34" s="162"/>
-      <c r="AR34" s="162"/>
-      <c r="AS34" s="162"/>
-      <c r="AT34" s="162"/>
-      <c r="AU34" s="162"/>
-      <c r="AV34" s="162"/>
-      <c r="AW34" s="162"/>
-      <c r="AX34" s="162"/>
-      <c r="AY34" s="162"/>
-      <c r="AZ34" s="162"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
+      <c r="N34" s="151"/>
+      <c r="O34" s="151"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="151"/>
+      <c r="R34" s="151"/>
+      <c r="S34" s="151"/>
+      <c r="T34" s="151"/>
+      <c r="U34" s="151"/>
+      <c r="V34" s="151"/>
+      <c r="W34" s="151"/>
+      <c r="X34" s="151"/>
+      <c r="Y34" s="151"/>
+      <c r="Z34" s="151"/>
+      <c r="AA34" s="151"/>
+      <c r="AB34" s="151"/>
+      <c r="AC34" s="151"/>
+      <c r="AD34" s="151"/>
+      <c r="AE34" s="151"/>
+      <c r="AF34" s="151"/>
+      <c r="AG34" s="151"/>
+      <c r="AH34" s="151"/>
+      <c r="AI34" s="151"/>
+      <c r="AJ34" s="151"/>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="151"/>
+      <c r="AM34" s="151"/>
+      <c r="AN34" s="151"/>
+      <c r="AO34" s="151"/>
+      <c r="AP34" s="151"/>
+      <c r="AQ34" s="151"/>
+      <c r="AR34" s="151"/>
+      <c r="AS34" s="151"/>
+      <c r="AT34" s="151"/>
+      <c r="AU34" s="151"/>
+      <c r="AV34" s="151"/>
+      <c r="AW34" s="151"/>
+      <c r="AX34" s="151"/>
+      <c r="AY34" s="151"/>
+      <c r="AZ34" s="151"/>
     </row>
     <row r="35" spans="1:52">
-      <c r="A35" s="159"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="160"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="162"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="162"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="162"/>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="162"/>
-      <c r="R35" s="162"/>
-      <c r="S35" s="162"/>
-      <c r="T35" s="162"/>
-      <c r="U35" s="162"/>
-      <c r="V35" s="162"/>
-      <c r="W35" s="162"/>
-      <c r="X35" s="162"/>
-      <c r="Y35" s="162"/>
-      <c r="Z35" s="162"/>
-      <c r="AA35" s="162"/>
-      <c r="AB35" s="162"/>
-      <c r="AC35" s="162"/>
-      <c r="AD35" s="162"/>
-      <c r="AE35" s="162"/>
-      <c r="AF35" s="162"/>
-      <c r="AG35" s="162"/>
-      <c r="AH35" s="162"/>
-      <c r="AI35" s="162"/>
-      <c r="AJ35" s="162"/>
-      <c r="AK35" s="162"/>
-      <c r="AL35" s="162"/>
-      <c r="AM35" s="162"/>
-      <c r="AN35" s="162"/>
-      <c r="AO35" s="162"/>
-      <c r="AP35" s="162"/>
-      <c r="AQ35" s="162"/>
-      <c r="AR35" s="162"/>
-      <c r="AS35" s="162"/>
-      <c r="AT35" s="162"/>
-      <c r="AU35" s="162"/>
-      <c r="AV35" s="162"/>
-      <c r="AW35" s="162"/>
-      <c r="AX35" s="162"/>
-      <c r="AY35" s="162"/>
-      <c r="AZ35" s="162"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
+      <c r="N35" s="151"/>
+      <c r="O35" s="151"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="151"/>
+      <c r="R35" s="151"/>
+      <c r="S35" s="151"/>
+      <c r="T35" s="151"/>
+      <c r="U35" s="151"/>
+      <c r="V35" s="151"/>
+      <c r="W35" s="151"/>
+      <c r="X35" s="151"/>
+      <c r="Y35" s="151"/>
+      <c r="Z35" s="151"/>
+      <c r="AA35" s="151"/>
+      <c r="AB35" s="151"/>
+      <c r="AC35" s="151"/>
+      <c r="AD35" s="151"/>
+      <c r="AE35" s="151"/>
+      <c r="AF35" s="151"/>
+      <c r="AG35" s="151"/>
+      <c r="AH35" s="151"/>
+      <c r="AI35" s="151"/>
+      <c r="AJ35" s="151"/>
+      <c r="AK35" s="151"/>
+      <c r="AL35" s="151"/>
+      <c r="AM35" s="151"/>
+      <c r="AN35" s="151"/>
+      <c r="AO35" s="151"/>
+      <c r="AP35" s="151"/>
+      <c r="AQ35" s="151"/>
+      <c r="AR35" s="151"/>
+      <c r="AS35" s="151"/>
+      <c r="AT35" s="151"/>
+      <c r="AU35" s="151"/>
+      <c r="AV35" s="151"/>
+      <c r="AW35" s="151"/>
+      <c r="AX35" s="151"/>
+      <c r="AY35" s="151"/>
+      <c r="AZ35" s="151"/>
     </row>
     <row r="36" spans="1:52">
-      <c r="A36" s="159"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="162"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="162"/>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="162"/>
-      <c r="Q36" s="162"/>
-      <c r="R36" s="162"/>
-      <c r="S36" s="162"/>
-      <c r="T36" s="162"/>
-      <c r="U36" s="162"/>
-      <c r="V36" s="162"/>
-      <c r="W36" s="162"/>
-      <c r="X36" s="162"/>
-      <c r="Y36" s="162"/>
-      <c r="Z36" s="162"/>
-      <c r="AA36" s="162"/>
-      <c r="AB36" s="162"/>
-      <c r="AC36" s="162"/>
-      <c r="AD36" s="162"/>
-      <c r="AE36" s="162"/>
-      <c r="AF36" s="162"/>
-      <c r="AG36" s="162"/>
-      <c r="AH36" s="162"/>
-      <c r="AI36" s="162"/>
-      <c r="AJ36" s="162"/>
-      <c r="AK36" s="162"/>
-      <c r="AL36" s="162"/>
-      <c r="AM36" s="162"/>
-      <c r="AN36" s="162"/>
-      <c r="AO36" s="162"/>
-      <c r="AP36" s="162"/>
-      <c r="AQ36" s="162"/>
-      <c r="AR36" s="162"/>
-      <c r="AS36" s="162"/>
-      <c r="AT36" s="162"/>
-      <c r="AU36" s="162"/>
-      <c r="AV36" s="162"/>
-      <c r="AW36" s="162"/>
-      <c r="AX36" s="162"/>
-      <c r="AY36" s="162"/>
-      <c r="AZ36" s="162"/>
+      <c r="A36" s="148"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
+      <c r="N36" s="151"/>
+      <c r="O36" s="151"/>
+      <c r="P36" s="151"/>
+      <c r="Q36" s="151"/>
+      <c r="R36" s="151"/>
+      <c r="S36" s="151"/>
+      <c r="T36" s="151"/>
+      <c r="U36" s="151"/>
+      <c r="V36" s="151"/>
+      <c r="W36" s="151"/>
+      <c r="X36" s="151"/>
+      <c r="Y36" s="151"/>
+      <c r="Z36" s="151"/>
+      <c r="AA36" s="151"/>
+      <c r="AB36" s="151"/>
+      <c r="AC36" s="151"/>
+      <c r="AD36" s="151"/>
+      <c r="AE36" s="151"/>
+      <c r="AF36" s="151"/>
+      <c r="AG36" s="151"/>
+      <c r="AH36" s="151"/>
+      <c r="AI36" s="151"/>
+      <c r="AJ36" s="151"/>
+      <c r="AK36" s="151"/>
+      <c r="AL36" s="151"/>
+      <c r="AM36" s="151"/>
+      <c r="AN36" s="151"/>
+      <c r="AO36" s="151"/>
+      <c r="AP36" s="151"/>
+      <c r="AQ36" s="151"/>
+      <c r="AR36" s="151"/>
+      <c r="AS36" s="151"/>
+      <c r="AT36" s="151"/>
+      <c r="AU36" s="151"/>
+      <c r="AV36" s="151"/>
+      <c r="AW36" s="151"/>
+      <c r="AX36" s="151"/>
+      <c r="AY36" s="151"/>
+      <c r="AZ36" s="151"/>
     </row>
     <row r="37" spans="1:52">
-      <c r="A37" s="159"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="162"/>
-      <c r="L37" s="162"/>
-      <c r="M37" s="162"/>
-      <c r="N37" s="162"/>
-      <c r="O37" s="162"/>
-      <c r="P37" s="162"/>
-      <c r="Q37" s="162"/>
-      <c r="R37" s="162"/>
-      <c r="S37" s="162"/>
-      <c r="T37" s="162"/>
-      <c r="U37" s="162"/>
-      <c r="V37" s="162"/>
-      <c r="W37" s="162"/>
-      <c r="X37" s="162"/>
-      <c r="Y37" s="162"/>
-      <c r="Z37" s="162"/>
-      <c r="AA37" s="162"/>
-      <c r="AB37" s="162"/>
-      <c r="AC37" s="162"/>
-      <c r="AD37" s="162"/>
-      <c r="AE37" s="162"/>
-      <c r="AF37" s="162"/>
-      <c r="AG37" s="162"/>
-      <c r="AH37" s="162"/>
-      <c r="AI37" s="162"/>
-      <c r="AJ37" s="162"/>
-      <c r="AK37" s="162"/>
-      <c r="AL37" s="162"/>
-      <c r="AM37" s="162"/>
-      <c r="AN37" s="162"/>
-      <c r="AO37" s="162"/>
-      <c r="AP37" s="162"/>
-      <c r="AQ37" s="162"/>
-      <c r="AR37" s="162"/>
-      <c r="AS37" s="162"/>
-      <c r="AT37" s="162"/>
-      <c r="AU37" s="162"/>
-      <c r="AV37" s="162"/>
-      <c r="AW37" s="162"/>
-      <c r="AX37" s="162"/>
-      <c r="AY37" s="162"/>
-      <c r="AZ37" s="162"/>
+      <c r="A37" s="148"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
+      <c r="AA37" s="151"/>
+      <c r="AB37" s="151"/>
+      <c r="AC37" s="151"/>
+      <c r="AD37" s="151"/>
+      <c r="AE37" s="151"/>
+      <c r="AF37" s="151"/>
+      <c r="AG37" s="151"/>
+      <c r="AH37" s="151"/>
+      <c r="AI37" s="151"/>
+      <c r="AJ37" s="151"/>
+      <c r="AK37" s="151"/>
+      <c r="AL37" s="151"/>
+      <c r="AM37" s="151"/>
+      <c r="AN37" s="151"/>
+      <c r="AO37" s="151"/>
+      <c r="AP37" s="151"/>
+      <c r="AQ37" s="151"/>
+      <c r="AR37" s="151"/>
+      <c r="AS37" s="151"/>
+      <c r="AT37" s="151"/>
+      <c r="AU37" s="151"/>
+      <c r="AV37" s="151"/>
+      <c r="AW37" s="151"/>
+      <c r="AX37" s="151"/>
+      <c r="AY37" s="151"/>
+      <c r="AZ37" s="151"/>
     </row>
     <row r="38" spans="1:52">
-      <c r="A38" s="159"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="162"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="162"/>
-      <c r="N38" s="162"/>
-      <c r="O38" s="162"/>
-      <c r="P38" s="162"/>
-      <c r="Q38" s="162"/>
-      <c r="R38" s="162"/>
-      <c r="S38" s="162"/>
-      <c r="T38" s="162"/>
-      <c r="U38" s="162"/>
-      <c r="V38" s="162"/>
-      <c r="W38" s="162"/>
-      <c r="X38" s="162"/>
-      <c r="Y38" s="162"/>
-      <c r="Z38" s="162"/>
-      <c r="AA38" s="162"/>
-      <c r="AB38" s="162"/>
-      <c r="AC38" s="162"/>
-      <c r="AD38" s="162"/>
-      <c r="AE38" s="162"/>
-      <c r="AF38" s="162"/>
-      <c r="AG38" s="162"/>
-      <c r="AH38" s="162"/>
-      <c r="AI38" s="162"/>
-      <c r="AJ38" s="162"/>
-      <c r="AK38" s="162"/>
-      <c r="AL38" s="162"/>
-      <c r="AM38" s="162"/>
-      <c r="AN38" s="162"/>
-      <c r="AO38" s="162"/>
-      <c r="AP38" s="162"/>
-      <c r="AQ38" s="162"/>
-      <c r="AR38" s="162"/>
-      <c r="AS38" s="162"/>
-      <c r="AT38" s="162"/>
-      <c r="AU38" s="162"/>
-      <c r="AV38" s="162"/>
-      <c r="AW38" s="162"/>
-      <c r="AX38" s="162"/>
-      <c r="AY38" s="162"/>
-      <c r="AZ38" s="162"/>
+      <c r="A38" s="148"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
+      <c r="N38" s="151"/>
+      <c r="O38" s="151"/>
+      <c r="P38" s="151"/>
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="151"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="151"/>
+      <c r="V38" s="151"/>
+      <c r="W38" s="151"/>
+      <c r="X38" s="151"/>
+      <c r="Y38" s="151"/>
+      <c r="Z38" s="151"/>
+      <c r="AA38" s="151"/>
+      <c r="AB38" s="151"/>
+      <c r="AC38" s="151"/>
+      <c r="AD38" s="151"/>
+      <c r="AE38" s="151"/>
+      <c r="AF38" s="151"/>
+      <c r="AG38" s="151"/>
+      <c r="AH38" s="151"/>
+      <c r="AI38" s="151"/>
+      <c r="AJ38" s="151"/>
+      <c r="AK38" s="151"/>
+      <c r="AL38" s="151"/>
+      <c r="AM38" s="151"/>
+      <c r="AN38" s="151"/>
+      <c r="AO38" s="151"/>
+      <c r="AP38" s="151"/>
+      <c r="AQ38" s="151"/>
+      <c r="AR38" s="151"/>
+      <c r="AS38" s="151"/>
+      <c r="AT38" s="151"/>
+      <c r="AU38" s="151"/>
+      <c r="AV38" s="151"/>
+      <c r="AW38" s="151"/>
+      <c r="AX38" s="151"/>
+      <c r="AY38" s="151"/>
+      <c r="AZ38" s="151"/>
     </row>
     <row r="39" spans="1:52">
-      <c r="A39" s="159"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="162"/>
-      <c r="L39" s="162"/>
-      <c r="M39" s="162"/>
-      <c r="N39" s="162"/>
-      <c r="O39" s="162"/>
-      <c r="P39" s="162"/>
-      <c r="Q39" s="162"/>
-      <c r="R39" s="162"/>
-      <c r="S39" s="162"/>
-      <c r="T39" s="162"/>
-      <c r="U39" s="162"/>
-      <c r="V39" s="162"/>
-      <c r="W39" s="162"/>
-      <c r="X39" s="162"/>
-      <c r="Y39" s="162"/>
-      <c r="Z39" s="162"/>
-      <c r="AA39" s="162"/>
-      <c r="AB39" s="162"/>
-      <c r="AC39" s="162"/>
-      <c r="AD39" s="162"/>
-      <c r="AE39" s="162"/>
-      <c r="AF39" s="162"/>
-      <c r="AG39" s="162"/>
-      <c r="AH39" s="162"/>
-      <c r="AI39" s="162"/>
-      <c r="AJ39" s="162"/>
-      <c r="AK39" s="162"/>
-      <c r="AL39" s="162"/>
-      <c r="AM39" s="162"/>
-      <c r="AN39" s="162"/>
-      <c r="AO39" s="162"/>
-      <c r="AP39" s="162"/>
-      <c r="AQ39" s="162"/>
-      <c r="AR39" s="162"/>
-      <c r="AS39" s="162"/>
-      <c r="AT39" s="162"/>
-      <c r="AU39" s="162"/>
-      <c r="AV39" s="162"/>
-      <c r="AW39" s="162"/>
-      <c r="AX39" s="162"/>
-      <c r="AY39" s="162"/>
-      <c r="AZ39" s="162"/>
+      <c r="A39" s="148"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="151"/>
+      <c r="P39" s="151"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151"/>
+      <c r="S39" s="151"/>
+      <c r="T39" s="151"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="151"/>
+      <c r="W39" s="151"/>
+      <c r="X39" s="151"/>
+      <c r="Y39" s="151"/>
+      <c r="Z39" s="151"/>
+      <c r="AA39" s="151"/>
+      <c r="AB39" s="151"/>
+      <c r="AC39" s="151"/>
+      <c r="AD39" s="151"/>
+      <c r="AE39" s="151"/>
+      <c r="AF39" s="151"/>
+      <c r="AG39" s="151"/>
+      <c r="AH39" s="151"/>
+      <c r="AI39" s="151"/>
+      <c r="AJ39" s="151"/>
+      <c r="AK39" s="151"/>
+      <c r="AL39" s="151"/>
+      <c r="AM39" s="151"/>
+      <c r="AN39" s="151"/>
+      <c r="AO39" s="151"/>
+      <c r="AP39" s="151"/>
+      <c r="AQ39" s="151"/>
+      <c r="AR39" s="151"/>
+      <c r="AS39" s="151"/>
+      <c r="AT39" s="151"/>
+      <c r="AU39" s="151"/>
+      <c r="AV39" s="151"/>
+      <c r="AW39" s="151"/>
+      <c r="AX39" s="151"/>
+      <c r="AY39" s="151"/>
+      <c r="AZ39" s="151"/>
     </row>
     <row r="40" spans="1:52">
-      <c r="A40" s="159"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="162"/>
-      <c r="L40" s="162"/>
-      <c r="M40" s="162"/>
-      <c r="N40" s="162"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="162"/>
-      <c r="Q40" s="162"/>
-      <c r="R40" s="162"/>
-      <c r="S40" s="162"/>
-      <c r="T40" s="162"/>
-      <c r="U40" s="162"/>
-      <c r="V40" s="162"/>
-      <c r="W40" s="162"/>
-      <c r="X40" s="162"/>
-      <c r="Y40" s="162"/>
-      <c r="Z40" s="162"/>
-      <c r="AA40" s="162"/>
-      <c r="AB40" s="162"/>
-      <c r="AC40" s="162"/>
-      <c r="AD40" s="162"/>
-      <c r="AE40" s="162"/>
-      <c r="AF40" s="162"/>
-      <c r="AG40" s="162"/>
-      <c r="AH40" s="162"/>
-      <c r="AI40" s="162"/>
-      <c r="AJ40" s="162"/>
-      <c r="AK40" s="162"/>
-      <c r="AL40" s="162"/>
-      <c r="AM40" s="162"/>
-      <c r="AN40" s="162"/>
-      <c r="AO40" s="162"/>
-      <c r="AP40" s="162"/>
-      <c r="AQ40" s="162"/>
-      <c r="AR40" s="162"/>
-      <c r="AS40" s="162"/>
-      <c r="AT40" s="162"/>
-      <c r="AU40" s="162"/>
-      <c r="AV40" s="162"/>
-      <c r="AW40" s="162"/>
-      <c r="AX40" s="162"/>
-      <c r="AY40" s="162"/>
-      <c r="AZ40" s="162"/>
+      <c r="A40" s="148"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="151"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="151"/>
+      <c r="Q40" s="151"/>
+      <c r="R40" s="151"/>
+      <c r="S40" s="151"/>
+      <c r="T40" s="151"/>
+      <c r="U40" s="151"/>
+      <c r="V40" s="151"/>
+      <c r="W40" s="151"/>
+      <c r="X40" s="151"/>
+      <c r="Y40" s="151"/>
+      <c r="Z40" s="151"/>
+      <c r="AA40" s="151"/>
+      <c r="AB40" s="151"/>
+      <c r="AC40" s="151"/>
+      <c r="AD40" s="151"/>
+      <c r="AE40" s="151"/>
+      <c r="AF40" s="151"/>
+      <c r="AG40" s="151"/>
+      <c r="AH40" s="151"/>
+      <c r="AI40" s="151"/>
+      <c r="AJ40" s="151"/>
+      <c r="AK40" s="151"/>
+      <c r="AL40" s="151"/>
+      <c r="AM40" s="151"/>
+      <c r="AN40" s="151"/>
+      <c r="AO40" s="151"/>
+      <c r="AP40" s="151"/>
+      <c r="AQ40" s="151"/>
+      <c r="AR40" s="151"/>
+      <c r="AS40" s="151"/>
+      <c r="AT40" s="151"/>
+      <c r="AU40" s="151"/>
+      <c r="AV40" s="151"/>
+      <c r="AW40" s="151"/>
+      <c r="AX40" s="151"/>
+      <c r="AY40" s="151"/>
+      <c r="AZ40" s="151"/>
     </row>
     <row r="41" spans="1:52">
-      <c r="A41" s="159"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="162"/>
-      <c r="L41" s="162"/>
-      <c r="M41" s="162"/>
-      <c r="N41" s="162"/>
-      <c r="O41" s="162"/>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="162"/>
-      <c r="R41" s="162"/>
-      <c r="S41" s="162"/>
-      <c r="T41" s="162"/>
-      <c r="U41" s="162"/>
-      <c r="V41" s="162"/>
-      <c r="W41" s="162"/>
-      <c r="X41" s="162"/>
-      <c r="Y41" s="162"/>
-      <c r="Z41" s="162"/>
-      <c r="AA41" s="162"/>
-      <c r="AB41" s="162"/>
-      <c r="AC41" s="162"/>
-      <c r="AD41" s="162"/>
-      <c r="AE41" s="162"/>
-      <c r="AF41" s="162"/>
-      <c r="AG41" s="162"/>
-      <c r="AH41" s="162"/>
-      <c r="AI41" s="162"/>
-      <c r="AJ41" s="162"/>
-      <c r="AK41" s="162"/>
-      <c r="AL41" s="162"/>
-      <c r="AM41" s="162"/>
-      <c r="AN41" s="162"/>
-      <c r="AO41" s="162"/>
-      <c r="AP41" s="162"/>
-      <c r="AQ41" s="162"/>
-      <c r="AR41" s="162"/>
-      <c r="AS41" s="162"/>
-      <c r="AT41" s="162"/>
-      <c r="AU41" s="162"/>
-      <c r="AV41" s="162"/>
-      <c r="AW41" s="162"/>
-      <c r="AX41" s="162"/>
-      <c r="AY41" s="162"/>
-      <c r="AZ41" s="162"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="151"/>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151"/>
+      <c r="S41" s="151"/>
+      <c r="T41" s="151"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="151"/>
+      <c r="W41" s="151"/>
+      <c r="X41" s="151"/>
+      <c r="Y41" s="151"/>
+      <c r="Z41" s="151"/>
+      <c r="AA41" s="151"/>
+      <c r="AB41" s="151"/>
+      <c r="AC41" s="151"/>
+      <c r="AD41" s="151"/>
+      <c r="AE41" s="151"/>
+      <c r="AF41" s="151"/>
+      <c r="AG41" s="151"/>
+      <c r="AH41" s="151"/>
+      <c r="AI41" s="151"/>
+      <c r="AJ41" s="151"/>
+      <c r="AK41" s="151"/>
+      <c r="AL41" s="151"/>
+      <c r="AM41" s="151"/>
+      <c r="AN41" s="151"/>
+      <c r="AO41" s="151"/>
+      <c r="AP41" s="151"/>
+      <c r="AQ41" s="151"/>
+      <c r="AR41" s="151"/>
+      <c r="AS41" s="151"/>
+      <c r="AT41" s="151"/>
+      <c r="AU41" s="151"/>
+      <c r="AV41" s="151"/>
+      <c r="AW41" s="151"/>
+      <c r="AX41" s="151"/>
+      <c r="AY41" s="151"/>
+      <c r="AZ41" s="151"/>
     </row>
     <row r="42" spans="1:52">
-      <c r="A42" s="159"/>
-      <c r="B42" s="159"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="162"/>
-      <c r="L42" s="162"/>
-      <c r="M42" s="162"/>
-      <c r="N42" s="162"/>
-      <c r="O42" s="162"/>
-      <c r="P42" s="162"/>
-      <c r="Q42" s="162"/>
-      <c r="R42" s="162"/>
-      <c r="S42" s="162"/>
-      <c r="T42" s="162"/>
-      <c r="U42" s="162"/>
-      <c r="V42" s="162"/>
-      <c r="W42" s="162"/>
-      <c r="X42" s="162"/>
-      <c r="Y42" s="162"/>
-      <c r="Z42" s="162"/>
-      <c r="AA42" s="162"/>
-      <c r="AB42" s="162"/>
-      <c r="AC42" s="162"/>
-      <c r="AD42" s="162"/>
-      <c r="AE42" s="162"/>
-      <c r="AF42" s="162"/>
-      <c r="AG42" s="162"/>
-      <c r="AH42" s="162"/>
-      <c r="AI42" s="162"/>
-      <c r="AJ42" s="162"/>
-      <c r="AK42" s="162"/>
-      <c r="AL42" s="162"/>
-      <c r="AM42" s="162"/>
-      <c r="AN42" s="162"/>
-      <c r="AO42" s="162"/>
-      <c r="AP42" s="162"/>
-      <c r="AQ42" s="162"/>
-      <c r="AR42" s="162"/>
-      <c r="AS42" s="162"/>
-      <c r="AT42" s="162"/>
-      <c r="AU42" s="162"/>
-      <c r="AV42" s="162"/>
-      <c r="AW42" s="162"/>
-      <c r="AX42" s="162"/>
-      <c r="AY42" s="162"/>
-      <c r="AZ42" s="162"/>
+      <c r="A42" s="148"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="151"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151"/>
+      <c r="S42" s="151"/>
+      <c r="T42" s="151"/>
+      <c r="U42" s="151"/>
+      <c r="V42" s="151"/>
+      <c r="W42" s="151"/>
+      <c r="X42" s="151"/>
+      <c r="Y42" s="151"/>
+      <c r="Z42" s="151"/>
+      <c r="AA42" s="151"/>
+      <c r="AB42" s="151"/>
+      <c r="AC42" s="151"/>
+      <c r="AD42" s="151"/>
+      <c r="AE42" s="151"/>
+      <c r="AF42" s="151"/>
+      <c r="AG42" s="151"/>
+      <c r="AH42" s="151"/>
+      <c r="AI42" s="151"/>
+      <c r="AJ42" s="151"/>
+      <c r="AK42" s="151"/>
+      <c r="AL42" s="151"/>
+      <c r="AM42" s="151"/>
+      <c r="AN42" s="151"/>
+      <c r="AO42" s="151"/>
+      <c r="AP42" s="151"/>
+      <c r="AQ42" s="151"/>
+      <c r="AR42" s="151"/>
+      <c r="AS42" s="151"/>
+      <c r="AT42" s="151"/>
+      <c r="AU42" s="151"/>
+      <c r="AV42" s="151"/>
+      <c r="AW42" s="151"/>
+      <c r="AX42" s="151"/>
+      <c r="AY42" s="151"/>
+      <c r="AZ42" s="151"/>
     </row>
     <row r="43" spans="1:52">
-      <c r="A43" s="159"/>
-      <c r="B43" s="159"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="162"/>
-      <c r="L43" s="162"/>
-      <c r="M43" s="162"/>
-      <c r="N43" s="162"/>
-      <c r="O43" s="162"/>
-      <c r="P43" s="162"/>
-      <c r="Q43" s="162"/>
-      <c r="R43" s="162"/>
-      <c r="S43" s="162"/>
-      <c r="T43" s="162"/>
-      <c r="U43" s="162"/>
-      <c r="V43" s="162"/>
-      <c r="W43" s="162"/>
-      <c r="X43" s="162"/>
-      <c r="Y43" s="162"/>
-      <c r="Z43" s="162"/>
-      <c r="AA43" s="162"/>
-      <c r="AB43" s="162"/>
-      <c r="AC43" s="162"/>
-      <c r="AD43" s="162"/>
-      <c r="AE43" s="162"/>
-      <c r="AF43" s="162"/>
-      <c r="AG43" s="162"/>
-      <c r="AH43" s="162"/>
-      <c r="AI43" s="162"/>
-      <c r="AJ43" s="162"/>
-      <c r="AK43" s="162"/>
-      <c r="AL43" s="162"/>
-      <c r="AM43" s="162"/>
-      <c r="AN43" s="162"/>
-      <c r="AO43" s="162"/>
-      <c r="AP43" s="162"/>
-      <c r="AQ43" s="162"/>
-      <c r="AR43" s="162"/>
-      <c r="AS43" s="162"/>
-      <c r="AT43" s="162"/>
-      <c r="AU43" s="162"/>
-      <c r="AV43" s="162"/>
-      <c r="AW43" s="162"/>
-      <c r="AX43" s="162"/>
-      <c r="AY43" s="162"/>
-      <c r="AZ43" s="162"/>
+      <c r="A43" s="148"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151"/>
+      <c r="S43" s="151"/>
+      <c r="T43" s="151"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="151"/>
+      <c r="W43" s="151"/>
+      <c r="X43" s="151"/>
+      <c r="Y43" s="151"/>
+      <c r="Z43" s="151"/>
+      <c r="AA43" s="151"/>
+      <c r="AB43" s="151"/>
+      <c r="AC43" s="151"/>
+      <c r="AD43" s="151"/>
+      <c r="AE43" s="151"/>
+      <c r="AF43" s="151"/>
+      <c r="AG43" s="151"/>
+      <c r="AH43" s="151"/>
+      <c r="AI43" s="151"/>
+      <c r="AJ43" s="151"/>
+      <c r="AK43" s="151"/>
+      <c r="AL43" s="151"/>
+      <c r="AM43" s="151"/>
+      <c r="AN43" s="151"/>
+      <c r="AO43" s="151"/>
+      <c r="AP43" s="151"/>
+      <c r="AQ43" s="151"/>
+      <c r="AR43" s="151"/>
+      <c r="AS43" s="151"/>
+      <c r="AT43" s="151"/>
+      <c r="AU43" s="151"/>
+      <c r="AV43" s="151"/>
+      <c r="AW43" s="151"/>
+      <c r="AX43" s="151"/>
+      <c r="AY43" s="151"/>
+      <c r="AZ43" s="151"/>
     </row>
     <row r="44" spans="1:52">
-      <c r="A44" s="159"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="160"/>
-      <c r="E44" s="160"/>
-      <c r="F44" s="160"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="162"/>
-      <c r="L44" s="162"/>
-      <c r="M44" s="162"/>
-      <c r="N44" s="162"/>
-      <c r="O44" s="162"/>
-      <c r="P44" s="162"/>
-      <c r="Q44" s="162"/>
-      <c r="R44" s="162"/>
-      <c r="S44" s="162"/>
-      <c r="T44" s="162"/>
-      <c r="U44" s="162"/>
-      <c r="V44" s="162"/>
-      <c r="W44" s="162"/>
-      <c r="X44" s="162"/>
-      <c r="Y44" s="162"/>
-      <c r="Z44" s="162"/>
-      <c r="AA44" s="162"/>
-      <c r="AB44" s="162"/>
-      <c r="AC44" s="162"/>
-      <c r="AD44" s="162"/>
-      <c r="AE44" s="162"/>
-      <c r="AF44" s="162"/>
-      <c r="AG44" s="162"/>
-      <c r="AH44" s="162"/>
-      <c r="AI44" s="162"/>
-      <c r="AJ44" s="162"/>
-      <c r="AK44" s="162"/>
-      <c r="AL44" s="162"/>
-      <c r="AM44" s="162"/>
-      <c r="AN44" s="162"/>
-      <c r="AO44" s="162"/>
-      <c r="AP44" s="162"/>
-      <c r="AQ44" s="162"/>
-      <c r="AR44" s="162"/>
-      <c r="AS44" s="162"/>
-      <c r="AT44" s="162"/>
-      <c r="AU44" s="162"/>
-      <c r="AV44" s="162"/>
-      <c r="AW44" s="162"/>
-      <c r="AX44" s="162"/>
-      <c r="AY44" s="162"/>
-      <c r="AZ44" s="162"/>
+      <c r="A44" s="148"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151"/>
+      <c r="S44" s="151"/>
+      <c r="T44" s="151"/>
+      <c r="U44" s="151"/>
+      <c r="V44" s="151"/>
+      <c r="W44" s="151"/>
+      <c r="X44" s="151"/>
+      <c r="Y44" s="151"/>
+      <c r="Z44" s="151"/>
+      <c r="AA44" s="151"/>
+      <c r="AB44" s="151"/>
+      <c r="AC44" s="151"/>
+      <c r="AD44" s="151"/>
+      <c r="AE44" s="151"/>
+      <c r="AF44" s="151"/>
+      <c r="AG44" s="151"/>
+      <c r="AH44" s="151"/>
+      <c r="AI44" s="151"/>
+      <c r="AJ44" s="151"/>
+      <c r="AK44" s="151"/>
+      <c r="AL44" s="151"/>
+      <c r="AM44" s="151"/>
+      <c r="AN44" s="151"/>
+      <c r="AO44" s="151"/>
+      <c r="AP44" s="151"/>
+      <c r="AQ44" s="151"/>
+      <c r="AR44" s="151"/>
+      <c r="AS44" s="151"/>
+      <c r="AT44" s="151"/>
+      <c r="AU44" s="151"/>
+      <c r="AV44" s="151"/>
+      <c r="AW44" s="151"/>
+      <c r="AX44" s="151"/>
+      <c r="AY44" s="151"/>
+      <c r="AZ44" s="151"/>
     </row>
     <row r="45" spans="1:52">
-      <c r="A45" s="159"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="160"/>
-      <c r="D45" s="160"/>
-      <c r="E45" s="160"/>
-      <c r="F45" s="160"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="161"/>
-      <c r="J45" s="161"/>
-      <c r="K45" s="162"/>
-      <c r="L45" s="162"/>
-      <c r="M45" s="162"/>
-      <c r="N45" s="162"/>
-      <c r="O45" s="162"/>
-      <c r="P45" s="162"/>
-      <c r="Q45" s="162"/>
-      <c r="R45" s="162"/>
-      <c r="S45" s="162"/>
-      <c r="T45" s="162"/>
-      <c r="U45" s="162"/>
-      <c r="V45" s="162"/>
-      <c r="W45" s="162"/>
-      <c r="X45" s="162"/>
-      <c r="Y45" s="162"/>
-      <c r="Z45" s="162"/>
-      <c r="AA45" s="162"/>
-      <c r="AB45" s="162"/>
-      <c r="AC45" s="162"/>
-      <c r="AD45" s="162"/>
-      <c r="AE45" s="162"/>
-      <c r="AF45" s="162"/>
-      <c r="AG45" s="162"/>
-      <c r="AH45" s="162"/>
-      <c r="AI45" s="162"/>
-      <c r="AJ45" s="162"/>
-      <c r="AK45" s="162"/>
-      <c r="AL45" s="162"/>
-      <c r="AM45" s="162"/>
-      <c r="AN45" s="162"/>
-      <c r="AO45" s="162"/>
-      <c r="AP45" s="162"/>
-      <c r="AQ45" s="162"/>
-      <c r="AR45" s="162"/>
-      <c r="AS45" s="162"/>
-      <c r="AT45" s="162"/>
-      <c r="AU45" s="162"/>
-      <c r="AV45" s="162"/>
-      <c r="AW45" s="162"/>
-      <c r="AX45" s="162"/>
-      <c r="AY45" s="162"/>
-      <c r="AZ45" s="162"/>
+      <c r="A45" s="148"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="149"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="150"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
+      <c r="N45" s="151"/>
+      <c r="O45" s="151"/>
+      <c r="P45" s="151"/>
+      <c r="Q45" s="151"/>
+      <c r="R45" s="151"/>
+      <c r="S45" s="151"/>
+      <c r="T45" s="151"/>
+      <c r="U45" s="151"/>
+      <c r="V45" s="151"/>
+      <c r="W45" s="151"/>
+      <c r="X45" s="151"/>
+      <c r="Y45" s="151"/>
+      <c r="Z45" s="151"/>
+      <c r="AA45" s="151"/>
+      <c r="AB45" s="151"/>
+      <c r="AC45" s="151"/>
+      <c r="AD45" s="151"/>
+      <c r="AE45" s="151"/>
+      <c r="AF45" s="151"/>
+      <c r="AG45" s="151"/>
+      <c r="AH45" s="151"/>
+      <c r="AI45" s="151"/>
+      <c r="AJ45" s="151"/>
+      <c r="AK45" s="151"/>
+      <c r="AL45" s="151"/>
+      <c r="AM45" s="151"/>
+      <c r="AN45" s="151"/>
+      <c r="AO45" s="151"/>
+      <c r="AP45" s="151"/>
+      <c r="AQ45" s="151"/>
+      <c r="AR45" s="151"/>
+      <c r="AS45" s="151"/>
+      <c r="AT45" s="151"/>
+      <c r="AU45" s="151"/>
+      <c r="AV45" s="151"/>
+      <c r="AW45" s="151"/>
+      <c r="AX45" s="151"/>
+      <c r="AY45" s="151"/>
+      <c r="AZ45" s="151"/>
     </row>
     <row r="46" spans="1:52">
-      <c r="A46" s="159"/>
-      <c r="B46" s="159"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="161"/>
-      <c r="K46" s="162"/>
-      <c r="L46" s="162"/>
-      <c r="M46" s="162"/>
-      <c r="N46" s="162"/>
-      <c r="O46" s="162"/>
-      <c r="P46" s="162"/>
-      <c r="Q46" s="162"/>
-      <c r="R46" s="162"/>
-      <c r="S46" s="162"/>
-      <c r="T46" s="162"/>
-      <c r="U46" s="162"/>
-      <c r="V46" s="162"/>
-      <c r="W46" s="162"/>
-      <c r="X46" s="162"/>
-      <c r="Y46" s="162"/>
-      <c r="Z46" s="162"/>
-      <c r="AA46" s="162"/>
-      <c r="AB46" s="162"/>
-      <c r="AC46" s="162"/>
-      <c r="AD46" s="162"/>
-      <c r="AE46" s="162"/>
-      <c r="AF46" s="162"/>
-      <c r="AG46" s="162"/>
-      <c r="AH46" s="162"/>
-      <c r="AI46" s="162"/>
-      <c r="AJ46" s="162"/>
-      <c r="AK46" s="162"/>
-      <c r="AL46" s="162"/>
-      <c r="AM46" s="162"/>
-      <c r="AN46" s="162"/>
-      <c r="AO46" s="162"/>
-      <c r="AP46" s="162"/>
-      <c r="AQ46" s="162"/>
-      <c r="AR46" s="162"/>
-      <c r="AS46" s="162"/>
-      <c r="AT46" s="162"/>
-      <c r="AU46" s="162"/>
-      <c r="AV46" s="162"/>
-      <c r="AW46" s="162"/>
-      <c r="AX46" s="162"/>
-      <c r="AY46" s="162"/>
-      <c r="AZ46" s="162"/>
+      <c r="A46" s="148"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="150"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="151"/>
+      <c r="M46" s="151"/>
+      <c r="N46" s="151"/>
+      <c r="O46" s="151"/>
+      <c r="P46" s="151"/>
+      <c r="Q46" s="151"/>
+      <c r="R46" s="151"/>
+      <c r="S46" s="151"/>
+      <c r="T46" s="151"/>
+      <c r="U46" s="151"/>
+      <c r="V46" s="151"/>
+      <c r="W46" s="151"/>
+      <c r="X46" s="151"/>
+      <c r="Y46" s="151"/>
+      <c r="Z46" s="151"/>
+      <c r="AA46" s="151"/>
+      <c r="AB46" s="151"/>
+      <c r="AC46" s="151"/>
+      <c r="AD46" s="151"/>
+      <c r="AE46" s="151"/>
+      <c r="AF46" s="151"/>
+      <c r="AG46" s="151"/>
+      <c r="AH46" s="151"/>
+      <c r="AI46" s="151"/>
+      <c r="AJ46" s="151"/>
+      <c r="AK46" s="151"/>
+      <c r="AL46" s="151"/>
+      <c r="AM46" s="151"/>
+      <c r="AN46" s="151"/>
+      <c r="AO46" s="151"/>
+      <c r="AP46" s="151"/>
+      <c r="AQ46" s="151"/>
+      <c r="AR46" s="151"/>
+      <c r="AS46" s="151"/>
+      <c r="AT46" s="151"/>
+      <c r="AU46" s="151"/>
+      <c r="AV46" s="151"/>
+      <c r="AW46" s="151"/>
+      <c r="AX46" s="151"/>
+      <c r="AY46" s="151"/>
+      <c r="AZ46" s="151"/>
     </row>
     <row r="47" spans="1:52">
-      <c r="A47" s="159"/>
-      <c r="B47" s="159"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="160"/>
-      <c r="F47" s="160"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="161"/>
-      <c r="K47" s="162"/>
-      <c r="L47" s="162"/>
-      <c r="M47" s="162"/>
-      <c r="N47" s="162"/>
-      <c r="O47" s="162"/>
-      <c r="P47" s="162"/>
-      <c r="Q47" s="162"/>
-      <c r="R47" s="162"/>
-      <c r="S47" s="162"/>
-      <c r="T47" s="162"/>
-      <c r="U47" s="162"/>
-      <c r="V47" s="162"/>
-      <c r="W47" s="162"/>
-      <c r="X47" s="162"/>
-      <c r="Y47" s="162"/>
-      <c r="Z47" s="162"/>
-      <c r="AA47" s="162"/>
-      <c r="AB47" s="162"/>
-      <c r="AC47" s="162"/>
-      <c r="AD47" s="162"/>
-      <c r="AE47" s="162"/>
-      <c r="AF47" s="162"/>
-      <c r="AG47" s="162"/>
-      <c r="AH47" s="162"/>
-      <c r="AI47" s="162"/>
-      <c r="AJ47" s="162"/>
-      <c r="AK47" s="162"/>
-      <c r="AL47" s="162"/>
-      <c r="AM47" s="162"/>
-      <c r="AN47" s="162"/>
-      <c r="AO47" s="162"/>
-      <c r="AP47" s="162"/>
-      <c r="AQ47" s="162"/>
-      <c r="AR47" s="162"/>
-      <c r="AS47" s="162"/>
-      <c r="AT47" s="162"/>
-      <c r="AU47" s="162"/>
-      <c r="AV47" s="162"/>
-      <c r="AW47" s="162"/>
-      <c r="AX47" s="162"/>
-      <c r="AY47" s="162"/>
-      <c r="AZ47" s="162"/>
+      <c r="A47" s="148"/>
+      <c r="B47" s="148"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="150"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="151"/>
+      <c r="N47" s="151"/>
+      <c r="O47" s="151"/>
+      <c r="P47" s="151"/>
+      <c r="Q47" s="151"/>
+      <c r="R47" s="151"/>
+      <c r="S47" s="151"/>
+      <c r="T47" s="151"/>
+      <c r="U47" s="151"/>
+      <c r="V47" s="151"/>
+      <c r="W47" s="151"/>
+      <c r="X47" s="151"/>
+      <c r="Y47" s="151"/>
+      <c r="Z47" s="151"/>
+      <c r="AA47" s="151"/>
+      <c r="AB47" s="151"/>
+      <c r="AC47" s="151"/>
+      <c r="AD47" s="151"/>
+      <c r="AE47" s="151"/>
+      <c r="AF47" s="151"/>
+      <c r="AG47" s="151"/>
+      <c r="AH47" s="151"/>
+      <c r="AI47" s="151"/>
+      <c r="AJ47" s="151"/>
+      <c r="AK47" s="151"/>
+      <c r="AL47" s="151"/>
+      <c r="AM47" s="151"/>
+      <c r="AN47" s="151"/>
+      <c r="AO47" s="151"/>
+      <c r="AP47" s="151"/>
+      <c r="AQ47" s="151"/>
+      <c r="AR47" s="151"/>
+      <c r="AS47" s="151"/>
+      <c r="AT47" s="151"/>
+      <c r="AU47" s="151"/>
+      <c r="AV47" s="151"/>
+      <c r="AW47" s="151"/>
+      <c r="AX47" s="151"/>
+      <c r="AY47" s="151"/>
+      <c r="AZ47" s="151"/>
     </row>
     <row r="48" spans="1:52">
-      <c r="A48" s="159"/>
-      <c r="B48" s="159"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="162"/>
-      <c r="L48" s="162"/>
-      <c r="M48" s="162"/>
-      <c r="N48" s="162"/>
-      <c r="O48" s="162"/>
-      <c r="P48" s="162"/>
-      <c r="Q48" s="162"/>
-      <c r="R48" s="162"/>
-      <c r="S48" s="162"/>
-      <c r="T48" s="162"/>
-      <c r="U48" s="162"/>
-      <c r="V48" s="162"/>
-      <c r="W48" s="162"/>
-      <c r="X48" s="162"/>
-      <c r="Y48" s="162"/>
-      <c r="Z48" s="162"/>
-      <c r="AA48" s="162"/>
-      <c r="AB48" s="162"/>
-      <c r="AC48" s="162"/>
-      <c r="AD48" s="162"/>
-      <c r="AE48" s="162"/>
-      <c r="AF48" s="162"/>
-      <c r="AG48" s="162"/>
-      <c r="AH48" s="162"/>
-      <c r="AI48" s="162"/>
-      <c r="AJ48" s="162"/>
-      <c r="AK48" s="162"/>
-      <c r="AL48" s="162"/>
-      <c r="AM48" s="162"/>
-      <c r="AN48" s="162"/>
-      <c r="AO48" s="162"/>
-      <c r="AP48" s="162"/>
-      <c r="AQ48" s="162"/>
-      <c r="AR48" s="162"/>
-      <c r="AS48" s="162"/>
-      <c r="AT48" s="162"/>
-      <c r="AU48" s="162"/>
-      <c r="AV48" s="162"/>
-      <c r="AW48" s="162"/>
-      <c r="AX48" s="162"/>
-      <c r="AY48" s="162"/>
-      <c r="AZ48" s="162"/>
+      <c r="A48" s="148"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="150"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="151"/>
+      <c r="R48" s="151"/>
+      <c r="S48" s="151"/>
+      <c r="T48" s="151"/>
+      <c r="U48" s="151"/>
+      <c r="V48" s="151"/>
+      <c r="W48" s="151"/>
+      <c r="X48" s="151"/>
+      <c r="Y48" s="151"/>
+      <c r="Z48" s="151"/>
+      <c r="AA48" s="151"/>
+      <c r="AB48" s="151"/>
+      <c r="AC48" s="151"/>
+      <c r="AD48" s="151"/>
+      <c r="AE48" s="151"/>
+      <c r="AF48" s="151"/>
+      <c r="AG48" s="151"/>
+      <c r="AH48" s="151"/>
+      <c r="AI48" s="151"/>
+      <c r="AJ48" s="151"/>
+      <c r="AK48" s="151"/>
+      <c r="AL48" s="151"/>
+      <c r="AM48" s="151"/>
+      <c r="AN48" s="151"/>
+      <c r="AO48" s="151"/>
+      <c r="AP48" s="151"/>
+      <c r="AQ48" s="151"/>
+      <c r="AR48" s="151"/>
+      <c r="AS48" s="151"/>
+      <c r="AT48" s="151"/>
+      <c r="AU48" s="151"/>
+      <c r="AV48" s="151"/>
+      <c r="AW48" s="151"/>
+      <c r="AX48" s="151"/>
+      <c r="AY48" s="151"/>
+      <c r="AZ48" s="151"/>
     </row>
     <row r="49" spans="1:52">
-      <c r="A49" s="159"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="162"/>
-      <c r="L49" s="162"/>
-      <c r="M49" s="162"/>
-      <c r="N49" s="162"/>
-      <c r="O49" s="162"/>
-      <c r="P49" s="162"/>
-      <c r="Q49" s="162"/>
-      <c r="R49" s="162"/>
-      <c r="S49" s="162"/>
-      <c r="T49" s="162"/>
-      <c r="U49" s="162"/>
-      <c r="V49" s="162"/>
-      <c r="W49" s="162"/>
-      <c r="X49" s="162"/>
-      <c r="Y49" s="162"/>
-      <c r="Z49" s="162"/>
-      <c r="AA49" s="162"/>
-      <c r="AB49" s="162"/>
-      <c r="AC49" s="162"/>
-      <c r="AD49" s="162"/>
-      <c r="AE49" s="162"/>
-      <c r="AF49" s="162"/>
-      <c r="AG49" s="162"/>
-      <c r="AH49" s="162"/>
-      <c r="AI49" s="162"/>
-      <c r="AJ49" s="162"/>
-      <c r="AK49" s="162"/>
-      <c r="AL49" s="162"/>
-      <c r="AM49" s="162"/>
-      <c r="AN49" s="162"/>
-      <c r="AO49" s="162"/>
-      <c r="AP49" s="162"/>
-      <c r="AQ49" s="162"/>
-      <c r="AR49" s="162"/>
-      <c r="AS49" s="162"/>
-      <c r="AT49" s="162"/>
-      <c r="AU49" s="162"/>
-      <c r="AV49" s="162"/>
-      <c r="AW49" s="162"/>
-      <c r="AX49" s="162"/>
-      <c r="AY49" s="162"/>
-      <c r="AZ49" s="162"/>
+      <c r="A49" s="148"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="149"/>
+      <c r="E49" s="149"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
+      <c r="S49" s="151"/>
+      <c r="T49" s="151"/>
+      <c r="U49" s="151"/>
+      <c r="V49" s="151"/>
+      <c r="W49" s="151"/>
+      <c r="X49" s="151"/>
+      <c r="Y49" s="151"/>
+      <c r="Z49" s="151"/>
+      <c r="AA49" s="151"/>
+      <c r="AB49" s="151"/>
+      <c r="AC49" s="151"/>
+      <c r="AD49" s="151"/>
+      <c r="AE49" s="151"/>
+      <c r="AF49" s="151"/>
+      <c r="AG49" s="151"/>
+      <c r="AH49" s="151"/>
+      <c r="AI49" s="151"/>
+      <c r="AJ49" s="151"/>
+      <c r="AK49" s="151"/>
+      <c r="AL49" s="151"/>
+      <c r="AM49" s="151"/>
+      <c r="AN49" s="151"/>
+      <c r="AO49" s="151"/>
+      <c r="AP49" s="151"/>
+      <c r="AQ49" s="151"/>
+      <c r="AR49" s="151"/>
+      <c r="AS49" s="151"/>
+      <c r="AT49" s="151"/>
+      <c r="AU49" s="151"/>
+      <c r="AV49" s="151"/>
+      <c r="AW49" s="151"/>
+      <c r="AX49" s="151"/>
+      <c r="AY49" s="151"/>
+      <c r="AZ49" s="151"/>
     </row>
     <row r="50" spans="1:52">
-      <c r="A50" s="159"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="160"/>
-      <c r="E50" s="160"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="162"/>
-      <c r="L50" s="162"/>
-      <c r="M50" s="162"/>
-      <c r="N50" s="162"/>
-      <c r="O50" s="162"/>
-      <c r="P50" s="162"/>
-      <c r="Q50" s="162"/>
-      <c r="R50" s="162"/>
-      <c r="S50" s="162"/>
-      <c r="T50" s="162"/>
-      <c r="U50" s="162"/>
-      <c r="V50" s="162"/>
-      <c r="W50" s="162"/>
-      <c r="X50" s="162"/>
-      <c r="Y50" s="162"/>
-      <c r="Z50" s="162"/>
-      <c r="AA50" s="162"/>
-      <c r="AB50" s="162"/>
-      <c r="AC50" s="162"/>
-      <c r="AD50" s="162"/>
-      <c r="AE50" s="162"/>
-      <c r="AF50" s="162"/>
-      <c r="AG50" s="162"/>
-      <c r="AH50" s="162"/>
-      <c r="AI50" s="162"/>
-      <c r="AJ50" s="162"/>
-      <c r="AK50" s="162"/>
-      <c r="AL50" s="162"/>
-      <c r="AM50" s="162"/>
-      <c r="AN50" s="162"/>
-      <c r="AO50" s="162"/>
-      <c r="AP50" s="162"/>
-      <c r="AQ50" s="162"/>
-      <c r="AR50" s="162"/>
-      <c r="AS50" s="162"/>
-      <c r="AT50" s="162"/>
-      <c r="AU50" s="162"/>
-      <c r="AV50" s="162"/>
-      <c r="AW50" s="162"/>
-      <c r="AX50" s="162"/>
-      <c r="AY50" s="162"/>
-      <c r="AZ50" s="162"/>
+      <c r="A50" s="148"/>
+      <c r="B50" s="148"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="150"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="151"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151"/>
+      <c r="S50" s="151"/>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="151"/>
+      <c r="W50" s="151"/>
+      <c r="X50" s="151"/>
+      <c r="Y50" s="151"/>
+      <c r="Z50" s="151"/>
+      <c r="AA50" s="151"/>
+      <c r="AB50" s="151"/>
+      <c r="AC50" s="151"/>
+      <c r="AD50" s="151"/>
+      <c r="AE50" s="151"/>
+      <c r="AF50" s="151"/>
+      <c r="AG50" s="151"/>
+      <c r="AH50" s="151"/>
+      <c r="AI50" s="151"/>
+      <c r="AJ50" s="151"/>
+      <c r="AK50" s="151"/>
+      <c r="AL50" s="151"/>
+      <c r="AM50" s="151"/>
+      <c r="AN50" s="151"/>
+      <c r="AO50" s="151"/>
+      <c r="AP50" s="151"/>
+      <c r="AQ50" s="151"/>
+      <c r="AR50" s="151"/>
+      <c r="AS50" s="151"/>
+      <c r="AT50" s="151"/>
+      <c r="AU50" s="151"/>
+      <c r="AV50" s="151"/>
+      <c r="AW50" s="151"/>
+      <c r="AX50" s="151"/>
+      <c r="AY50" s="151"/>
+      <c r="AZ50" s="151"/>
     </row>
     <row r="51" spans="1:52">
-      <c r="A51" s="159"/>
-      <c r="B51" s="159"/>
-      <c r="C51" s="160"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="161"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="161"/>
-      <c r="J51" s="161"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="162"/>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="162"/>
-      <c r="Q51" s="162"/>
-      <c r="R51" s="162"/>
-      <c r="S51" s="162"/>
-      <c r="T51" s="162"/>
-      <c r="U51" s="162"/>
-      <c r="V51" s="162"/>
-      <c r="W51" s="162"/>
-      <c r="X51" s="162"/>
-      <c r="Y51" s="162"/>
-      <c r="Z51" s="162"/>
-      <c r="AA51" s="162"/>
-      <c r="AB51" s="162"/>
-      <c r="AC51" s="162"/>
-      <c r="AD51" s="162"/>
-      <c r="AE51" s="162"/>
-      <c r="AF51" s="162"/>
-      <c r="AG51" s="162"/>
-      <c r="AH51" s="162"/>
-      <c r="AI51" s="162"/>
-      <c r="AJ51" s="162"/>
-      <c r="AK51" s="162"/>
-      <c r="AL51" s="162"/>
-      <c r="AM51" s="162"/>
-      <c r="AN51" s="162"/>
-      <c r="AO51" s="162"/>
-      <c r="AP51" s="162"/>
-      <c r="AQ51" s="162"/>
-      <c r="AR51" s="162"/>
-      <c r="AS51" s="162"/>
-      <c r="AT51" s="162"/>
-      <c r="AU51" s="162"/>
-      <c r="AV51" s="162"/>
-      <c r="AW51" s="162"/>
-      <c r="AX51" s="162"/>
-      <c r="AY51" s="162"/>
-      <c r="AZ51" s="162"/>
+      <c r="A51" s="148"/>
+      <c r="B51" s="148"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="149"/>
+      <c r="E51" s="149"/>
+      <c r="F51" s="149"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="150"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="151"/>
+      <c r="N51" s="151"/>
+      <c r="O51" s="151"/>
+      <c r="P51" s="151"/>
+      <c r="Q51" s="151"/>
+      <c r="R51" s="151"/>
+      <c r="S51" s="151"/>
+      <c r="T51" s="151"/>
+      <c r="U51" s="151"/>
+      <c r="V51" s="151"/>
+      <c r="W51" s="151"/>
+      <c r="X51" s="151"/>
+      <c r="Y51" s="151"/>
+      <c r="Z51" s="151"/>
+      <c r="AA51" s="151"/>
+      <c r="AB51" s="151"/>
+      <c r="AC51" s="151"/>
+      <c r="AD51" s="151"/>
+      <c r="AE51" s="151"/>
+      <c r="AF51" s="151"/>
+      <c r="AG51" s="151"/>
+      <c r="AH51" s="151"/>
+      <c r="AI51" s="151"/>
+      <c r="AJ51" s="151"/>
+      <c r="AK51" s="151"/>
+      <c r="AL51" s="151"/>
+      <c r="AM51" s="151"/>
+      <c r="AN51" s="151"/>
+      <c r="AO51" s="151"/>
+      <c r="AP51" s="151"/>
+      <c r="AQ51" s="151"/>
+      <c r="AR51" s="151"/>
+      <c r="AS51" s="151"/>
+      <c r="AT51" s="151"/>
+      <c r="AU51" s="151"/>
+      <c r="AV51" s="151"/>
+      <c r="AW51" s="151"/>
+      <c r="AX51" s="151"/>
+      <c r="AY51" s="151"/>
+      <c r="AZ51" s="151"/>
     </row>
     <row r="52" spans="1:52">
-      <c r="A52" s="163"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="165"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="165"/>
-      <c r="J52" s="165"/>
-      <c r="K52" s="166"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="166"/>
-      <c r="N52" s="166"/>
-      <c r="O52" s="166"/>
-      <c r="P52" s="166"/>
-      <c r="Q52" s="166"/>
-      <c r="R52" s="166"/>
-      <c r="S52" s="166"/>
-      <c r="T52" s="166"/>
-      <c r="U52" s="166"/>
-      <c r="V52" s="166"/>
-      <c r="W52" s="166"/>
-      <c r="X52" s="166"/>
-      <c r="Y52" s="166"/>
-      <c r="Z52" s="166"/>
-      <c r="AA52" s="166"/>
-      <c r="AB52" s="166"/>
-      <c r="AC52" s="166"/>
-      <c r="AD52" s="166"/>
-      <c r="AE52" s="166"/>
-      <c r="AF52" s="166"/>
-      <c r="AG52" s="166"/>
-      <c r="AH52" s="166"/>
-      <c r="AI52" s="166"/>
-      <c r="AJ52" s="166"/>
-      <c r="AK52" s="166"/>
-      <c r="AL52" s="166"/>
-      <c r="AM52" s="166"/>
-      <c r="AN52" s="166"/>
-      <c r="AO52" s="166"/>
-      <c r="AP52" s="166"/>
-      <c r="AQ52" s="166"/>
-      <c r="AR52" s="166"/>
-      <c r="AS52" s="166"/>
-      <c r="AT52" s="166"/>
-      <c r="AU52" s="166"/>
-      <c r="AV52" s="166"/>
-      <c r="AW52" s="166"/>
-      <c r="AX52" s="166"/>
-      <c r="AY52" s="166"/>
-      <c r="AZ52" s="166"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="155"/>
+      <c r="Q52" s="155"/>
+      <c r="R52" s="155"/>
+      <c r="S52" s="155"/>
+      <c r="T52" s="155"/>
+      <c r="U52" s="155"/>
+      <c r="V52" s="155"/>
+      <c r="W52" s="155"/>
+      <c r="X52" s="155"/>
+      <c r="Y52" s="155"/>
+      <c r="Z52" s="155"/>
+      <c r="AA52" s="155"/>
+      <c r="AB52" s="155"/>
+      <c r="AC52" s="155"/>
+      <c r="AD52" s="155"/>
+      <c r="AE52" s="155"/>
+      <c r="AF52" s="155"/>
+      <c r="AG52" s="155"/>
+      <c r="AH52" s="155"/>
+      <c r="AI52" s="155"/>
+      <c r="AJ52" s="155"/>
+      <c r="AK52" s="155"/>
+      <c r="AL52" s="155"/>
+      <c r="AM52" s="155"/>
+      <c r="AN52" s="155"/>
+      <c r="AO52" s="155"/>
+      <c r="AP52" s="155"/>
+      <c r="AQ52" s="155"/>
+      <c r="AR52" s="155"/>
+      <c r="AS52" s="155"/>
+      <c r="AT52" s="155"/>
+      <c r="AU52" s="155"/>
+      <c r="AV52" s="155"/>
+      <c r="AW52" s="155"/>
+      <c r="AX52" s="155"/>
+      <c r="AY52" s="155"/>
+      <c r="AZ52" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A1:AL2"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="U4:AZ4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U5:AZ5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:T6"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:T7"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:T13"/>
+    <mergeCell ref="U13:AZ13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AZ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AZ17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AZ18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AZ19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AZ20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AZ21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:T22"/>
+    <mergeCell ref="U22:AZ22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="U23:AZ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:T24"/>
+    <mergeCell ref="U24:AZ24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:T25"/>
+    <mergeCell ref="U25:AZ25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:T26"/>
+    <mergeCell ref="U26:AZ26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:T27"/>
+    <mergeCell ref="U27:AZ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:T28"/>
+    <mergeCell ref="U28:AZ28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:T29"/>
+    <mergeCell ref="U29:AZ29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:T30"/>
+    <mergeCell ref="U30:AZ30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:T31"/>
+    <mergeCell ref="U31:AZ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="U32:AZ32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="U33:AZ33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:T34"/>
+    <mergeCell ref="U34:AZ34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:T35"/>
+    <mergeCell ref="U35:AZ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:T36"/>
+    <mergeCell ref="U36:AZ36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:T37"/>
+    <mergeCell ref="U37:AZ37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:T38"/>
+    <mergeCell ref="U38:AZ38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:T39"/>
+    <mergeCell ref="U39:AZ39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:T40"/>
+    <mergeCell ref="U40:AZ40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:T41"/>
+    <mergeCell ref="U41:AZ41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:T42"/>
+    <mergeCell ref="U42:AZ42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:T43"/>
+    <mergeCell ref="U43:AZ43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:T44"/>
+    <mergeCell ref="U44:AZ44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:T45"/>
+    <mergeCell ref="U45:AZ45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:T46"/>
+    <mergeCell ref="U46:AZ46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:T47"/>
+    <mergeCell ref="U47:AZ47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:T48"/>
+    <mergeCell ref="U48:AZ48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:T49"/>
+    <mergeCell ref="U49:AZ49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:T50"/>
+    <mergeCell ref="U50:AZ50"/>
     <mergeCell ref="A51:B51"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="G51:J51"/>
@@ -36874,246 +37171,6 @@
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="K52:T52"/>
     <mergeCell ref="U52:AZ52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:T49"/>
-    <mergeCell ref="U49:AZ49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:T50"/>
-    <mergeCell ref="U50:AZ50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:T47"/>
-    <mergeCell ref="U47:AZ47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:T48"/>
-    <mergeCell ref="U48:AZ48"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:T45"/>
-    <mergeCell ref="U45:AZ45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:T46"/>
-    <mergeCell ref="U46:AZ46"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:T43"/>
-    <mergeCell ref="U43:AZ43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:T44"/>
-    <mergeCell ref="U44:AZ44"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:T41"/>
-    <mergeCell ref="U41:AZ41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:T42"/>
-    <mergeCell ref="U42:AZ42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:T39"/>
-    <mergeCell ref="U39:AZ39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:T40"/>
-    <mergeCell ref="U40:AZ40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:T37"/>
-    <mergeCell ref="U37:AZ37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:T38"/>
-    <mergeCell ref="U38:AZ38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:T35"/>
-    <mergeCell ref="U35:AZ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:T36"/>
-    <mergeCell ref="U36:AZ36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="U33:AZ33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:T34"/>
-    <mergeCell ref="U34:AZ34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:T31"/>
-    <mergeCell ref="U31:AZ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="U32:AZ32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:T29"/>
-    <mergeCell ref="U29:AZ29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:T30"/>
-    <mergeCell ref="U30:AZ30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:T27"/>
-    <mergeCell ref="U27:AZ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:T28"/>
-    <mergeCell ref="U28:AZ28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:T25"/>
-    <mergeCell ref="U25:AZ25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:T26"/>
-    <mergeCell ref="U26:AZ26"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="U23:AZ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:T24"/>
-    <mergeCell ref="U24:AZ24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AZ21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:T22"/>
-    <mergeCell ref="U22:AZ22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AZ19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AZ20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AZ17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AZ18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AZ16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:T13"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:T7"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="K5:T5"/>
-    <mergeCell ref="U5:AZ5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:T6"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="A1:AL2"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AZ1"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="U4:AZ4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37887,7 +37944,7 @@
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
-      <c r="O17" s="45"/>
+      <c r="O17" s="39"/>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
       <c r="R17" s="45"/>
@@ -37947,7 +38004,7 @@
       <c r="L18" s="47"/>
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
-      <c r="O18" s="45"/>
+      <c r="O18" s="47"/>
       <c r="P18" s="45"/>
       <c r="Q18" s="45"/>
       <c r="R18" s="45"/>
@@ -38005,7 +38062,7 @@
       <c r="L19" s="47"/>
       <c r="M19" s="47"/>
       <c r="N19" s="47"/>
-      <c r="O19" s="45"/>
+      <c r="O19" s="47"/>
       <c r="P19" s="45"/>
       <c r="Q19" s="45"/>
       <c r="R19" s="45"/>
@@ -38063,7 +38120,7 @@
       <c r="L20" s="47"/>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
-      <c r="O20" s="45"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="41" t="s">
@@ -38131,7 +38188,7 @@
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
-      <c r="O21" s="45"/>
+      <c r="O21" s="47"/>
       <c r="P21" s="45"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="110"/>
@@ -38191,7 +38248,7 @@
       <c r="L22" s="47"/>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
-      <c r="O22" s="45"/>
+      <c r="O22" s="47"/>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="110"/>
@@ -38251,7 +38308,7 @@
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
-      <c r="O23" s="45"/>
+      <c r="O23" s="47"/>
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
@@ -38311,7 +38368,7 @@
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
-      <c r="O24" s="60"/>
+      <c r="O24" s="61"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
       <c r="R24" s="60"/>
@@ -38373,7 +38430,7 @@
       <c r="L25" s="47"/>
       <c r="M25" s="47"/>
       <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="60"/>
       <c r="R25" s="60"/>
@@ -38435,7 +38492,7 @@
       <c r="L26" s="47"/>
       <c r="M26" s="102"/>
       <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
+      <c r="O26" s="47"/>
       <c r="P26" s="102"/>
       <c r="Q26" s="102"/>
       <c r="R26" s="45"/>
@@ -38499,7 +38556,7 @@
       <c r="L27" s="45"/>
       <c r="M27" s="39"/>
       <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
+      <c r="O27" s="47"/>
       <c r="P27" s="102"/>
       <c r="Q27" s="102"/>
       <c r="R27" s="45"/>
@@ -38565,7 +38622,7 @@
       <c r="L28" s="38"/>
       <c r="M28" s="39"/>
       <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
+      <c r="O28" s="39"/>
       <c r="P28" s="38"/>
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
@@ -38629,7 +38686,7 @@
       <c r="L29" s="38"/>
       <c r="M29" s="39"/>
       <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
+      <c r="O29" s="39"/>
       <c r="P29" s="38"/>
       <c r="Q29" s="38"/>
       <c r="R29" s="57"/>
@@ -38693,7 +38750,7 @@
       <c r="L30" s="45"/>
       <c r="M30" s="47"/>
       <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
+      <c r="O30" s="47"/>
       <c r="P30" s="45"/>
       <c r="Q30" s="45"/>
       <c r="R30" s="57"/>
@@ -38758,35 +38815,35 @@
       <c r="M31" s="47"/>
       <c r="N31" s="45"/>
       <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="38"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="105"/>
       <c r="AS31" s="45"/>
       <c r="AT31" s="45"/>
       <c r="AU31" s="45"/>
@@ -38852,7 +38909,7 @@
       <c r="AO32" s="45"/>
       <c r="AP32" s="47"/>
       <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
+      <c r="AR32" s="96"/>
       <c r="AS32" s="45"/>
       <c r="AT32" s="45"/>
       <c r="AU32" s="45"/>
@@ -38916,7 +38973,7 @@
       <c r="AO33" s="45"/>
       <c r="AP33" s="47"/>
       <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
+      <c r="AR33" s="96"/>
       <c r="AS33" s="45"/>
       <c r="AT33" s="45"/>
       <c r="AU33" s="45"/>
@@ -38980,7 +39037,7 @@
       <c r="AO34" s="45"/>
       <c r="AP34" s="47"/>
       <c r="AQ34" s="57"/>
-      <c r="AR34" s="56"/>
+      <c r="AR34" s="75"/>
       <c r="AS34" s="45"/>
       <c r="AT34" s="45"/>
       <c r="AU34" s="45"/>
@@ -40926,7 +40983,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA70"/>
+  <dimension ref="A1:BA78"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:V2"/>
@@ -42835,11 +42892,11 @@
       <c r="B36" s="44"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="35" t="s">
         <v>308</v>
       </c>
@@ -42892,7 +42949,7 @@
       <c r="B37" s="44"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
+      <c r="E37" s="57"/>
       <c r="F37" s="45"/>
       <c r="G37" s="45"/>
       <c r="H37" s="44"/>
@@ -42949,7 +43006,7 @@
       <c r="B38" s="44"/>
       <c r="C38" s="45"/>
       <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="45"/>
       <c r="G38" s="45"/>
       <c r="H38" s="44"/>
@@ -43006,7 +43063,7 @@
       <c r="B39" s="44"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="45"/>
       <c r="G39" s="45"/>
       <c r="H39" s="44"/>
@@ -43063,7 +43120,7 @@
       <c r="B40" s="44"/>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
+      <c r="E40" s="57"/>
       <c r="F40" s="45"/>
       <c r="G40" s="45"/>
       <c r="H40" s="44"/>
@@ -43120,7 +43177,7 @@
       <c r="B41" s="44"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
+      <c r="E41" s="57"/>
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
       <c r="H41" s="44"/>
@@ -43177,7 +43234,7 @@
       <c r="B42" s="44"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="45"/>
       <c r="G42" s="45"/>
       <c r="H42" s="44"/>
@@ -43228,660 +43285,758 @@
       <c r="BA42" s="47"/>
     </row>
     <row r="43" spans="1:53">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="56"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
       <c r="H43" s="53"/>
       <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="53"/>
-      <c r="AF43" s="53"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="60"/>
-      <c r="AL43" s="60"/>
-      <c r="AM43" s="60"/>
-      <c r="AN43" s="60"/>
-      <c r="AO43" s="60"/>
-      <c r="AP43" s="60"/>
-      <c r="AQ43" s="60"/>
-      <c r="AR43" s="60"/>
-      <c r="AS43" s="60"/>
-      <c r="AT43" s="60"/>
-      <c r="AU43" s="60"/>
-      <c r="AV43" s="60"/>
-      <c r="AW43" s="60"/>
-      <c r="AX43" s="60"/>
-      <c r="AY43" s="60"/>
-      <c r="AZ43" s="60"/>
-      <c r="BA43" s="61"/>
+      <c r="J43" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="76">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="45"/>
+      <c r="AL43" s="45"/>
+      <c r="AM43" s="45"/>
+      <c r="AN43" s="45"/>
+      <c r="AO43" s="45"/>
+      <c r="AP43" s="45"/>
+      <c r="AQ43" s="45"/>
+      <c r="AR43" s="45"/>
+      <c r="AS43" s="45"/>
+      <c r="AT43" s="45"/>
+      <c r="AU43" s="45"/>
+      <c r="AV43" s="45"/>
+      <c r="AW43" s="45"/>
+      <c r="AX43" s="45"/>
+      <c r="AY43" s="45"/>
+      <c r="AZ43" s="45"/>
+      <c r="BA43" s="47"/>
     </row>
     <row r="44" spans="1:53">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="40"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="39"/>
+      <c r="R44" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+      <c r="W44" s="81"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="45"/>
+      <c r="AL44" s="45"/>
+      <c r="AM44" s="45"/>
+      <c r="AN44" s="45"/>
+      <c r="AO44" s="45"/>
+      <c r="AP44" s="45"/>
+      <c r="AQ44" s="45"/>
+      <c r="AR44" s="45"/>
+      <c r="AS44" s="45"/>
+      <c r="AT44" s="45"/>
+      <c r="AU44" s="45"/>
+      <c r="AV44" s="45"/>
+      <c r="AW44" s="45"/>
+      <c r="AX44" s="45"/>
+      <c r="AY44" s="45"/>
+      <c r="AZ44" s="45"/>
+      <c r="BA44" s="47"/>
+    </row>
+    <row r="45" spans="1:53">
+      <c r="A45" s="40"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="113"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="113"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="45"/>
+      <c r="AL45" s="45"/>
+      <c r="AM45" s="45"/>
+      <c r="AN45" s="45"/>
+      <c r="AO45" s="45"/>
+      <c r="AP45" s="45"/>
+      <c r="AQ45" s="45"/>
+      <c r="AR45" s="45"/>
+      <c r="AS45" s="45"/>
+      <c r="AT45" s="45"/>
+      <c r="AU45" s="45"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="45"/>
+      <c r="AX45" s="45"/>
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="45"/>
+      <c r="BA45" s="47"/>
+    </row>
+    <row r="46" spans="1:53">
+      <c r="A46" s="40"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="115"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="113"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="45"/>
+      <c r="AL46" s="45"/>
+      <c r="AM46" s="45"/>
+      <c r="AN46" s="45"/>
+      <c r="AO46" s="45"/>
+      <c r="AP46" s="45"/>
+      <c r="AQ46" s="45"/>
+      <c r="AR46" s="45"/>
+      <c r="AS46" s="45"/>
+      <c r="AT46" s="45"/>
+      <c r="AU46" s="45"/>
+      <c r="AV46" s="45"/>
+      <c r="AW46" s="45"/>
+      <c r="AX46" s="45"/>
+      <c r="AY46" s="45"/>
+      <c r="AZ46" s="45"/>
+      <c r="BA46" s="47"/>
+    </row>
+    <row r="47" spans="1:53">
+      <c r="A47" s="40"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="S47" s="104"/>
+      <c r="T47" s="104"/>
+      <c r="U47" s="104"/>
+      <c r="V47" s="104"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="45"/>
+      <c r="AL47" s="45"/>
+      <c r="AM47" s="45"/>
+      <c r="AN47" s="45"/>
+      <c r="AO47" s="45"/>
+      <c r="AP47" s="45"/>
+      <c r="AQ47" s="45"/>
+      <c r="AR47" s="45"/>
+      <c r="AS47" s="45"/>
+      <c r="AT47" s="45"/>
+      <c r="AU47" s="45"/>
+      <c r="AV47" s="45"/>
+      <c r="AW47" s="45"/>
+      <c r="AX47" s="45"/>
+      <c r="AY47" s="45"/>
+      <c r="AZ47" s="45"/>
+      <c r="BA47" s="47"/>
+    </row>
+    <row r="48" spans="1:53">
+      <c r="A48" s="40"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
+      <c r="AP48" s="45"/>
+      <c r="AQ48" s="45"/>
+      <c r="AR48" s="45"/>
+      <c r="AS48" s="45"/>
+      <c r="AT48" s="45"/>
+      <c r="AU48" s="45"/>
+      <c r="AV48" s="45"/>
+      <c r="AW48" s="45"/>
+      <c r="AX48" s="45"/>
+      <c r="AY48" s="45"/>
+      <c r="AZ48" s="45"/>
+      <c r="BA48" s="47"/>
+    </row>
+    <row r="49" spans="1:53">
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="53"/>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="53"/>
+      <c r="S49" s="53"/>
+      <c r="T49" s="53"/>
+      <c r="U49" s="53"/>
+      <c r="V49" s="53"/>
+      <c r="W49" s="53"/>
+      <c r="X49" s="53"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="53"/>
+      <c r="AF49" s="53"/>
+      <c r="AG49" s="53"/>
+      <c r="AH49" s="53"/>
+      <c r="AI49" s="53"/>
+      <c r="AJ49" s="53"/>
+      <c r="AK49" s="60"/>
+      <c r="AL49" s="60"/>
+      <c r="AM49" s="60"/>
+      <c r="AN49" s="60"/>
+      <c r="AO49" s="60"/>
+      <c r="AP49" s="60"/>
+      <c r="AQ49" s="60"/>
+      <c r="AR49" s="60"/>
+      <c r="AS49" s="60"/>
+      <c r="AT49" s="60"/>
+      <c r="AU49" s="60"/>
+      <c r="AV49" s="60"/>
+      <c r="AW49" s="60"/>
+      <c r="AX49" s="60"/>
+      <c r="AY49" s="60"/>
+      <c r="AZ49" s="60"/>
+      <c r="BA49" s="61"/>
+    </row>
+    <row r="50" spans="1:53">
+      <c r="A50" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="168"/>
-      <c r="P44" s="168"/>
-      <c r="Q44" s="168"/>
-      <c r="R44" s="168"/>
-      <c r="S44" s="168"/>
-      <c r="T44" s="168"/>
-      <c r="U44" s="168"/>
-      <c r="V44" s="168"/>
-      <c r="W44" s="168"/>
-      <c r="X44" s="168"/>
-      <c r="Y44" s="168"/>
-      <c r="Z44" s="168"/>
-      <c r="AA44" s="168"/>
-      <c r="AB44" s="168"/>
-      <c r="AC44" s="168"/>
-      <c r="AD44" s="168"/>
-      <c r="AE44" s="168"/>
-      <c r="AF44" s="168"/>
-      <c r="AG44" s="168"/>
-      <c r="AH44" s="168"/>
-      <c r="AI44" s="168"/>
-      <c r="AJ44" s="168"/>
-      <c r="AK44" s="168"/>
-      <c r="AL44" s="168"/>
-      <c r="AM44" s="168"/>
-      <c r="AN44" s="168"/>
-      <c r="AO44" s="168"/>
-      <c r="AP44" s="168"/>
-      <c r="AQ44" s="168"/>
-      <c r="AR44" s="168"/>
-      <c r="AS44" s="168"/>
-      <c r="AT44" s="168"/>
-      <c r="AU44" s="168"/>
-      <c r="AV44" s="168"/>
-      <c r="AW44" s="168"/>
-      <c r="AX44" s="168"/>
-      <c r="AY44" s="168"/>
-      <c r="AZ44" s="168"/>
-      <c r="BA44" s="169"/>
-    </row>
-    <row r="45" spans="1:53">
-      <c r="A45" s="90" t="s">
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="168"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="168"/>
+      <c r="L50" s="168"/>
+      <c r="M50" s="168"/>
+      <c r="N50" s="168"/>
+      <c r="O50" s="168"/>
+      <c r="P50" s="168"/>
+      <c r="Q50" s="168"/>
+      <c r="R50" s="168"/>
+      <c r="S50" s="168"/>
+      <c r="T50" s="168"/>
+      <c r="U50" s="168"/>
+      <c r="V50" s="168"/>
+      <c r="W50" s="168"/>
+      <c r="X50" s="168"/>
+      <c r="Y50" s="168"/>
+      <c r="Z50" s="168"/>
+      <c r="AA50" s="168"/>
+      <c r="AB50" s="168"/>
+      <c r="AC50" s="168"/>
+      <c r="AD50" s="168"/>
+      <c r="AE50" s="168"/>
+      <c r="AF50" s="168"/>
+      <c r="AG50" s="168"/>
+      <c r="AH50" s="168"/>
+      <c r="AI50" s="168"/>
+      <c r="AJ50" s="168"/>
+      <c r="AK50" s="168"/>
+      <c r="AL50" s="168"/>
+      <c r="AM50" s="168"/>
+      <c r="AN50" s="168"/>
+      <c r="AO50" s="168"/>
+      <c r="AP50" s="168"/>
+      <c r="AQ50" s="168"/>
+      <c r="AR50" s="168"/>
+      <c r="AS50" s="168"/>
+      <c r="AT50" s="168"/>
+      <c r="AU50" s="168"/>
+      <c r="AV50" s="168"/>
+      <c r="AW50" s="168"/>
+      <c r="AX50" s="168"/>
+      <c r="AY50" s="168"/>
+      <c r="AZ50" s="168"/>
+      <c r="BA50" s="169"/>
+    </row>
+    <row r="51" spans="1:53">
+      <c r="A51" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="36" t="s">
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
-      <c r="Y45" s="36"/>
-      <c r="Z45" s="36"/>
-      <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AC45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="36"/>
-      <c r="AF45" s="36"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AI45" s="36"/>
-      <c r="AJ45" s="36"/>
-      <c r="AK45" s="36"/>
-      <c r="AL45" s="36"/>
-      <c r="AM45" s="36"/>
-      <c r="AN45" s="36"/>
-      <c r="AO45" s="36"/>
-      <c r="AP45" s="36"/>
-      <c r="AQ45" s="36"/>
-      <c r="AR45" s="36"/>
-      <c r="AS45" s="36"/>
-      <c r="AT45" s="36"/>
-      <c r="AU45" s="36"/>
-      <c r="AV45" s="36"/>
-      <c r="AW45" s="36"/>
-      <c r="AX45" s="36"/>
-      <c r="AY45" s="36"/>
-      <c r="AZ45" s="36"/>
-      <c r="BA45" s="51"/>
-    </row>
-    <row r="46" spans="1:53">
-      <c r="A46" s="62"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="63"/>
-      <c r="S46" s="63"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="63"/>
-      <c r="V46" s="63"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="63"/>
-      <c r="Y46" s="63"/>
-      <c r="Z46" s="63"/>
-      <c r="AA46" s="63"/>
-      <c r="AB46" s="63"/>
-      <c r="AC46" s="63"/>
-      <c r="AD46" s="63"/>
-      <c r="AE46" s="63"/>
-      <c r="AF46" s="63"/>
-      <c r="AG46" s="63"/>
-      <c r="AH46" s="63"/>
-      <c r="AI46" s="63"/>
-      <c r="AJ46" s="63"/>
-      <c r="AK46" s="38"/>
-      <c r="AL46" s="38"/>
-      <c r="AM46" s="38"/>
-      <c r="AN46" s="38"/>
-      <c r="AO46" s="38"/>
-      <c r="AP46" s="38"/>
-      <c r="AQ46" s="38"/>
-      <c r="AR46" s="38"/>
-      <c r="AS46" s="38"/>
-      <c r="AT46" s="38"/>
-      <c r="AU46" s="38"/>
-      <c r="AV46" s="38"/>
-      <c r="AW46" s="38"/>
-      <c r="AX46" s="38"/>
-      <c r="AY46" s="38"/>
-      <c r="AZ46" s="38"/>
-      <c r="BA46" s="39"/>
-    </row>
-    <row r="47" spans="1:53" ht="10.5" customHeight="1">
-      <c r="A47" s="57"/>
-      <c r="B47" s="183" t="s">
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="36"/>
+      <c r="V51" s="36"/>
+      <c r="W51" s="36"/>
+      <c r="X51" s="36"/>
+      <c r="Y51" s="36"/>
+      <c r="Z51" s="36"/>
+      <c r="AA51" s="36"/>
+      <c r="AB51" s="36"/>
+      <c r="AC51" s="36"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="36"/>
+      <c r="AH51" s="36"/>
+      <c r="AI51" s="36"/>
+      <c r="AJ51" s="36"/>
+      <c r="AK51" s="36"/>
+      <c r="AL51" s="36"/>
+      <c r="AM51" s="36"/>
+      <c r="AN51" s="36"/>
+      <c r="AO51" s="36"/>
+      <c r="AP51" s="36"/>
+      <c r="AQ51" s="36"/>
+      <c r="AR51" s="36"/>
+      <c r="AS51" s="36"/>
+      <c r="AT51" s="36"/>
+      <c r="AU51" s="36"/>
+      <c r="AV51" s="36"/>
+      <c r="AW51" s="36"/>
+      <c r="AX51" s="36"/>
+      <c r="AY51" s="36"/>
+      <c r="AZ51" s="36"/>
+      <c r="BA51" s="51"/>
+    </row>
+    <row r="52" spans="1:53">
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="63"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="63"/>
+      <c r="Y52" s="63"/>
+      <c r="Z52" s="63"/>
+      <c r="AA52" s="63"/>
+      <c r="AB52" s="63"/>
+      <c r="AC52" s="63"/>
+      <c r="AD52" s="63"/>
+      <c r="AE52" s="63"/>
+      <c r="AF52" s="63"/>
+      <c r="AG52" s="63"/>
+      <c r="AH52" s="63"/>
+      <c r="AI52" s="63"/>
+      <c r="AJ52" s="63"/>
+      <c r="AK52" s="38"/>
+      <c r="AL52" s="38"/>
+      <c r="AM52" s="38"/>
+      <c r="AN52" s="38"/>
+      <c r="AO52" s="38"/>
+      <c r="AP52" s="38"/>
+      <c r="AQ52" s="38"/>
+      <c r="AR52" s="38"/>
+      <c r="AS52" s="38"/>
+      <c r="AT52" s="38"/>
+      <c r="AU52" s="38"/>
+      <c r="AV52" s="38"/>
+      <c r="AW52" s="38"/>
+      <c r="AX52" s="38"/>
+      <c r="AY52" s="38"/>
+      <c r="AZ52" s="38"/>
+      <c r="BA52" s="39"/>
+    </row>
+    <row r="53" spans="1:53" ht="10.5" customHeight="1">
+      <c r="A53" s="57"/>
+      <c r="B53" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="184"/>
-      <c r="D47" s="184"/>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="185"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="183" t="s">
+      <c r="C53" s="184"/>
+      <c r="D53" s="184"/>
+      <c r="E53" s="184"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="185"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="184"/>
-      <c r="K47" s="184"/>
-      <c r="L47" s="184"/>
-      <c r="M47" s="184"/>
-      <c r="N47" s="185"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="183" t="s">
+      <c r="J53" s="184"/>
+      <c r="K53" s="184"/>
+      <c r="L53" s="184"/>
+      <c r="M53" s="184"/>
+      <c r="N53" s="185"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="Q47" s="184"/>
-      <c r="R47" s="184"/>
-      <c r="S47" s="184"/>
-      <c r="T47" s="184"/>
-      <c r="U47" s="185"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="183" t="s">
+      <c r="Q53" s="184"/>
+      <c r="R53" s="184"/>
+      <c r="S53" s="184"/>
+      <c r="T53" s="184"/>
+      <c r="U53" s="185"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="X47" s="184"/>
-      <c r="Y47" s="184"/>
-      <c r="Z47" s="184"/>
-      <c r="AA47" s="184"/>
-      <c r="AB47" s="185"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="183" t="s">
+      <c r="X53" s="184"/>
+      <c r="Y53" s="184"/>
+      <c r="Z53" s="184"/>
+      <c r="AA53" s="184"/>
+      <c r="AB53" s="185"/>
+      <c r="AC53" s="45"/>
+      <c r="AD53" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="AE47" s="184"/>
-      <c r="AF47" s="184"/>
-      <c r="AG47" s="184"/>
-      <c r="AH47" s="184"/>
-      <c r="AI47" s="185"/>
-      <c r="AJ47" s="45"/>
-      <c r="AK47" s="183" t="s">
+      <c r="AE53" s="184"/>
+      <c r="AF53" s="184"/>
+      <c r="AG53" s="184"/>
+      <c r="AH53" s="184"/>
+      <c r="AI53" s="185"/>
+      <c r="AJ53" s="45"/>
+      <c r="AK53" s="183" t="s">
         <v>205</v>
       </c>
-      <c r="AL47" s="184"/>
-      <c r="AM47" s="184"/>
-      <c r="AN47" s="184"/>
-      <c r="AO47" s="184"/>
-      <c r="AP47" s="185"/>
-      <c r="BA47" s="23"/>
-    </row>
-    <row r="48" spans="1:53">
-      <c r="A48" s="57"/>
-      <c r="B48" s="186"/>
-      <c r="C48" s="187"/>
-      <c r="D48" s="187"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="187"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="186"/>
-      <c r="J48" s="187"/>
-      <c r="K48" s="187"/>
-      <c r="L48" s="187"/>
-      <c r="M48" s="187"/>
-      <c r="N48" s="188"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="186"/>
-      <c r="Q48" s="187"/>
-      <c r="R48" s="187"/>
-      <c r="S48" s="187"/>
-      <c r="T48" s="187"/>
-      <c r="U48" s="188"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="186"/>
-      <c r="X48" s="187"/>
-      <c r="Y48" s="187"/>
-      <c r="Z48" s="187"/>
-      <c r="AA48" s="187"/>
-      <c r="AB48" s="188"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="186"/>
-      <c r="AE48" s="187"/>
-      <c r="AF48" s="187"/>
-      <c r="AG48" s="187"/>
-      <c r="AH48" s="187"/>
-      <c r="AI48" s="188"/>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="186"/>
-      <c r="AL48" s="187"/>
-      <c r="AM48" s="187"/>
-      <c r="AN48" s="187"/>
-      <c r="AO48" s="187"/>
-      <c r="AP48" s="188"/>
-      <c r="BA48" s="23"/>
-    </row>
-    <row r="49" spans="1:53">
-      <c r="A49" s="57"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="65"/>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="45"/>
-      <c r="AC49" s="45"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="45"/>
-      <c r="AF49" s="45"/>
-      <c r="AG49" s="65"/>
-      <c r="AH49" s="45"/>
-      <c r="AI49" s="45"/>
-      <c r="AJ49" s="45"/>
-      <c r="AK49" s="45"/>
-      <c r="AL49" s="45"/>
-      <c r="AM49" s="45"/>
-      <c r="AN49" s="65"/>
-      <c r="AO49" s="45"/>
-      <c r="AP49" s="45"/>
-      <c r="BA49" s="23"/>
-    </row>
-    <row r="50" spans="1:53">
-      <c r="A50" s="57"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="45"/>
-      <c r="AB50" s="45"/>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="45"/>
-      <c r="AE50" s="45"/>
-      <c r="AF50" s="45"/>
-      <c r="AG50" s="64"/>
-      <c r="AH50" s="45"/>
-      <c r="AI50" s="45"/>
-      <c r="AJ50" s="45"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="45"/>
-      <c r="AM50" s="45"/>
-      <c r="AN50" s="64"/>
-      <c r="AO50" s="45"/>
-      <c r="AP50" s="45"/>
-      <c r="BA50" s="23"/>
-    </row>
-    <row r="51" spans="1:53">
-      <c r="A51" s="57"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="64"/>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="45"/>
-      <c r="AC51" s="45"/>
-      <c r="AD51" s="45"/>
-      <c r="AE51" s="45"/>
-      <c r="AF51" s="45"/>
-      <c r="AG51" s="64"/>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="45"/>
-      <c r="AJ51" s="45"/>
-      <c r="AK51" s="45"/>
-      <c r="AL51" s="45"/>
-      <c r="AM51" s="45"/>
-      <c r="AN51" s="64"/>
-      <c r="AO51" s="45"/>
-      <c r="AP51" s="45"/>
-      <c r="BA51" s="23"/>
-    </row>
-    <row r="52" spans="1:53">
-      <c r="A52" s="57"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="64"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-      <c r="W52" s="45"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="64"/>
-      <c r="AA52" s="45"/>
-      <c r="AB52" s="45"/>
-      <c r="AC52" s="45"/>
-      <c r="AD52" s="45"/>
-      <c r="AE52" s="45"/>
-      <c r="AF52" s="45"/>
-      <c r="AG52" s="64"/>
-      <c r="AH52" s="45"/>
-      <c r="AI52" s="45"/>
-      <c r="AJ52" s="45"/>
-      <c r="AK52" s="45"/>
-      <c r="AL52" s="45"/>
-      <c r="AM52" s="45"/>
-      <c r="AN52" s="64"/>
-      <c r="AO52" s="45"/>
-      <c r="AP52" s="45"/>
-      <c r="BA52" s="23"/>
-    </row>
-    <row r="53" spans="1:53">
-      <c r="A53" s="57"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="64"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="64"/>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="45"/>
-      <c r="AC53" s="45"/>
-      <c r="AD53" s="45"/>
-      <c r="AE53" s="45"/>
-      <c r="AF53" s="45"/>
-      <c r="AG53" s="64"/>
-      <c r="AH53" s="45"/>
-      <c r="AI53" s="45"/>
-      <c r="AJ53" s="45"/>
-      <c r="AK53" s="45"/>
-      <c r="AL53" s="45"/>
-      <c r="AM53" s="45"/>
-      <c r="AN53" s="64"/>
-      <c r="AO53" s="45"/>
-      <c r="AP53" s="45"/>
+      <c r="AL53" s="184"/>
+      <c r="AM53" s="184"/>
+      <c r="AN53" s="184"/>
+      <c r="AO53" s="184"/>
+      <c r="AP53" s="185"/>
+      <c r="AR53" s="183" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS53" s="184"/>
+      <c r="AT53" s="184"/>
+      <c r="AU53" s="184"/>
+      <c r="AV53" s="184"/>
+      <c r="AW53" s="185"/>
       <c r="BA53" s="23"/>
     </row>
     <row r="54" spans="1:53">
       <c r="A54" s="57"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
+      <c r="B54" s="186"/>
+      <c r="C54" s="187"/>
+      <c r="D54" s="187"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="188"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="186"/>
+      <c r="J54" s="187"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="187"/>
+      <c r="M54" s="187"/>
+      <c r="N54" s="188"/>
       <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="64"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
+      <c r="P54" s="186"/>
+      <c r="Q54" s="187"/>
+      <c r="R54" s="187"/>
+      <c r="S54" s="187"/>
+      <c r="T54" s="187"/>
+      <c r="U54" s="188"/>
       <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="64"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="45"/>
+      <c r="W54" s="186"/>
+      <c r="X54" s="187"/>
+      <c r="Y54" s="187"/>
+      <c r="Z54" s="187"/>
+      <c r="AA54" s="187"/>
+      <c r="AB54" s="188"/>
       <c r="AC54" s="45"/>
-      <c r="AD54" s="45"/>
-      <c r="AE54" s="45"/>
-      <c r="AF54" s="45"/>
-      <c r="AG54" s="64"/>
-      <c r="AH54" s="45"/>
-      <c r="AI54" s="45"/>
+      <c r="AD54" s="186"/>
+      <c r="AE54" s="187"/>
+      <c r="AF54" s="187"/>
+      <c r="AG54" s="187"/>
+      <c r="AH54" s="187"/>
+      <c r="AI54" s="188"/>
       <c r="AJ54" s="45"/>
-      <c r="AK54" s="45"/>
-      <c r="AL54" s="45"/>
-      <c r="AM54" s="45"/>
-      <c r="AN54" s="64"/>
-      <c r="AO54" s="45"/>
-      <c r="AP54" s="45"/>
+      <c r="AK54" s="186"/>
+      <c r="AL54" s="187"/>
+      <c r="AM54" s="187"/>
+      <c r="AN54" s="187"/>
+      <c r="AO54" s="187"/>
+      <c r="AP54" s="188"/>
+      <c r="AR54" s="186"/>
+      <c r="AS54" s="187"/>
+      <c r="AT54" s="187"/>
+      <c r="AU54" s="187"/>
+      <c r="AV54" s="187"/>
+      <c r="AW54" s="188"/>
       <c r="BA54" s="23"/>
     </row>
     <row r="55" spans="1:53">
       <c r="A55" s="57"/>
-      <c r="B55" s="183" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="184"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="184"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="185"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="57"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
-      <c r="L55" s="64"/>
+      <c r="L55" s="65"/>
       <c r="M55" s="45"/>
       <c r="N55" s="45"/>
       <c r="O55" s="45"/>
       <c r="P55" s="45"/>
       <c r="Q55" s="45"/>
       <c r="R55" s="45"/>
-      <c r="S55" s="64"/>
+      <c r="S55" s="65"/>
       <c r="T55" s="45"/>
       <c r="U55" s="45"/>
       <c r="V55" s="45"/>
       <c r="W55" s="45"/>
       <c r="X55" s="45"/>
       <c r="Y55" s="45"/>
-      <c r="Z55" s="64"/>
+      <c r="Z55" s="65"/>
       <c r="AA55" s="45"/>
       <c r="AB55" s="45"/>
       <c r="AC55" s="45"/>
       <c r="AD55" s="45"/>
       <c r="AE55" s="45"/>
       <c r="AF55" s="45"/>
-      <c r="AG55" s="64"/>
+      <c r="AG55" s="65"/>
       <c r="AH55" s="45"/>
       <c r="AI55" s="45"/>
       <c r="AJ55" s="45"/>
       <c r="AK55" s="45"/>
       <c r="AL55" s="45"/>
       <c r="AM55" s="45"/>
-      <c r="AN55" s="64"/>
+      <c r="AN55" s="65"/>
       <c r="AO55" s="45"/>
       <c r="AP55" s="45"/>
+      <c r="AR55" s="45"/>
+      <c r="AS55" s="45"/>
+      <c r="AT55" s="45"/>
+      <c r="AU55" s="65"/>
+      <c r="AV55" s="45"/>
+      <c r="AW55" s="45"/>
       <c r="BA55" s="23"/>
     </row>
     <row r="56" spans="1:53">
       <c r="A56" s="57"/>
-      <c r="B56" s="186"/>
-      <c r="C56" s="187"/>
-      <c r="D56" s="187"/>
-      <c r="E56" s="187"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="188"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="45"/>
       <c r="I56" s="45"/>
       <c r="J56" s="45"/>
@@ -43917,13 +44072,19 @@
       <c r="AN56" s="64"/>
       <c r="AO56" s="45"/>
       <c r="AP56" s="45"/>
+      <c r="AR56" s="45"/>
+      <c r="AS56" s="45"/>
+      <c r="AT56" s="45"/>
+      <c r="AU56" s="64"/>
+      <c r="AV56" s="45"/>
+      <c r="AW56" s="45"/>
       <c r="BA56" s="23"/>
     </row>
     <row r="57" spans="1:53">
       <c r="A57" s="57"/>
       <c r="B57" s="45"/>
       <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="D57" s="95"/>
       <c r="E57" s="64"/>
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
@@ -43962,6 +44123,12 @@
       <c r="AN57" s="64"/>
       <c r="AO57" s="45"/>
       <c r="AP57" s="45"/>
+      <c r="AR57" s="45"/>
+      <c r="AS57" s="45"/>
+      <c r="AT57" s="45"/>
+      <c r="AU57" s="64"/>
+      <c r="AV57" s="45"/>
+      <c r="AW57" s="45"/>
       <c r="BA57" s="23"/>
     </row>
     <row r="58" spans="1:53">
@@ -43970,7 +44137,7 @@
       <c r="C58" s="45"/>
       <c r="D58" s="45"/>
       <c r="E58" s="34" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="F58" s="60"/>
       <c r="G58" s="60"/>
@@ -44009,6 +44176,12 @@
       <c r="AN58" s="64"/>
       <c r="AO58" s="45"/>
       <c r="AP58" s="45"/>
+      <c r="AR58" s="45"/>
+      <c r="AS58" s="45"/>
+      <c r="AT58" s="45"/>
+      <c r="AU58" s="64"/>
+      <c r="AV58" s="45"/>
+      <c r="AW58" s="45"/>
       <c r="BA58" s="23"/>
     </row>
     <row r="59" spans="1:53">
@@ -44054,6 +44227,12 @@
       <c r="AN59" s="64"/>
       <c r="AO59" s="45"/>
       <c r="AP59" s="45"/>
+      <c r="AR59" s="45"/>
+      <c r="AS59" s="45"/>
+      <c r="AT59" s="45"/>
+      <c r="AU59" s="64"/>
+      <c r="AV59" s="45"/>
+      <c r="AW59" s="45"/>
       <c r="BA59" s="23"/>
     </row>
     <row r="60" spans="1:53">
@@ -44061,11 +44240,11 @@
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="45"/>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="57"/>
       <c r="J60" s="45"/>
       <c r="K60" s="45"/>
       <c r="L60" s="64"/>
@@ -44099,29 +44278,35 @@
       <c r="AN60" s="64"/>
       <c r="AO60" s="45"/>
       <c r="AP60" s="45"/>
+      <c r="AR60" s="45"/>
+      <c r="AS60" s="45"/>
+      <c r="AT60" s="45"/>
+      <c r="AU60" s="64"/>
+      <c r="AV60" s="45"/>
+      <c r="AW60" s="45"/>
       <c r="BA60" s="23"/>
     </row>
     <row r="61" spans="1:53">
       <c r="A61" s="57"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="67"/>
+      <c r="B61" s="183" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="184"/>
+      <c r="D61" s="184"/>
+      <c r="E61" s="184"/>
+      <c r="F61" s="184"/>
+      <c r="G61" s="185"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
       <c r="S61" s="64"/>
       <c r="T61" s="45"/>
       <c r="U61" s="45"/>
@@ -44146,16 +44331,22 @@
       <c r="AN61" s="64"/>
       <c r="AO61" s="45"/>
       <c r="AP61" s="45"/>
+      <c r="AR61" s="45"/>
+      <c r="AS61" s="45"/>
+      <c r="AT61" s="45"/>
+      <c r="AU61" s="64"/>
+      <c r="AV61" s="45"/>
+      <c r="AW61" s="45"/>
       <c r="BA61" s="23"/>
     </row>
     <row r="62" spans="1:53">
       <c r="A62" s="57"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
+      <c r="B62" s="186"/>
+      <c r="C62" s="187"/>
+      <c r="D62" s="187"/>
+      <c r="E62" s="187"/>
+      <c r="F62" s="187"/>
+      <c r="G62" s="188"/>
       <c r="H62" s="45"/>
       <c r="I62" s="45"/>
       <c r="J62" s="45"/>
@@ -44191,6 +44382,12 @@
       <c r="AN62" s="64"/>
       <c r="AO62" s="45"/>
       <c r="AP62" s="45"/>
+      <c r="AR62" s="45"/>
+      <c r="AS62" s="45"/>
+      <c r="AT62" s="45"/>
+      <c r="AU62" s="64"/>
+      <c r="AV62" s="45"/>
+      <c r="AW62" s="45"/>
       <c r="BA62" s="23"/>
     </row>
     <row r="63" spans="1:53">
@@ -44198,29 +44395,27 @@
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
       <c r="D63" s="45"/>
-      <c r="E63" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="60"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="45"/>
+      <c r="U63" s="45"/>
+      <c r="V63" s="45"/>
       <c r="W63" s="45"/>
       <c r="X63" s="45"/>
-      <c r="Y63" s="95"/>
+      <c r="Y63" s="45"/>
       <c r="Z63" s="64"/>
       <c r="AA63" s="45"/>
       <c r="AB63" s="45"/>
@@ -44238,6 +44433,12 @@
       <c r="AN63" s="64"/>
       <c r="AO63" s="45"/>
       <c r="AP63" s="45"/>
+      <c r="AR63" s="45"/>
+      <c r="AS63" s="45"/>
+      <c r="AT63" s="45"/>
+      <c r="AU63" s="64"/>
+      <c r="AV63" s="45"/>
+      <c r="AW63" s="45"/>
       <c r="BA63" s="23"/>
     </row>
     <row r="64" spans="1:53">
@@ -44245,13 +44446,15 @@
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
+      <c r="E64" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="67"/>
       <c r="L64" s="64"/>
       <c r="M64" s="45"/>
       <c r="N64" s="45"/>
@@ -44265,7 +44468,7 @@
       <c r="V64" s="45"/>
       <c r="W64" s="45"/>
       <c r="X64" s="45"/>
-      <c r="Y64" s="95"/>
+      <c r="Y64" s="45"/>
       <c r="Z64" s="64"/>
       <c r="AA64" s="45"/>
       <c r="AB64" s="45"/>
@@ -44283,6 +44486,12 @@
       <c r="AN64" s="64"/>
       <c r="AO64" s="45"/>
       <c r="AP64" s="45"/>
+      <c r="AR64" s="45"/>
+      <c r="AS64" s="45"/>
+      <c r="AT64" s="45"/>
+      <c r="AU64" s="64"/>
+      <c r="AV64" s="45"/>
+      <c r="AW64" s="45"/>
       <c r="BA64" s="23"/>
     </row>
     <row r="65" spans="1:53">
@@ -44290,9 +44499,7 @@
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
-      <c r="E65" s="64" t="s">
-        <v>269</v>
-      </c>
+      <c r="E65" s="64"/>
       <c r="F65" s="45"/>
       <c r="G65" s="45"/>
       <c r="H65" s="45"/>
@@ -44330,6 +44537,12 @@
       <c r="AN65" s="64"/>
       <c r="AO65" s="45"/>
       <c r="AP65" s="45"/>
+      <c r="AR65" s="45"/>
+      <c r="AS65" s="45"/>
+      <c r="AT65" s="45"/>
+      <c r="AU65" s="64"/>
+      <c r="AV65" s="45"/>
+      <c r="AW65" s="45"/>
       <c r="BA65" s="23"/>
     </row>
     <row r="66" spans="1:53">
@@ -44337,44 +44550,50 @@
       <c r="B66" s="45"/>
       <c r="C66" s="45"/>
       <c r="D66" s="45"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="65"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="65"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="65"/>
-      <c r="AA66" s="38"/>
-      <c r="AB66" s="38"/>
-      <c r="AC66" s="38"/>
-      <c r="AD66" s="38"/>
-      <c r="AE66" s="38"/>
-      <c r="AF66" s="66"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="64"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="45"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="64"/>
+      <c r="AA66" s="45"/>
+      <c r="AB66" s="45"/>
+      <c r="AC66" s="45"/>
+      <c r="AD66" s="45"/>
+      <c r="AE66" s="45"/>
+      <c r="AF66" s="45"/>
       <c r="AG66" s="64"/>
       <c r="AH66" s="45"/>
       <c r="AI66" s="45"/>
       <c r="AJ66" s="45"/>
       <c r="AK66" s="45"/>
       <c r="AL66" s="45"/>
-      <c r="AM66" s="95"/>
+      <c r="AM66" s="45"/>
       <c r="AN66" s="64"/>
       <c r="AO66" s="45"/>
       <c r="AP66" s="45"/>
+      <c r="AR66" s="45"/>
+      <c r="AS66" s="45"/>
+      <c r="AT66" s="45"/>
+      <c r="AU66" s="64"/>
+      <c r="AV66" s="45"/>
+      <c r="AW66" s="45"/>
       <c r="BA66" s="23"/>
     </row>
     <row r="67" spans="1:53">
@@ -44382,22 +44601,22 @@
       <c r="B67" s="45"/>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
-      <c r="E67" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="F67" s="45"/>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="64"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="45"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="45"/>
+      <c r="E67" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="60"/>
+      <c r="J67" s="60"/>
+      <c r="K67" s="60"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="60"/>
+      <c r="O67" s="60"/>
+      <c r="P67" s="60"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="67"/>
       <c r="S67" s="64"/>
       <c r="T67" s="45"/>
       <c r="U67" s="45"/>
@@ -44422,6 +44641,12 @@
       <c r="AN67" s="64"/>
       <c r="AO67" s="45"/>
       <c r="AP67" s="45"/>
+      <c r="AR67" s="45"/>
+      <c r="AS67" s="45"/>
+      <c r="AT67" s="45"/>
+      <c r="AU67" s="64"/>
+      <c r="AV67" s="45"/>
+      <c r="AW67" s="45"/>
       <c r="BA67" s="23"/>
     </row>
     <row r="68" spans="1:53">
@@ -44429,44 +44654,50 @@
       <c r="B68" s="45"/>
       <c r="C68" s="45"/>
       <c r="D68" s="45"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="65"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="65"/>
-      <c r="AA68" s="38"/>
-      <c r="AB68" s="38"/>
-      <c r="AC68" s="38"/>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="38"/>
-      <c r="AF68" s="66"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="64"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="45"/>
+      <c r="W68" s="45"/>
+      <c r="X68" s="45"/>
+      <c r="Y68" s="45"/>
+      <c r="Z68" s="64"/>
+      <c r="AA68" s="45"/>
+      <c r="AB68" s="45"/>
+      <c r="AC68" s="45"/>
+      <c r="AD68" s="45"/>
+      <c r="AE68" s="45"/>
+      <c r="AF68" s="45"/>
       <c r="AG68" s="64"/>
       <c r="AH68" s="45"/>
       <c r="AI68" s="45"/>
       <c r="AJ68" s="45"/>
       <c r="AK68" s="45"/>
       <c r="AL68" s="45"/>
-      <c r="AM68" s="95"/>
+      <c r="AM68" s="45"/>
       <c r="AN68" s="64"/>
       <c r="AO68" s="45"/>
       <c r="AP68" s="45"/>
+      <c r="AR68" s="45"/>
+      <c r="AS68" s="45"/>
+      <c r="AT68" s="45"/>
+      <c r="AU68" s="64"/>
+      <c r="AV68" s="45"/>
+      <c r="AW68" s="45"/>
       <c r="BA68" s="23"/>
     </row>
     <row r="69" spans="1:53">
@@ -44474,126 +44705,544 @@
       <c r="B69" s="45"/>
       <c r="C69" s="45"/>
       <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="45"/>
-      <c r="S69" s="45"/>
-      <c r="T69" s="45"/>
-      <c r="U69" s="45"/>
-      <c r="V69" s="45"/>
+      <c r="E69" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="60"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="60"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="60"/>
       <c r="W69" s="45"/>
       <c r="X69" s="45"/>
-      <c r="Y69" s="45"/>
-      <c r="Z69" s="45"/>
+      <c r="Y69" s="95"/>
+      <c r="Z69" s="64"/>
       <c r="AA69" s="45"/>
       <c r="AB69" s="45"/>
       <c r="AC69" s="45"/>
       <c r="AD69" s="45"/>
       <c r="AE69" s="45"/>
       <c r="AF69" s="45"/>
-      <c r="AG69" s="45"/>
+      <c r="AG69" s="64"/>
       <c r="AH69" s="45"/>
       <c r="AI69" s="45"/>
       <c r="AJ69" s="45"/>
       <c r="AK69" s="45"/>
       <c r="AL69" s="45"/>
       <c r="AM69" s="45"/>
-      <c r="AN69" s="45"/>
+      <c r="AN69" s="64"/>
       <c r="AO69" s="45"/>
       <c r="AP69" s="45"/>
-      <c r="AQ69" s="45"/>
       <c r="AR69" s="45"/>
       <c r="AS69" s="45"/>
       <c r="AT69" s="45"/>
-      <c r="AU69" s="45"/>
+      <c r="AU69" s="64"/>
       <c r="AV69" s="45"/>
       <c r="AW69" s="45"/>
-      <c r="AX69" s="45"/>
-      <c r="AY69" s="45"/>
-      <c r="AZ69" s="45"/>
-      <c r="BA69" s="47"/>
+      <c r="BA69" s="23"/>
     </row>
     <row r="70" spans="1:53">
-      <c r="A70" s="56"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="60"/>
-      <c r="N70" s="60"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="60"/>
-      <c r="R70" s="60"/>
-      <c r="S70" s="60"/>
-      <c r="T70" s="60"/>
-      <c r="U70" s="60"/>
-      <c r="V70" s="60"/>
-      <c r="W70" s="60"/>
-      <c r="X70" s="60"/>
-      <c r="Y70" s="60"/>
-      <c r="Z70" s="60"/>
-      <c r="AA70" s="60"/>
-      <c r="AB70" s="60"/>
-      <c r="AC70" s="60"/>
-      <c r="AD70" s="60"/>
-      <c r="AE70" s="60"/>
-      <c r="AF70" s="60"/>
-      <c r="AG70" s="60"/>
-      <c r="AH70" s="60"/>
-      <c r="AI70" s="60"/>
-      <c r="AJ70" s="60"/>
-      <c r="AK70" s="60"/>
-      <c r="AL70" s="60"/>
-      <c r="AM70" s="60"/>
-      <c r="AN70" s="60"/>
-      <c r="AO70" s="60"/>
-      <c r="AP70" s="60"/>
-      <c r="AQ70" s="60"/>
-      <c r="AR70" s="60"/>
-      <c r="AS70" s="60"/>
-      <c r="AT70" s="60"/>
-      <c r="AU70" s="60"/>
-      <c r="AV70" s="60"/>
-      <c r="AW70" s="60"/>
-      <c r="AX70" s="60"/>
-      <c r="AY70" s="60"/>
-      <c r="AZ70" s="60"/>
-      <c r="BA70" s="61"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="64"/>
+      <c r="T70" s="45"/>
+      <c r="U70" s="45"/>
+      <c r="V70" s="45"/>
+      <c r="W70" s="45"/>
+      <c r="X70" s="45"/>
+      <c r="Y70" s="95"/>
+      <c r="Z70" s="64"/>
+      <c r="AA70" s="45"/>
+      <c r="AB70" s="45"/>
+      <c r="AC70" s="45"/>
+      <c r="AD70" s="45"/>
+      <c r="AE70" s="45"/>
+      <c r="AF70" s="45"/>
+      <c r="AG70" s="64"/>
+      <c r="AH70" s="45"/>
+      <c r="AI70" s="45"/>
+      <c r="AJ70" s="45"/>
+      <c r="AK70" s="45"/>
+      <c r="AL70" s="45"/>
+      <c r="AM70" s="45"/>
+      <c r="AN70" s="64"/>
+      <c r="AO70" s="45"/>
+      <c r="AP70" s="45"/>
+      <c r="AR70" s="45"/>
+      <c r="AS70" s="45"/>
+      <c r="AT70" s="45"/>
+      <c r="AU70" s="64"/>
+      <c r="AV70" s="45"/>
+      <c r="AW70" s="45"/>
+      <c r="BA70" s="23"/>
+    </row>
+    <row r="71" spans="1:53">
+      <c r="A71" s="57"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="64"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="45"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="64"/>
+      <c r="AA71" s="45"/>
+      <c r="AB71" s="45"/>
+      <c r="AC71" s="45"/>
+      <c r="AD71" s="45"/>
+      <c r="AE71" s="45"/>
+      <c r="AF71" s="45"/>
+      <c r="AG71" s="64"/>
+      <c r="AH71" s="45"/>
+      <c r="AI71" s="45"/>
+      <c r="AJ71" s="45"/>
+      <c r="AK71" s="45"/>
+      <c r="AL71" s="45"/>
+      <c r="AM71" s="45"/>
+      <c r="AN71" s="64"/>
+      <c r="AO71" s="45"/>
+      <c r="AP71" s="45"/>
+      <c r="AR71" s="45"/>
+      <c r="AS71" s="45"/>
+      <c r="AT71" s="45"/>
+      <c r="AU71" s="64"/>
+      <c r="AV71" s="45"/>
+      <c r="AW71" s="45"/>
+      <c r="BA71" s="23"/>
+    </row>
+    <row r="72" spans="1:53">
+      <c r="A72" s="57"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="65"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="65"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="38"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="66"/>
+      <c r="AG72" s="64"/>
+      <c r="AH72" s="45"/>
+      <c r="AI72" s="45"/>
+      <c r="AJ72" s="45"/>
+      <c r="AK72" s="45"/>
+      <c r="AL72" s="45"/>
+      <c r="AM72" s="95"/>
+      <c r="AN72" s="64"/>
+      <c r="AO72" s="45"/>
+      <c r="AP72" s="45"/>
+      <c r="AR72" s="45"/>
+      <c r="AS72" s="45"/>
+      <c r="AT72" s="95"/>
+      <c r="AU72" s="64"/>
+      <c r="AV72" s="45"/>
+      <c r="AW72" s="45"/>
+      <c r="BA72" s="23"/>
+    </row>
+    <row r="73" spans="1:53">
+      <c r="A73" s="57"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="45"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="45"/>
+      <c r="U73" s="45"/>
+      <c r="V73" s="45"/>
+      <c r="W73" s="45"/>
+      <c r="X73" s="45"/>
+      <c r="Y73" s="45"/>
+      <c r="Z73" s="64"/>
+      <c r="AA73" s="45"/>
+      <c r="AB73" s="45"/>
+      <c r="AC73" s="45"/>
+      <c r="AD73" s="45"/>
+      <c r="AE73" s="45"/>
+      <c r="AF73" s="45"/>
+      <c r="AG73" s="64"/>
+      <c r="AH73" s="45"/>
+      <c r="AI73" s="45"/>
+      <c r="AJ73" s="45"/>
+      <c r="AK73" s="45"/>
+      <c r="AL73" s="45"/>
+      <c r="AM73" s="45"/>
+      <c r="AN73" s="64"/>
+      <c r="AO73" s="45"/>
+      <c r="AP73" s="45"/>
+      <c r="AR73" s="45"/>
+      <c r="AS73" s="45"/>
+      <c r="AT73" s="45"/>
+      <c r="AU73" s="64"/>
+      <c r="AV73" s="45"/>
+      <c r="AW73" s="45"/>
+      <c r="BA73" s="23"/>
+    </row>
+    <row r="74" spans="1:53">
+      <c r="A74" s="57"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="38"/>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="38"/>
+      <c r="S74" s="65"/>
+      <c r="T74" s="38"/>
+      <c r="U74" s="38"/>
+      <c r="V74" s="38"/>
+      <c r="W74" s="38"/>
+      <c r="X74" s="38"/>
+      <c r="Y74" s="38"/>
+      <c r="Z74" s="65"/>
+      <c r="AA74" s="38"/>
+      <c r="AB74" s="38"/>
+      <c r="AC74" s="38"/>
+      <c r="AD74" s="38"/>
+      <c r="AE74" s="38"/>
+      <c r="AF74" s="66"/>
+      <c r="AG74" s="64"/>
+      <c r="AH74" s="45"/>
+      <c r="AI74" s="45"/>
+      <c r="AJ74" s="45"/>
+      <c r="AK74" s="45"/>
+      <c r="AL74" s="45"/>
+      <c r="AM74" s="95"/>
+      <c r="AN74" s="64"/>
+      <c r="AO74" s="45"/>
+      <c r="AP74" s="45"/>
+      <c r="AR74" s="45"/>
+      <c r="AS74" s="45"/>
+      <c r="AT74" s="95"/>
+      <c r="AU74" s="64"/>
+      <c r="AV74" s="45"/>
+      <c r="AW74" s="45"/>
+      <c r="BA74" s="23"/>
+    </row>
+    <row r="75" spans="1:53">
+      <c r="A75" s="57"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="45"/>
+      <c r="I75" s="45"/>
+      <c r="J75" s="45"/>
+      <c r="K75" s="45"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="45"/>
+      <c r="N75" s="45"/>
+      <c r="O75" s="45"/>
+      <c r="P75" s="45"/>
+      <c r="Q75" s="45"/>
+      <c r="R75" s="45"/>
+      <c r="S75" s="64"/>
+      <c r="T75" s="45"/>
+      <c r="U75" s="45"/>
+      <c r="V75" s="45"/>
+      <c r="W75" s="45"/>
+      <c r="X75" s="45"/>
+      <c r="Y75" s="45"/>
+      <c r="Z75" s="64"/>
+      <c r="AA75" s="45"/>
+      <c r="AB75" s="45"/>
+      <c r="AC75" s="45"/>
+      <c r="AD75" s="45"/>
+      <c r="AE75" s="45"/>
+      <c r="AF75" s="45"/>
+      <c r="AG75" s="64"/>
+      <c r="AH75" s="45"/>
+      <c r="AI75" s="45"/>
+      <c r="AJ75" s="45"/>
+      <c r="AK75" s="45"/>
+      <c r="AL75" s="45"/>
+      <c r="AM75" s="45"/>
+      <c r="AN75" s="64"/>
+      <c r="AO75" s="45"/>
+      <c r="AP75" s="45"/>
+      <c r="AR75" s="45"/>
+      <c r="AS75" s="45"/>
+      <c r="AT75" s="95"/>
+      <c r="AU75" s="64"/>
+      <c r="AV75" s="45"/>
+      <c r="AW75" s="45"/>
+      <c r="BA75" s="23"/>
+    </row>
+    <row r="76" spans="1:53">
+      <c r="A76" s="57"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="65"/>
+      <c r="M76" s="38"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="65"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="38"/>
+      <c r="V76" s="38"/>
+      <c r="W76" s="38"/>
+      <c r="X76" s="38"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="65"/>
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="38"/>
+      <c r="AC76" s="38"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="38"/>
+      <c r="AF76" s="66"/>
+      <c r="AG76" s="64"/>
+      <c r="AH76" s="45"/>
+      <c r="AI76" s="45"/>
+      <c r="AJ76" s="45"/>
+      <c r="AK76" s="45"/>
+      <c r="AL76" s="45"/>
+      <c r="AM76" s="95"/>
+      <c r="AN76" s="65"/>
+      <c r="AO76" s="38"/>
+      <c r="AP76" s="38"/>
+      <c r="AQ76" s="19"/>
+      <c r="AR76" s="38"/>
+      <c r="AS76" s="38"/>
+      <c r="AT76" s="66"/>
+      <c r="AU76" s="64"/>
+      <c r="AV76" s="45"/>
+      <c r="AW76" s="45"/>
+      <c r="BA76" s="23"/>
+    </row>
+    <row r="77" spans="1:53">
+      <c r="A77" s="57"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="45"/>
+      <c r="Q77" s="45"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="45"/>
+      <c r="U77" s="45"/>
+      <c r="V77" s="45"/>
+      <c r="W77" s="45"/>
+      <c r="X77" s="45"/>
+      <c r="Y77" s="45"/>
+      <c r="Z77" s="45"/>
+      <c r="AA77" s="45"/>
+      <c r="AB77" s="45"/>
+      <c r="AC77" s="45"/>
+      <c r="AD77" s="45"/>
+      <c r="AE77" s="45"/>
+      <c r="AF77" s="45"/>
+      <c r="AG77" s="45"/>
+      <c r="AH77" s="45"/>
+      <c r="AI77" s="45"/>
+      <c r="AJ77" s="45"/>
+      <c r="AK77" s="45"/>
+      <c r="AL77" s="45"/>
+      <c r="AM77" s="45"/>
+      <c r="AN77" s="45"/>
+      <c r="AO77" s="45"/>
+      <c r="AP77" s="45"/>
+      <c r="AQ77" s="45"/>
+      <c r="AR77" s="45"/>
+      <c r="AS77" s="45"/>
+      <c r="AT77" s="45"/>
+      <c r="AU77" s="45"/>
+      <c r="AV77" s="45"/>
+      <c r="AW77" s="45"/>
+      <c r="AX77" s="45"/>
+      <c r="AY77" s="45"/>
+      <c r="AZ77" s="45"/>
+      <c r="BA77" s="47"/>
+    </row>
+    <row r="78" spans="1:53">
+      <c r="A78" s="56"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="60"/>
+      <c r="N78" s="60"/>
+      <c r="O78" s="60"/>
+      <c r="P78" s="60"/>
+      <c r="Q78" s="60"/>
+      <c r="R78" s="60"/>
+      <c r="S78" s="60"/>
+      <c r="T78" s="60"/>
+      <c r="U78" s="60"/>
+      <c r="V78" s="60"/>
+      <c r="W78" s="60"/>
+      <c r="X78" s="60"/>
+      <c r="Y78" s="60"/>
+      <c r="Z78" s="60"/>
+      <c r="AA78" s="60"/>
+      <c r="AB78" s="60"/>
+      <c r="AC78" s="60"/>
+      <c r="AD78" s="60"/>
+      <c r="AE78" s="60"/>
+      <c r="AF78" s="60"/>
+      <c r="AG78" s="60"/>
+      <c r="AH78" s="60"/>
+      <c r="AI78" s="60"/>
+      <c r="AJ78" s="60"/>
+      <c r="AK78" s="60"/>
+      <c r="AL78" s="60"/>
+      <c r="AM78" s="60"/>
+      <c r="AN78" s="60"/>
+      <c r="AO78" s="60"/>
+      <c r="AP78" s="60"/>
+      <c r="AQ78" s="60"/>
+      <c r="AR78" s="60"/>
+      <c r="AS78" s="60"/>
+      <c r="AT78" s="60"/>
+      <c r="AU78" s="60"/>
+      <c r="AV78" s="60"/>
+      <c r="AW78" s="60"/>
+      <c r="AX78" s="60"/>
+      <c r="AY78" s="60"/>
+      <c r="AZ78" s="60"/>
+      <c r="BA78" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B55:G56"/>
+  <mergeCells count="14">
+    <mergeCell ref="B61:G62"/>
     <mergeCell ref="A1:V2"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AJ1"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AJ2"/>
-    <mergeCell ref="B47:G48"/>
-    <mergeCell ref="I47:N48"/>
-    <mergeCell ref="P47:U48"/>
-    <mergeCell ref="A44:BA44"/>
-    <mergeCell ref="W47:AB48"/>
-    <mergeCell ref="AD47:AI48"/>
-    <mergeCell ref="AK47:AP48"/>
+    <mergeCell ref="B53:G54"/>
+    <mergeCell ref="I53:N54"/>
+    <mergeCell ref="P53:U54"/>
+    <mergeCell ref="A50:BA50"/>
+    <mergeCell ref="W53:AB54"/>
+    <mergeCell ref="AD53:AI54"/>
+    <mergeCell ref="AK53:AP54"/>
+    <mergeCell ref="AR53:AW54"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -52945,6 +53594,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="W97:AB98"/>
+    <mergeCell ref="B69:G70"/>
+    <mergeCell ref="I69:N70"/>
+    <mergeCell ref="P69:U70"/>
+    <mergeCell ref="I32:N33"/>
+    <mergeCell ref="B41:G42"/>
+    <mergeCell ref="I41:N42"/>
+    <mergeCell ref="P41:U42"/>
+    <mergeCell ref="B59:G60"/>
+    <mergeCell ref="I59:N60"/>
+    <mergeCell ref="B32:G33"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
     <mergeCell ref="W131:AB132"/>
     <mergeCell ref="B131:G132"/>
     <mergeCell ref="I131:N132"/>
@@ -52961,22 +53626,6 @@
     <mergeCell ref="W114:AB115"/>
     <mergeCell ref="B50:G51"/>
     <mergeCell ref="B80:G81"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
-    <mergeCell ref="W97:AB98"/>
-    <mergeCell ref="B69:G70"/>
-    <mergeCell ref="I69:N70"/>
-    <mergeCell ref="P69:U70"/>
-    <mergeCell ref="I32:N33"/>
-    <mergeCell ref="B41:G42"/>
-    <mergeCell ref="I41:N42"/>
-    <mergeCell ref="P41:U42"/>
-    <mergeCell ref="B59:G60"/>
-    <mergeCell ref="I59:N60"/>
-    <mergeCell ref="B32:G33"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -58659,13 +59308,16 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A26:BA26"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
-    <mergeCell ref="A4:BA4"/>
+    <mergeCell ref="B94:G95"/>
+    <mergeCell ref="W65:AB66"/>
+    <mergeCell ref="B74:G75"/>
+    <mergeCell ref="B86:G87"/>
+    <mergeCell ref="I86:N87"/>
+    <mergeCell ref="P86:U87"/>
+    <mergeCell ref="W86:AB87"/>
+    <mergeCell ref="B65:G66"/>
+    <mergeCell ref="I65:N66"/>
+    <mergeCell ref="P65:U66"/>
     <mergeCell ref="B53:G54"/>
     <mergeCell ref="P44:U45"/>
     <mergeCell ref="W44:AB45"/>
@@ -58676,16 +59328,13 @@
     <mergeCell ref="I44:N45"/>
     <mergeCell ref="B29:G31"/>
     <mergeCell ref="I29:N31"/>
-    <mergeCell ref="B94:G95"/>
-    <mergeCell ref="W65:AB66"/>
-    <mergeCell ref="B74:G75"/>
-    <mergeCell ref="B86:G87"/>
-    <mergeCell ref="I86:N87"/>
-    <mergeCell ref="P86:U87"/>
-    <mergeCell ref="W86:AB87"/>
-    <mergeCell ref="B65:G66"/>
-    <mergeCell ref="I65:N66"/>
-    <mergeCell ref="P65:U66"/>
+    <mergeCell ref="A26:BA26"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
+    <mergeCell ref="A4:BA4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -66828,16 +67477,11 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="I86:N87"/>
-    <mergeCell ref="P86:U87"/>
-    <mergeCell ref="W86:AB87"/>
-    <mergeCell ref="A34:BA34"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AJ2"/>
-    <mergeCell ref="A4:BA4"/>
+    <mergeCell ref="B123:G124"/>
+    <mergeCell ref="I123:N124"/>
+    <mergeCell ref="B131:G132"/>
+    <mergeCell ref="B108:G109"/>
+    <mergeCell ref="I108:N109"/>
     <mergeCell ref="P108:U109"/>
     <mergeCell ref="B116:G117"/>
     <mergeCell ref="W37:AB38"/>
@@ -66854,11 +67498,16 @@
     <mergeCell ref="P37:U38"/>
     <mergeCell ref="B101:G102"/>
     <mergeCell ref="B86:G87"/>
-    <mergeCell ref="B123:G124"/>
-    <mergeCell ref="I123:N124"/>
-    <mergeCell ref="B131:G132"/>
-    <mergeCell ref="B108:G109"/>
-    <mergeCell ref="I108:N109"/>
+    <mergeCell ref="I86:N87"/>
+    <mergeCell ref="P86:U87"/>
+    <mergeCell ref="W86:AB87"/>
+    <mergeCell ref="A34:BA34"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AJ2"/>
+    <mergeCell ref="A4:BA4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -73838,23 +74487,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B96:G97"/>
-    <mergeCell ref="B72:G73"/>
-    <mergeCell ref="B80:G81"/>
-    <mergeCell ref="I80:N81"/>
-    <mergeCell ref="P80:U81"/>
-    <mergeCell ref="B88:G89"/>
-    <mergeCell ref="P31:U32"/>
-    <mergeCell ref="B54:G55"/>
-    <mergeCell ref="I54:N55"/>
-    <mergeCell ref="P54:U55"/>
-    <mergeCell ref="B62:G63"/>
-    <mergeCell ref="B45:G46"/>
-    <mergeCell ref="B22:G23"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="B31:G32"/>
-    <mergeCell ref="I31:N32"/>
-    <mergeCell ref="B37:G38"/>
     <mergeCell ref="A19:BA19"/>
     <mergeCell ref="A1:V2"/>
     <mergeCell ref="W1:Z1"/>
@@ -73862,6 +74494,23 @@
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AA2:AJ2"/>
     <mergeCell ref="A4:BA4"/>
+    <mergeCell ref="B22:G23"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="B31:G32"/>
+    <mergeCell ref="I31:N32"/>
+    <mergeCell ref="B37:G38"/>
+    <mergeCell ref="P31:U32"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="I54:N55"/>
+    <mergeCell ref="P54:U55"/>
+    <mergeCell ref="B62:G63"/>
+    <mergeCell ref="B45:G46"/>
+    <mergeCell ref="B96:G97"/>
+    <mergeCell ref="B72:G73"/>
+    <mergeCell ref="B80:G81"/>
+    <mergeCell ref="I80:N81"/>
+    <mergeCell ref="P80:U81"/>
+    <mergeCell ref="B88:G89"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
